--- a/data/despesas_2023.xlsx
+++ b/data/despesas_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mrleague_financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="DESPESAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,7 +439,9 @@
   </sheetPr>
   <dimension ref="A1:U978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -450,7 +453,7 @@
     <col min="6" max="16384" width="12.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +486,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>45140</v>
       </c>
@@ -516,7 +519,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>45159</v>
       </c>
@@ -549,7 +552,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>45159</v>
       </c>
@@ -582,7 +585,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -605,7 +608,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -628,7 +631,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -651,7 +654,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -674,7 +677,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -697,7 +700,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -720,7 +723,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -743,7 +746,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -766,7 +769,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -789,7 +792,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -812,7 +815,7 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -835,7 +838,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -858,7 +861,7 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -881,7 +884,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -904,7 +907,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -927,7 +930,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -950,7 +953,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -973,7 +976,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -996,7 +999,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -1019,7 +1022,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -1042,7 +1045,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -1065,7 +1068,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -1088,7 +1091,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -1111,7 +1114,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1134,7 +1137,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -1157,7 +1160,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -1180,7 +1183,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -1203,7 +1206,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -1226,7 +1229,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1249,7 +1252,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -1272,7 +1275,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -1295,7 +1298,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -1318,7 +1321,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1341,7 +1344,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -1364,7 +1367,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" ht="12.75">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -1387,7 +1390,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" ht="12.75">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -1410,7 +1413,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" ht="12.75">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -1433,7 +1436,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" ht="12.75">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -1456,7 +1459,7 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" ht="12.75">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -1479,7 +1482,7 @@
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" ht="12.75">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1502,7 +1505,7 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" ht="12.75">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -1525,7 +1528,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" ht="12.75">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -1548,7 +1551,7 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" ht="12.75">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -1571,7 +1574,7 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" ht="12.75">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -1594,7 +1597,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" ht="12.75">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -1617,7 +1620,7 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" ht="12.75">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -1640,7 +1643,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" ht="12.75">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -1663,7 +1666,7 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" ht="12.75">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -1686,7 +1689,7 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" ht="12.75">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -1709,7 +1712,7 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" ht="12.75">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -1732,7 +1735,7 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" ht="12.75">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -1755,7 +1758,7 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" ht="12.75">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -1778,7 +1781,7 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" ht="12.75">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -1801,7 +1804,7 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" ht="12.75">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -1824,7 +1827,7 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" ht="12.75">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -1847,7 +1850,7 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" ht="12.75">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -1870,7 +1873,7 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" ht="12.75">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -1893,7 +1896,7 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" ht="12.75">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -1916,7 +1919,7 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" ht="12.75">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -1939,7 +1942,7 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" ht="12.75">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -1962,7 +1965,7 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" ht="12.75">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -1985,7 +1988,7 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" ht="12.75">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -2008,7 +2011,7 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" ht="12.75">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -2031,7 +2034,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" ht="12.75">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -2054,7 +2057,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" ht="12.75">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -2077,7 +2080,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" ht="12.75">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -2100,7 +2103,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" ht="12.75">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -2123,7 +2126,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" ht="12.75">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -2146,7 +2149,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" ht="12.75">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -2169,7 +2172,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" ht="12.75">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -2192,7 +2195,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" ht="12.75">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -2215,7 +2218,7 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" ht="12.75">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -2238,7 +2241,7 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" ht="12.75">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -2261,7 +2264,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" ht="12.75">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -2284,7 +2287,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" ht="12.75">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -2307,7 +2310,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" ht="12.75">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -2330,7 +2333,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" ht="12.75">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -2353,7 +2356,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" ht="12.75">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -2376,7 +2379,7 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" ht="12.75">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -2399,7 +2402,7 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" ht="12.75">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -2422,7 +2425,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" ht="12.75">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -2445,7 +2448,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" ht="12.75">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -2468,7 +2471,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" ht="12.75">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -2491,7 +2494,7 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" ht="12.75">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -2514,7 +2517,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" ht="12.75">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -2537,7 +2540,7 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" ht="12.75">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -2560,7 +2563,7 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" ht="12.75">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -2583,7 +2586,7 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" ht="12.75">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -2606,7 +2609,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" ht="12.75">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -2629,7 +2632,7 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" ht="12.75">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -2652,7 +2655,7 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" ht="12.75">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -2675,7 +2678,7 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" ht="12.75">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -2698,7 +2701,7 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" ht="12.75">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -2721,7 +2724,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" ht="12.75">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -2744,7 +2747,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" ht="12.75">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -2767,7 +2770,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" ht="12.75">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -2790,7 +2793,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" ht="12.75">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -2813,7 +2816,7 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" ht="12.75">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -2836,7 +2839,7 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" ht="12.75">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
@@ -2859,7 +2862,7 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" ht="12.75">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
@@ -2882,7 +2885,7 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" ht="12.75">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
@@ -2905,7 +2908,7 @@
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" ht="12.75">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -2928,7 +2931,7 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" ht="12.75">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -2951,7 +2954,7 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" ht="12.75">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -2974,7 +2977,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" ht="12.75">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -2997,7 +3000,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" ht="12.75">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -3020,7 +3023,7 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" ht="12.75">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -3043,7 +3046,7 @@
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" ht="12.75">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
@@ -3066,7 +3069,7 @@
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" ht="12.75">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -3089,7 +3092,7 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" ht="12.75">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -3112,7 +3115,7 @@
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" ht="12.75">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -3135,7 +3138,7 @@
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" ht="12.75">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -3158,7 +3161,7 @@
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" ht="12.75">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -3181,7 +3184,7 @@
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" ht="12.75">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -3204,7 +3207,7 @@
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" ht="12.75">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -3227,7 +3230,7 @@
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" ht="12.75">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -3250,7 +3253,7 @@
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" ht="12.75">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -3273,7 +3276,7 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" ht="12.75">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
@@ -3296,7 +3299,7 @@
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" ht="12.75">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -3319,7 +3322,7 @@
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" ht="12.75">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -3342,7 +3345,7 @@
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" ht="12.75">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -3365,7 +3368,7 @@
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" ht="12.75">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -3388,7 +3391,7 @@
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" ht="12.75">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
@@ -3411,7 +3414,7 @@
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" ht="12.75">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
@@ -3434,7 +3437,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" ht="12.75">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
@@ -3457,7 +3460,7 @@
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" ht="12.75">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
@@ -3480,7 +3483,7 @@
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" ht="12.75">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
@@ -3503,7 +3506,7 @@
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" ht="12.75">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
@@ -3526,7 +3529,7 @@
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" ht="12.75">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
@@ -3549,7 +3552,7 @@
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" ht="12.75">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
@@ -3572,7 +3575,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" ht="12.75">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
@@ -3595,7 +3598,7 @@
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" ht="12.75">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
@@ -3618,7 +3621,7 @@
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" ht="12.75">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
@@ -3641,7 +3644,7 @@
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" ht="12.75">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
@@ -3664,7 +3667,7 @@
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" ht="12.75">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -3687,7 +3690,7 @@
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" ht="12.75">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
@@ -3710,7 +3713,7 @@
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" ht="12.75">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
@@ -3733,7 +3736,7 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" ht="12.75">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
@@ -3756,7 +3759,7 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" ht="12.75">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
@@ -3779,7 +3782,7 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" ht="12.75">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
@@ -3802,7 +3805,7 @@
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" ht="12.75">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
@@ -3825,7 +3828,7 @@
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" ht="12.75">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
@@ -3848,7 +3851,7 @@
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" ht="12.75">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
@@ -3871,7 +3874,7 @@
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" ht="12.75">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
@@ -3894,7 +3897,7 @@
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" ht="12.75">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
@@ -3917,7 +3920,7 @@
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" ht="12.75">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
@@ -3940,7 +3943,7 @@
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" ht="12.75">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
@@ -3963,7 +3966,7 @@
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" ht="12.75">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
@@ -3986,7 +3989,7 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" ht="12.75">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
@@ -4009,7 +4012,7 @@
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" ht="12.75">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
@@ -4032,7 +4035,7 @@
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" ht="12.75">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -4055,7 +4058,7 @@
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" ht="12.75">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -4078,7 +4081,7 @@
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" ht="12.75">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
@@ -4101,7 +4104,7 @@
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" ht="12.75">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
@@ -4124,7 +4127,7 @@
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" ht="12.75">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
@@ -4147,7 +4150,7 @@
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" ht="12.75">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
@@ -4170,7 +4173,7 @@
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" ht="12.75">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
@@ -4193,7 +4196,7 @@
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" ht="12.75">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
@@ -4216,7 +4219,7 @@
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" ht="12.75">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -4239,7 +4242,7 @@
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" ht="12.75">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -4262,7 +4265,7 @@
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" ht="12.75">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -4285,7 +4288,7 @@
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" ht="12.75">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -4308,7 +4311,7 @@
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" ht="12.75">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -4331,7 +4334,7 @@
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" ht="12.75">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -4354,7 +4357,7 @@
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" ht="12.75">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -4377,7 +4380,7 @@
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" ht="12.75">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -4400,7 +4403,7 @@
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" ht="12.75">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -4423,7 +4426,7 @@
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" ht="12.75">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -4446,7 +4449,7 @@
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" ht="12.75">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -4469,7 +4472,7 @@
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" ht="12.75">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -4492,7 +4495,7 @@
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" ht="12.75">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -4515,7 +4518,7 @@
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" ht="12.75">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -4538,7 +4541,7 @@
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" ht="12.75">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -4561,7 +4564,7 @@
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" ht="12.75">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -4584,7 +4587,7 @@
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" ht="12.75">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -4607,7 +4610,7 @@
       <c r="T179" s="5"/>
       <c r="U179" s="5"/>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" ht="12.75">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -4630,7 +4633,7 @@
       <c r="T180" s="5"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" ht="12.75">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -4653,7 +4656,7 @@
       <c r="T181" s="5"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" ht="12.75">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -4676,7 +4679,7 @@
       <c r="T182" s="5"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" ht="12.75">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -4699,7 +4702,7 @@
       <c r="T183" s="5"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" ht="12.75">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -4722,7 +4725,7 @@
       <c r="T184" s="5"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" ht="12.75">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -4745,7 +4748,7 @@
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" ht="12.75">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -4768,7 +4771,7 @@
       <c r="T186" s="5"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" ht="12.75">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -4791,7 +4794,7 @@
       <c r="T187" s="5"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" ht="12.75">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -4814,7 +4817,7 @@
       <c r="T188" s="5"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" ht="12.75">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -4837,7 +4840,7 @@
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" ht="12.75">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -4860,7 +4863,7 @@
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" ht="12.75">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -4883,7 +4886,7 @@
       <c r="T191" s="5"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" ht="12.75">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -4906,7 +4909,7 @@
       <c r="T192" s="5"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" ht="12.75">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -4929,7 +4932,7 @@
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" ht="12.75">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -4952,7 +4955,7 @@
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" ht="12.75">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -4975,7 +4978,7 @@
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" ht="12.75">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -4998,7 +5001,7 @@
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" ht="12.75">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -5021,7 +5024,7 @@
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" ht="12.75">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -5044,7 +5047,7 @@
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" ht="12.75">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -5067,7 +5070,7 @@
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" ht="12.75">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
@@ -5090,7 +5093,7 @@
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" ht="12.75">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
@@ -5113,7 +5116,7 @@
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" ht="12.75">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
@@ -5136,7 +5139,7 @@
       <c r="T202" s="5"/>
       <c r="U202" s="5"/>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" ht="12.75">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
@@ -5159,7 +5162,7 @@
       <c r="T203" s="5"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" ht="12.75">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
@@ -5182,7 +5185,7 @@
       <c r="T204" s="5"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" ht="12.75">
       <c r="A205" s="7"/>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
@@ -5205,7 +5208,7 @@
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" ht="12.75">
       <c r="A206" s="7"/>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
@@ -5228,7 +5231,7 @@
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" ht="12.75">
       <c r="A207" s="7"/>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
@@ -5251,7 +5254,7 @@
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" ht="12.75">
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="9"/>
@@ -5274,7 +5277,7 @@
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" ht="12.75">
       <c r="A209" s="7"/>
       <c r="B209" s="8"/>
       <c r="C209" s="9"/>
@@ -5297,7 +5300,7 @@
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" ht="12.75">
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="9"/>
@@ -5320,7 +5323,7 @@
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" ht="12.75">
       <c r="A211" s="7"/>
       <c r="B211" s="8"/>
       <c r="C211" s="9"/>
@@ -5343,7 +5346,7 @@
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" ht="12.75">
       <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="9"/>
@@ -5366,7 +5369,7 @@
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" ht="12.75">
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
@@ -5389,7 +5392,7 @@
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" ht="12.75">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
@@ -5412,7 +5415,7 @@
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" ht="12.75">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
@@ -5435,7 +5438,7 @@
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" ht="12.75">
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
@@ -5458,7 +5461,7 @@
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" ht="12.75">
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
@@ -5481,7 +5484,7 @@
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" ht="12.75">
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
@@ -5504,7 +5507,7 @@
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" ht="12.75">
       <c r="A219" s="7"/>
       <c r="B219" s="8"/>
       <c r="C219" s="9"/>
@@ -5527,7 +5530,7 @@
       <c r="T219" s="5"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" ht="12.75">
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
@@ -5550,7 +5553,7 @@
       <c r="T220" s="5"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" ht="12.75">
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="9"/>
@@ -5573,7 +5576,7 @@
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" ht="12.75">
       <c r="A222" s="7"/>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
@@ -5596,7 +5599,7 @@
       <c r="T222" s="5"/>
       <c r="U222" s="5"/>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" ht="12.75">
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -5619,7 +5622,7 @@
       <c r="T223" s="5"/>
       <c r="U223" s="5"/>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" ht="12.75">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
@@ -5642,7 +5645,7 @@
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" ht="12.75">
       <c r="A225" s="7"/>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
@@ -5665,7 +5668,7 @@
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" ht="12.75">
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
@@ -5688,7 +5691,7 @@
       <c r="T226" s="5"/>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" ht="12.75">
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
@@ -5711,7 +5714,7 @@
       <c r="T227" s="5"/>
       <c r="U227" s="5"/>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" ht="12.75">
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="9"/>
@@ -5734,7 +5737,7 @@
       <c r="T228" s="5"/>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" ht="12.75">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
@@ -5757,7 +5760,7 @@
       <c r="T229" s="5"/>
       <c r="U229" s="5"/>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" ht="12.75">
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
@@ -5780,7 +5783,7 @@
       <c r="T230" s="5"/>
       <c r="U230" s="5"/>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" ht="12.75">
       <c r="A231" s="7"/>
       <c r="B231" s="8"/>
       <c r="C231" s="9"/>
@@ -5803,7 +5806,7 @@
       <c r="T231" s="5"/>
       <c r="U231" s="5"/>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" ht="12.75">
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" s="9"/>
@@ -5826,7 +5829,7 @@
       <c r="T232" s="5"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" ht="12.75">
       <c r="A233" s="7"/>
       <c r="B233" s="8"/>
       <c r="C233" s="9"/>
@@ -5849,7 +5852,7 @@
       <c r="T233" s="5"/>
       <c r="U233" s="5"/>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" ht="12.75">
       <c r="A234" s="7"/>
       <c r="B234" s="8"/>
       <c r="C234" s="9"/>
@@ -5872,7 +5875,7 @@
       <c r="T234" s="5"/>
       <c r="U234" s="5"/>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" ht="12.75">
       <c r="A235" s="7"/>
       <c r="B235" s="8"/>
       <c r="C235" s="9"/>
@@ -5895,7 +5898,7 @@
       <c r="T235" s="5"/>
       <c r="U235" s="5"/>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" ht="12.75">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="9"/>
@@ -5918,7 +5921,7 @@
       <c r="T236" s="5"/>
       <c r="U236" s="5"/>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" ht="12.75">
       <c r="A237" s="7"/>
       <c r="B237" s="8"/>
       <c r="C237" s="9"/>
@@ -5941,7 +5944,7 @@
       <c r="T237" s="5"/>
       <c r="U237" s="5"/>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" ht="12.75">
       <c r="A238" s="7"/>
       <c r="B238" s="8"/>
       <c r="C238" s="9"/>
@@ -5964,7 +5967,7 @@
       <c r="T238" s="5"/>
       <c r="U238" s="5"/>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" ht="12.75">
       <c r="A239" s="7"/>
       <c r="B239" s="8"/>
       <c r="C239" s="9"/>
@@ -5987,7 +5990,7 @@
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" ht="12.75">
       <c r="A240" s="7"/>
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
@@ -6010,7 +6013,7 @@
       <c r="T240" s="5"/>
       <c r="U240" s="5"/>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" ht="12.75">
       <c r="A241" s="7"/>
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
@@ -6033,7 +6036,7 @@
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" ht="12.75">
       <c r="A242" s="7"/>
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
@@ -6056,7 +6059,7 @@
       <c r="T242" s="5"/>
       <c r="U242" s="5"/>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" ht="12.75">
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
@@ -6079,7 +6082,7 @@
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" ht="12.75">
       <c r="A244" s="7"/>
       <c r="B244" s="8"/>
       <c r="C244" s="9"/>
@@ -6102,7 +6105,7 @@
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" ht="12.75">
       <c r="A245" s="7"/>
       <c r="B245" s="8"/>
       <c r="C245" s="9"/>
@@ -6125,7 +6128,7 @@
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" ht="12.75">
       <c r="A246" s="7"/>
       <c r="B246" s="8"/>
       <c r="C246" s="9"/>
@@ -6148,7 +6151,7 @@
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" ht="12.75">
       <c r="A247" s="7"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
@@ -6171,7 +6174,7 @@
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" ht="12.75">
       <c r="A248" s="7"/>
       <c r="B248" s="8"/>
       <c r="C248" s="9"/>
@@ -6194,7 +6197,7 @@
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" ht="12.75">
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" s="9"/>
@@ -6217,7 +6220,7 @@
       <c r="T249" s="5"/>
       <c r="U249" s="5"/>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" ht="12.75">
       <c r="A250" s="7"/>
       <c r="B250" s="8"/>
       <c r="C250" s="9"/>
@@ -6240,7 +6243,7 @@
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" ht="12.75">
       <c r="A251" s="7"/>
       <c r="B251" s="8"/>
       <c r="C251" s="9"/>
@@ -6263,7 +6266,7 @@
       <c r="T251" s="5"/>
       <c r="U251" s="5"/>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" ht="12.75">
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" s="9"/>
@@ -6286,7 +6289,7 @@
       <c r="T252" s="5"/>
       <c r="U252" s="5"/>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" ht="12.75">
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" s="9"/>
@@ -6309,7 +6312,7 @@
       <c r="T253" s="5"/>
       <c r="U253" s="5"/>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" ht="12.75">
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" s="9"/>
@@ -6332,7 +6335,7 @@
       <c r="T254" s="5"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" ht="12.75">
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" s="9"/>
@@ -6355,7 +6358,7 @@
       <c r="T255" s="5"/>
       <c r="U255" s="5"/>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" ht="12.75">
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" s="9"/>
@@ -6378,7 +6381,7 @@
       <c r="T256" s="5"/>
       <c r="U256" s="5"/>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" ht="12.75">
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" s="9"/>
@@ -6401,7 +6404,7 @@
       <c r="T257" s="5"/>
       <c r="U257" s="5"/>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" ht="12.75">
       <c r="A258" s="7"/>
       <c r="B258" s="8"/>
       <c r="C258" s="9"/>
@@ -6424,7 +6427,7 @@
       <c r="T258" s="5"/>
       <c r="U258" s="5"/>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" ht="12.75">
       <c r="A259" s="7"/>
       <c r="B259" s="8"/>
       <c r="C259" s="9"/>
@@ -6447,7 +6450,7 @@
       <c r="T259" s="5"/>
       <c r="U259" s="5"/>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" ht="12.75">
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="9"/>
@@ -6470,7 +6473,7 @@
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" ht="12.75">
       <c r="A261" s="7"/>
       <c r="B261" s="8"/>
       <c r="C261" s="9"/>
@@ -6493,7 +6496,7 @@
       <c r="T261" s="5"/>
       <c r="U261" s="5"/>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" ht="12.75">
       <c r="A262" s="7"/>
       <c r="B262" s="8"/>
       <c r="C262" s="9"/>
@@ -6516,7 +6519,7 @@
       <c r="T262" s="5"/>
       <c r="U262" s="5"/>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" ht="12.75">
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="9"/>
@@ -6539,7 +6542,7 @@
       <c r="T263" s="5"/>
       <c r="U263" s="5"/>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" ht="12.75">
       <c r="A264" s="7"/>
       <c r="B264" s="8"/>
       <c r="C264" s="9"/>
@@ -6562,7 +6565,7 @@
       <c r="T264" s="5"/>
       <c r="U264" s="5"/>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" ht="12.75">
       <c r="A265" s="7"/>
       <c r="B265" s="8"/>
       <c r="C265" s="9"/>
@@ -6585,7 +6588,7 @@
       <c r="T265" s="5"/>
       <c r="U265" s="5"/>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" ht="12.75">
       <c r="A266" s="7"/>
       <c r="B266" s="8"/>
       <c r="C266" s="9"/>
@@ -6608,7 +6611,7 @@
       <c r="T266" s="5"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" ht="12.75">
       <c r="A267" s="7"/>
       <c r="B267" s="8"/>
       <c r="C267" s="9"/>
@@ -6631,7 +6634,7 @@
       <c r="T267" s="5"/>
       <c r="U267" s="5"/>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" ht="12.75">
       <c r="A268" s="7"/>
       <c r="B268" s="8"/>
       <c r="C268" s="9"/>
@@ -6654,7 +6657,7 @@
       <c r="T268" s="5"/>
       <c r="U268" s="5"/>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" ht="12.75">
       <c r="A269" s="7"/>
       <c r="B269" s="8"/>
       <c r="C269" s="9"/>
@@ -6677,7 +6680,7 @@
       <c r="T269" s="5"/>
       <c r="U269" s="5"/>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" ht="12.75">
       <c r="A270" s="7"/>
       <c r="B270" s="8"/>
       <c r="C270" s="9"/>
@@ -6700,7 +6703,7 @@
       <c r="T270" s="5"/>
       <c r="U270" s="5"/>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" ht="12.75">
       <c r="A271" s="7"/>
       <c r="B271" s="8"/>
       <c r="C271" s="9"/>
@@ -6723,7 +6726,7 @@
       <c r="T271" s="5"/>
       <c r="U271" s="5"/>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" ht="12.75">
       <c r="A272" s="7"/>
       <c r="B272" s="8"/>
       <c r="C272" s="9"/>
@@ -6746,7 +6749,7 @@
       <c r="T272" s="5"/>
       <c r="U272" s="5"/>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" ht="12.75">
       <c r="A273" s="7"/>
       <c r="B273" s="8"/>
       <c r="C273" s="9"/>
@@ -6769,7 +6772,7 @@
       <c r="T273" s="5"/>
       <c r="U273" s="5"/>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" ht="12.75">
       <c r="A274" s="7"/>
       <c r="B274" s="8"/>
       <c r="C274" s="9"/>
@@ -6792,7 +6795,7 @@
       <c r="T274" s="5"/>
       <c r="U274" s="5"/>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" ht="12.75">
       <c r="A275" s="7"/>
       <c r="B275" s="8"/>
       <c r="C275" s="9"/>
@@ -6815,7 +6818,7 @@
       <c r="T275" s="5"/>
       <c r="U275" s="5"/>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" ht="12.75">
       <c r="A276" s="7"/>
       <c r="B276" s="8"/>
       <c r="C276" s="9"/>
@@ -6838,7 +6841,7 @@
       <c r="T276" s="5"/>
       <c r="U276" s="5"/>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" ht="12.75">
       <c r="A277" s="7"/>
       <c r="B277" s="8"/>
       <c r="C277" s="9"/>
@@ -6861,7 +6864,7 @@
       <c r="T277" s="5"/>
       <c r="U277" s="5"/>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" ht="12.75">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="9"/>
@@ -6884,7 +6887,7 @@
       <c r="T278" s="5"/>
       <c r="U278" s="5"/>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" ht="12.75">
       <c r="A279" s="7"/>
       <c r="B279" s="8"/>
       <c r="C279" s="9"/>
@@ -6907,7 +6910,7 @@
       <c r="T279" s="5"/>
       <c r="U279" s="5"/>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" ht="12.75">
       <c r="A280" s="7"/>
       <c r="B280" s="8"/>
       <c r="C280" s="9"/>
@@ -6930,7 +6933,7 @@
       <c r="T280" s="5"/>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" ht="12.75">
       <c r="A281" s="7"/>
       <c r="B281" s="8"/>
       <c r="C281" s="9"/>
@@ -6953,7 +6956,7 @@
       <c r="T281" s="5"/>
       <c r="U281" s="5"/>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" ht="12.75">
       <c r="A282" s="7"/>
       <c r="B282" s="8"/>
       <c r="C282" s="9"/>
@@ -6976,7 +6979,7 @@
       <c r="T282" s="5"/>
       <c r="U282" s="5"/>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" ht="12.75">
       <c r="A283" s="7"/>
       <c r="B283" s="8"/>
       <c r="C283" s="9"/>
@@ -6999,7 +7002,7 @@
       <c r="T283" s="5"/>
       <c r="U283" s="5"/>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" ht="12.75">
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="9"/>
@@ -7022,7 +7025,7 @@
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" ht="12.75">
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="9"/>
@@ -7045,7 +7048,7 @@
       <c r="T285" s="5"/>
       <c r="U285" s="5"/>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" ht="12.75">
       <c r="A286" s="7"/>
       <c r="B286" s="8"/>
       <c r="C286" s="9"/>
@@ -7068,7 +7071,7 @@
       <c r="T286" s="5"/>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" ht="12.75">
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="9"/>
@@ -7091,7 +7094,7 @@
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" ht="12.75">
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
       <c r="C288" s="9"/>
@@ -7114,7 +7117,7 @@
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" ht="12.75">
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="9"/>
@@ -7137,7 +7140,7 @@
       <c r="T289" s="5"/>
       <c r="U289" s="5"/>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" ht="12.75">
       <c r="A290" s="7"/>
       <c r="B290" s="8"/>
       <c r="C290" s="9"/>
@@ -7160,7 +7163,7 @@
       <c r="T290" s="5"/>
       <c r="U290" s="5"/>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" ht="12.75">
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="9"/>
@@ -7183,7 +7186,7 @@
       <c r="T291" s="5"/>
       <c r="U291" s="5"/>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" ht="12.75">
       <c r="A292" s="7"/>
       <c r="B292" s="8"/>
       <c r="C292" s="9"/>
@@ -7206,7 +7209,7 @@
       <c r="T292" s="5"/>
       <c r="U292" s="5"/>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" ht="12.75">
       <c r="A293" s="7"/>
       <c r="B293" s="8"/>
       <c r="C293" s="9"/>
@@ -7229,7 +7232,7 @@
       <c r="T293" s="5"/>
       <c r="U293" s="5"/>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" ht="12.75">
       <c r="A294" s="7"/>
       <c r="B294" s="8"/>
       <c r="C294" s="9"/>
@@ -7252,7 +7255,7 @@
       <c r="T294" s="5"/>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" ht="12.75">
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="9"/>
@@ -7275,7 +7278,7 @@
       <c r="T295" s="5"/>
       <c r="U295" s="5"/>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" ht="12.75">
       <c r="A296" s="7"/>
       <c r="B296" s="8"/>
       <c r="C296" s="9"/>
@@ -7298,7 +7301,7 @@
       <c r="T296" s="5"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" ht="12.75">
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="9"/>
@@ -7321,7 +7324,7 @@
       <c r="T297" s="5"/>
       <c r="U297" s="5"/>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" ht="12.75">
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="9"/>
@@ -7344,7 +7347,7 @@
       <c r="T298" s="5"/>
       <c r="U298" s="5"/>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" ht="12.75">
       <c r="A299" s="7"/>
       <c r="B299" s="8"/>
       <c r="C299" s="9"/>
@@ -7367,7 +7370,7 @@
       <c r="T299" s="5"/>
       <c r="U299" s="5"/>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" ht="12.75">
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="9"/>
@@ -7390,7 +7393,7 @@
       <c r="T300" s="5"/>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" ht="12.75">
       <c r="A301" s="7"/>
       <c r="B301" s="8"/>
       <c r="C301" s="9"/>
@@ -7413,7 +7416,7 @@
       <c r="T301" s="5"/>
       <c r="U301" s="5"/>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" ht="12.75">
       <c r="A302" s="7"/>
       <c r="B302" s="8"/>
       <c r="C302" s="9"/>
@@ -7436,7 +7439,7 @@
       <c r="T302" s="5"/>
       <c r="U302" s="5"/>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" ht="12.75">
       <c r="A303" s="7"/>
       <c r="B303" s="8"/>
       <c r="C303" s="9"/>
@@ -7459,7 +7462,7 @@
       <c r="T303" s="5"/>
       <c r="U303" s="5"/>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" ht="12.75">
       <c r="A304" s="7"/>
       <c r="B304" s="8"/>
       <c r="C304" s="9"/>
@@ -7482,7 +7485,7 @@
       <c r="T304" s="5"/>
       <c r="U304" s="5"/>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" ht="12.75">
       <c r="A305" s="7"/>
       <c r="B305" s="8"/>
       <c r="C305" s="9"/>
@@ -7505,7 +7508,7 @@
       <c r="T305" s="5"/>
       <c r="U305" s="5"/>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" ht="12.75">
       <c r="A306" s="7"/>
       <c r="B306" s="8"/>
       <c r="C306" s="9"/>
@@ -7528,7 +7531,7 @@
       <c r="T306" s="5"/>
       <c r="U306" s="5"/>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" ht="12.75">
       <c r="A307" s="7"/>
       <c r="B307" s="8"/>
       <c r="C307" s="9"/>
@@ -7551,7 +7554,7 @@
       <c r="T307" s="5"/>
       <c r="U307" s="5"/>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" ht="12.75">
       <c r="A308" s="7"/>
       <c r="B308" s="8"/>
       <c r="C308" s="9"/>
@@ -7574,7 +7577,7 @@
       <c r="T308" s="5"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" ht="12.75">
       <c r="A309" s="7"/>
       <c r="B309" s="8"/>
       <c r="C309" s="9"/>
@@ -7597,7 +7600,7 @@
       <c r="T309" s="5"/>
       <c r="U309" s="5"/>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" ht="12.75">
       <c r="A310" s="7"/>
       <c r="B310" s="8"/>
       <c r="C310" s="9"/>
@@ -7620,7 +7623,7 @@
       <c r="T310" s="5"/>
       <c r="U310" s="5"/>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" ht="12.75">
       <c r="A311" s="7"/>
       <c r="B311" s="8"/>
       <c r="C311" s="9"/>
@@ -7643,7 +7646,7 @@
       <c r="T311" s="5"/>
       <c r="U311" s="5"/>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" ht="12.75">
       <c r="A312" s="7"/>
       <c r="B312" s="8"/>
       <c r="C312" s="9"/>
@@ -7666,7 +7669,7 @@
       <c r="T312" s="5"/>
       <c r="U312" s="5"/>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" ht="12.75">
       <c r="A313" s="7"/>
       <c r="B313" s="8"/>
       <c r="C313" s="9"/>
@@ -7689,7 +7692,7 @@
       <c r="T313" s="5"/>
       <c r="U313" s="5"/>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" ht="12.75">
       <c r="A314" s="7"/>
       <c r="B314" s="8"/>
       <c r="C314" s="9"/>
@@ -7712,7 +7715,7 @@
       <c r="T314" s="5"/>
       <c r="U314" s="5"/>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" ht="12.75">
       <c r="A315" s="7"/>
       <c r="B315" s="8"/>
       <c r="C315" s="9"/>
@@ -7735,7 +7738,7 @@
       <c r="T315" s="5"/>
       <c r="U315" s="5"/>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" ht="12.75">
       <c r="A316" s="7"/>
       <c r="B316" s="8"/>
       <c r="C316" s="9"/>
@@ -7758,7 +7761,7 @@
       <c r="T316" s="5"/>
       <c r="U316" s="5"/>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" ht="12.75">
       <c r="A317" s="7"/>
       <c r="B317" s="8"/>
       <c r="C317" s="9"/>
@@ -7781,7 +7784,7 @@
       <c r="T317" s="5"/>
       <c r="U317" s="5"/>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" ht="12.75">
       <c r="A318" s="7"/>
       <c r="B318" s="8"/>
       <c r="C318" s="9"/>
@@ -7804,7 +7807,7 @@
       <c r="T318" s="5"/>
       <c r="U318" s="5"/>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" ht="12.75">
       <c r="A319" s="7"/>
       <c r="B319" s="8"/>
       <c r="C319" s="9"/>
@@ -7827,7 +7830,7 @@
       <c r="T319" s="5"/>
       <c r="U319" s="5"/>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" ht="12.75">
       <c r="A320" s="7"/>
       <c r="B320" s="8"/>
       <c r="C320" s="9"/>
@@ -7850,7 +7853,7 @@
       <c r="T320" s="5"/>
       <c r="U320" s="5"/>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" ht="12.75">
       <c r="A321" s="7"/>
       <c r="B321" s="8"/>
       <c r="C321" s="9"/>
@@ -7873,7 +7876,7 @@
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" ht="12.75">
       <c r="A322" s="7"/>
       <c r="B322" s="8"/>
       <c r="C322" s="9"/>
@@ -7896,7 +7899,7 @@
       <c r="T322" s="5"/>
       <c r="U322" s="5"/>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" ht="12.75">
       <c r="A323" s="7"/>
       <c r="B323" s="8"/>
       <c r="C323" s="9"/>
@@ -7919,7 +7922,7 @@
       <c r="T323" s="5"/>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" ht="12.75">
       <c r="A324" s="7"/>
       <c r="B324" s="8"/>
       <c r="C324" s="9"/>
@@ -7942,7 +7945,7 @@
       <c r="T324" s="5"/>
       <c r="U324" s="5"/>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" ht="12.75">
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="9"/>
@@ -7965,7 +7968,7 @@
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" ht="12.75">
       <c r="A326" s="7"/>
       <c r="B326" s="8"/>
       <c r="C326" s="9"/>
@@ -7988,7 +7991,7 @@
       <c r="T326" s="5"/>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" ht="12.75">
       <c r="A327" s="7"/>
       <c r="B327" s="8"/>
       <c r="C327" s="9"/>
@@ -8011,7 +8014,7 @@
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" ht="12.75">
       <c r="A328" s="7"/>
       <c r="B328" s="8"/>
       <c r="C328" s="9"/>
@@ -8034,7 +8037,7 @@
       <c r="T328" s="5"/>
       <c r="U328" s="5"/>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" ht="12.75">
       <c r="A329" s="7"/>
       <c r="B329" s="8"/>
       <c r="C329" s="9"/>
@@ -8057,7 +8060,7 @@
       <c r="T329" s="5"/>
       <c r="U329" s="5"/>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" ht="12.75">
       <c r="A330" s="7"/>
       <c r="B330" s="8"/>
       <c r="C330" s="9"/>
@@ -8080,7 +8083,7 @@
       <c r="T330" s="5"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" ht="12.75">
       <c r="A331" s="7"/>
       <c r="B331" s="8"/>
       <c r="C331" s="9"/>
@@ -8103,7 +8106,7 @@
       <c r="T331" s="5"/>
       <c r="U331" s="5"/>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" ht="12.75">
       <c r="A332" s="7"/>
       <c r="B332" s="8"/>
       <c r="C332" s="9"/>
@@ -8126,7 +8129,7 @@
       <c r="T332" s="5"/>
       <c r="U332" s="5"/>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" ht="12.75">
       <c r="A333" s="7"/>
       <c r="B333" s="8"/>
       <c r="C333" s="9"/>
@@ -8149,7 +8152,7 @@
       <c r="T333" s="5"/>
       <c r="U333" s="5"/>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" ht="12.75">
       <c r="A334" s="7"/>
       <c r="B334" s="8"/>
       <c r="C334" s="9"/>
@@ -8172,7 +8175,7 @@
       <c r="T334" s="5"/>
       <c r="U334" s="5"/>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" ht="12.75">
       <c r="A335" s="7"/>
       <c r="B335" s="8"/>
       <c r="C335" s="9"/>
@@ -8195,7 +8198,7 @@
       <c r="T335" s="5"/>
       <c r="U335" s="5"/>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" ht="12.75">
       <c r="A336" s="7"/>
       <c r="B336" s="8"/>
       <c r="C336" s="9"/>
@@ -8218,7 +8221,7 @@
       <c r="T336" s="5"/>
       <c r="U336" s="5"/>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" ht="12.75">
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="9"/>
@@ -8241,7 +8244,7 @@
       <c r="T337" s="5"/>
       <c r="U337" s="5"/>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" ht="12.75">
       <c r="A338" s="7"/>
       <c r="B338" s="8"/>
       <c r="C338" s="9"/>
@@ -8264,7 +8267,7 @@
       <c r="T338" s="5"/>
       <c r="U338" s="5"/>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" ht="12.75">
       <c r="A339" s="7"/>
       <c r="B339" s="8"/>
       <c r="C339" s="9"/>
@@ -8287,7 +8290,7 @@
       <c r="T339" s="5"/>
       <c r="U339" s="5"/>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" ht="12.75">
       <c r="A340" s="7"/>
       <c r="B340" s="8"/>
       <c r="C340" s="9"/>
@@ -8310,7 +8313,7 @@
       <c r="T340" s="5"/>
       <c r="U340" s="5"/>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" ht="12.75">
       <c r="A341" s="7"/>
       <c r="B341" s="8"/>
       <c r="C341" s="9"/>
@@ -8333,7 +8336,7 @@
       <c r="T341" s="5"/>
       <c r="U341" s="5"/>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" ht="12.75">
       <c r="A342" s="7"/>
       <c r="B342" s="8"/>
       <c r="C342" s="9"/>
@@ -8356,7 +8359,7 @@
       <c r="T342" s="5"/>
       <c r="U342" s="5"/>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" ht="12.75">
       <c r="A343" s="7"/>
       <c r="B343" s="8"/>
       <c r="C343" s="9"/>
@@ -8379,7 +8382,7 @@
       <c r="T343" s="5"/>
       <c r="U343" s="5"/>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" ht="12.75">
       <c r="A344" s="7"/>
       <c r="B344" s="8"/>
       <c r="C344" s="9"/>
@@ -8402,7 +8405,7 @@
       <c r="T344" s="5"/>
       <c r="U344" s="5"/>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" ht="12.75">
       <c r="A345" s="7"/>
       <c r="B345" s="8"/>
       <c r="C345" s="9"/>
@@ -8425,7 +8428,7 @@
       <c r="T345" s="5"/>
       <c r="U345" s="5"/>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" ht="12.75">
       <c r="A346" s="7"/>
       <c r="B346" s="8"/>
       <c r="C346" s="9"/>
@@ -8448,7 +8451,7 @@
       <c r="T346" s="5"/>
       <c r="U346" s="5"/>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" ht="12.75">
       <c r="A347" s="7"/>
       <c r="B347" s="8"/>
       <c r="C347" s="9"/>
@@ -8471,7 +8474,7 @@
       <c r="T347" s="5"/>
       <c r="U347" s="5"/>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" ht="12.75">
       <c r="A348" s="7"/>
       <c r="B348" s="8"/>
       <c r="C348" s="9"/>
@@ -8494,7 +8497,7 @@
       <c r="T348" s="5"/>
       <c r="U348" s="5"/>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" ht="12.75">
       <c r="A349" s="7"/>
       <c r="B349" s="8"/>
       <c r="C349" s="9"/>
@@ -8517,7 +8520,7 @@
       <c r="T349" s="5"/>
       <c r="U349" s="5"/>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" ht="12.75">
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="9"/>
@@ -8540,7 +8543,7 @@
       <c r="T350" s="5"/>
       <c r="U350" s="5"/>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" ht="12.75">
       <c r="A351" s="7"/>
       <c r="B351" s="8"/>
       <c r="C351" s="9"/>
@@ -8563,7 +8566,7 @@
       <c r="T351" s="5"/>
       <c r="U351" s="5"/>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" ht="12.75">
       <c r="A352" s="7"/>
       <c r="B352" s="8"/>
       <c r="C352" s="9"/>
@@ -8586,7 +8589,7 @@
       <c r="T352" s="5"/>
       <c r="U352" s="5"/>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" ht="12.75">
       <c r="A353" s="7"/>
       <c r="B353" s="8"/>
       <c r="C353" s="9"/>
@@ -8609,7 +8612,7 @@
       <c r="T353" s="5"/>
       <c r="U353" s="5"/>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" ht="12.75">
       <c r="A354" s="7"/>
       <c r="B354" s="8"/>
       <c r="C354" s="9"/>
@@ -8632,7 +8635,7 @@
       <c r="T354" s="5"/>
       <c r="U354" s="5"/>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" ht="12.75">
       <c r="A355" s="7"/>
       <c r="B355" s="8"/>
       <c r="C355" s="9"/>
@@ -8655,7 +8658,7 @@
       <c r="T355" s="5"/>
       <c r="U355" s="5"/>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" ht="12.75">
       <c r="A356" s="7"/>
       <c r="B356" s="8"/>
       <c r="C356" s="9"/>
@@ -8678,7 +8681,7 @@
       <c r="T356" s="5"/>
       <c r="U356" s="5"/>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" ht="12.75">
       <c r="A357" s="7"/>
       <c r="B357" s="8"/>
       <c r="C357" s="9"/>
@@ -8701,7 +8704,7 @@
       <c r="T357" s="5"/>
       <c r="U357" s="5"/>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" ht="12.75">
       <c r="A358" s="7"/>
       <c r="B358" s="8"/>
       <c r="C358" s="9"/>
@@ -8724,7 +8727,7 @@
       <c r="T358" s="5"/>
       <c r="U358" s="5"/>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" ht="12.75">
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="9"/>
@@ -8747,7 +8750,7 @@
       <c r="T359" s="5"/>
       <c r="U359" s="5"/>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" ht="12.75">
       <c r="A360" s="7"/>
       <c r="B360" s="8"/>
       <c r="C360" s="9"/>
@@ -8770,7 +8773,7 @@
       <c r="T360" s="5"/>
       <c r="U360" s="5"/>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" ht="12.75">
       <c r="A361" s="7"/>
       <c r="B361" s="8"/>
       <c r="C361" s="9"/>
@@ -8793,7 +8796,7 @@
       <c r="T361" s="5"/>
       <c r="U361" s="5"/>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" ht="12.75">
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="9"/>
@@ -8816,7 +8819,7 @@
       <c r="T362" s="5"/>
       <c r="U362" s="5"/>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" ht="12.75">
       <c r="A363" s="7"/>
       <c r="B363" s="8"/>
       <c r="C363" s="9"/>
@@ -8839,7 +8842,7 @@
       <c r="T363" s="5"/>
       <c r="U363" s="5"/>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" ht="12.75">
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="9"/>
@@ -8862,7 +8865,7 @@
       <c r="T364" s="5"/>
       <c r="U364" s="5"/>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" ht="12.75">
       <c r="A365" s="7"/>
       <c r="B365" s="8"/>
       <c r="C365" s="9"/>
@@ -8885,7 +8888,7 @@
       <c r="T365" s="5"/>
       <c r="U365" s="5"/>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" ht="12.75">
       <c r="A366" s="7"/>
       <c r="B366" s="8"/>
       <c r="C366" s="9"/>
@@ -8908,7 +8911,7 @@
       <c r="T366" s="5"/>
       <c r="U366" s="5"/>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" ht="12.75">
       <c r="A367" s="7"/>
       <c r="B367" s="8"/>
       <c r="C367" s="9"/>
@@ -8931,7 +8934,7 @@
       <c r="T367" s="5"/>
       <c r="U367" s="5"/>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" ht="12.75">
       <c r="A368" s="7"/>
       <c r="B368" s="8"/>
       <c r="C368" s="9"/>
@@ -8954,7 +8957,7 @@
       <c r="T368" s="5"/>
       <c r="U368" s="5"/>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" ht="12.75">
       <c r="A369" s="7"/>
       <c r="B369" s="8"/>
       <c r="C369" s="9"/>
@@ -8977,7 +8980,7 @@
       <c r="T369" s="5"/>
       <c r="U369" s="5"/>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" ht="12.75">
       <c r="A370" s="7"/>
       <c r="B370" s="8"/>
       <c r="C370" s="9"/>
@@ -9000,7 +9003,7 @@
       <c r="T370" s="5"/>
       <c r="U370" s="5"/>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" ht="12.75">
       <c r="A371" s="7"/>
       <c r="B371" s="8"/>
       <c r="C371" s="9"/>
@@ -9023,7 +9026,7 @@
       <c r="T371" s="5"/>
       <c r="U371" s="5"/>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" ht="12.75">
       <c r="A372" s="7"/>
       <c r="B372" s="8"/>
       <c r="C372" s="9"/>
@@ -9046,7 +9049,7 @@
       <c r="T372" s="5"/>
       <c r="U372" s="5"/>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" ht="12.75">
       <c r="A373" s="7"/>
       <c r="B373" s="8"/>
       <c r="C373" s="9"/>
@@ -9069,7 +9072,7 @@
       <c r="T373" s="5"/>
       <c r="U373" s="5"/>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" ht="12.75">
       <c r="A374" s="7"/>
       <c r="B374" s="8"/>
       <c r="C374" s="9"/>
@@ -9092,7 +9095,7 @@
       <c r="T374" s="5"/>
       <c r="U374" s="5"/>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" ht="12.75">
       <c r="A375" s="7"/>
       <c r="B375" s="8"/>
       <c r="C375" s="9"/>
@@ -9115,7 +9118,7 @@
       <c r="T375" s="5"/>
       <c r="U375" s="5"/>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" ht="12.75">
       <c r="A376" s="7"/>
       <c r="B376" s="8"/>
       <c r="C376" s="9"/>
@@ -9138,7 +9141,7 @@
       <c r="T376" s="5"/>
       <c r="U376" s="5"/>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" ht="12.75">
       <c r="A377" s="7"/>
       <c r="B377" s="8"/>
       <c r="C377" s="9"/>
@@ -9161,7 +9164,7 @@
       <c r="T377" s="5"/>
       <c r="U377" s="5"/>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" ht="12.75">
       <c r="A378" s="7"/>
       <c r="B378" s="8"/>
       <c r="C378" s="9"/>
@@ -9184,7 +9187,7 @@
       <c r="T378" s="5"/>
       <c r="U378" s="5"/>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" ht="12.75">
       <c r="A379" s="7"/>
       <c r="B379" s="8"/>
       <c r="C379" s="9"/>
@@ -9207,7 +9210,7 @@
       <c r="T379" s="5"/>
       <c r="U379" s="5"/>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" ht="12.75">
       <c r="A380" s="7"/>
       <c r="B380" s="8"/>
       <c r="C380" s="9"/>
@@ -9230,7 +9233,7 @@
       <c r="T380" s="5"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" ht="12.75">
       <c r="A381" s="7"/>
       <c r="B381" s="8"/>
       <c r="C381" s="9"/>
@@ -9253,7 +9256,7 @@
       <c r="T381" s="5"/>
       <c r="U381" s="5"/>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" ht="12.75">
       <c r="A382" s="7"/>
       <c r="B382" s="8"/>
       <c r="C382" s="9"/>
@@ -9276,7 +9279,7 @@
       <c r="T382" s="5"/>
       <c r="U382" s="5"/>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" ht="12.75">
       <c r="A383" s="7"/>
       <c r="B383" s="8"/>
       <c r="C383" s="9"/>
@@ -9299,7 +9302,7 @@
       <c r="T383" s="5"/>
       <c r="U383" s="5"/>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" ht="12.75">
       <c r="A384" s="7"/>
       <c r="B384" s="8"/>
       <c r="C384" s="9"/>
@@ -9322,7 +9325,7 @@
       <c r="T384" s="5"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" ht="12.75">
       <c r="A385" s="7"/>
       <c r="B385" s="8"/>
       <c r="C385" s="9"/>
@@ -9345,7 +9348,7 @@
       <c r="T385" s="5"/>
       <c r="U385" s="5"/>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" ht="12.75">
       <c r="A386" s="7"/>
       <c r="B386" s="8"/>
       <c r="C386" s="9"/>
@@ -9368,7 +9371,7 @@
       <c r="T386" s="5"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" ht="12.75">
       <c r="A387" s="7"/>
       <c r="B387" s="8"/>
       <c r="C387" s="9"/>
@@ -9391,7 +9394,7 @@
       <c r="T387" s="5"/>
       <c r="U387" s="5"/>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" ht="12.75">
       <c r="A388" s="7"/>
       <c r="B388" s="8"/>
       <c r="C388" s="9"/>
@@ -9414,7 +9417,7 @@
       <c r="T388" s="5"/>
       <c r="U388" s="5"/>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" ht="12.75">
       <c r="A389" s="7"/>
       <c r="B389" s="8"/>
       <c r="C389" s="9"/>
@@ -9437,7 +9440,7 @@
       <c r="T389" s="5"/>
       <c r="U389" s="5"/>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" ht="12.75">
       <c r="A390" s="7"/>
       <c r="B390" s="8"/>
       <c r="C390" s="9"/>
@@ -9460,7 +9463,7 @@
       <c r="T390" s="5"/>
       <c r="U390" s="5"/>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" ht="12.75">
       <c r="A391" s="7"/>
       <c r="B391" s="8"/>
       <c r="C391" s="9"/>
@@ -9483,7 +9486,7 @@
       <c r="T391" s="5"/>
       <c r="U391" s="5"/>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" ht="12.75">
       <c r="A392" s="7"/>
       <c r="B392" s="8"/>
       <c r="C392" s="9"/>
@@ -9506,7 +9509,7 @@
       <c r="T392" s="5"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" ht="12.75">
       <c r="A393" s="7"/>
       <c r="B393" s="8"/>
       <c r="C393" s="9"/>
@@ -9529,7 +9532,7 @@
       <c r="T393" s="5"/>
       <c r="U393" s="5"/>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" ht="12.75">
       <c r="A394" s="7"/>
       <c r="B394" s="8"/>
       <c r="C394" s="9"/>
@@ -9552,7 +9555,7 @@
       <c r="T394" s="5"/>
       <c r="U394" s="5"/>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" ht="12.75">
       <c r="A395" s="7"/>
       <c r="B395" s="8"/>
       <c r="C395" s="9"/>
@@ -9575,7 +9578,7 @@
       <c r="T395" s="5"/>
       <c r="U395" s="5"/>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" ht="12.75">
       <c r="A396" s="7"/>
       <c r="B396" s="8"/>
       <c r="C396" s="9"/>
@@ -9598,7 +9601,7 @@
       <c r="T396" s="5"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" ht="12.75">
       <c r="A397" s="7"/>
       <c r="B397" s="8"/>
       <c r="C397" s="9"/>
@@ -9621,7 +9624,7 @@
       <c r="T397" s="5"/>
       <c r="U397" s="5"/>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" ht="12.75">
       <c r="A398" s="7"/>
       <c r="B398" s="8"/>
       <c r="C398" s="9"/>
@@ -9644,7 +9647,7 @@
       <c r="T398" s="5"/>
       <c r="U398" s="5"/>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" ht="12.75">
       <c r="A399" s="7"/>
       <c r="B399" s="8"/>
       <c r="C399" s="9"/>
@@ -9667,7 +9670,7 @@
       <c r="T399" s="5"/>
       <c r="U399" s="5"/>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" ht="12.75">
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="9"/>
@@ -9690,7 +9693,7 @@
       <c r="T400" s="5"/>
       <c r="U400" s="5"/>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" ht="12.75">
       <c r="A401" s="7"/>
       <c r="B401" s="8"/>
       <c r="C401" s="9"/>
@@ -9713,7 +9716,7 @@
       <c r="T401" s="5"/>
       <c r="U401" s="5"/>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" ht="12.75">
       <c r="A402" s="7"/>
       <c r="B402" s="8"/>
       <c r="C402" s="9"/>
@@ -9736,7 +9739,7 @@
       <c r="T402" s="5"/>
       <c r="U402" s="5"/>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" ht="12.75">
       <c r="A403" s="7"/>
       <c r="B403" s="8"/>
       <c r="C403" s="9"/>
@@ -9759,7 +9762,7 @@
       <c r="T403" s="5"/>
       <c r="U403" s="5"/>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" ht="12.75">
       <c r="A404" s="7"/>
       <c r="B404" s="8"/>
       <c r="C404" s="9"/>
@@ -9782,7 +9785,7 @@
       <c r="T404" s="5"/>
       <c r="U404" s="5"/>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" ht="12.75">
       <c r="A405" s="7"/>
       <c r="B405" s="8"/>
       <c r="C405" s="9"/>
@@ -9805,7 +9808,7 @@
       <c r="T405" s="5"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" ht="12.75">
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="9"/>
@@ -9828,7 +9831,7 @@
       <c r="T406" s="5"/>
       <c r="U406" s="5"/>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" ht="12.75">
       <c r="A407" s="7"/>
       <c r="B407" s="8"/>
       <c r="C407" s="9"/>
@@ -9851,7 +9854,7 @@
       <c r="T407" s="5"/>
       <c r="U407" s="5"/>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" ht="12.75">
       <c r="A408" s="7"/>
       <c r="B408" s="8"/>
       <c r="C408" s="9"/>
@@ -9874,7 +9877,7 @@
       <c r="T408" s="5"/>
       <c r="U408" s="5"/>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" ht="12.75">
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="9"/>
@@ -9897,7 +9900,7 @@
       <c r="T409" s="5"/>
       <c r="U409" s="5"/>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" ht="12.75">
       <c r="A410" s="7"/>
       <c r="B410" s="8"/>
       <c r="C410" s="9"/>
@@ -9920,7 +9923,7 @@
       <c r="T410" s="5"/>
       <c r="U410" s="5"/>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" ht="12.75">
       <c r="A411" s="7"/>
       <c r="B411" s="8"/>
       <c r="C411" s="9"/>
@@ -9943,7 +9946,7 @@
       <c r="T411" s="5"/>
       <c r="U411" s="5"/>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" ht="12.75">
       <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="9"/>
@@ -9966,7 +9969,7 @@
       <c r="T412" s="5"/>
       <c r="U412" s="5"/>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" ht="12.75">
       <c r="A413" s="7"/>
       <c r="B413" s="8"/>
       <c r="C413" s="9"/>
@@ -9989,7 +9992,7 @@
       <c r="T413" s="5"/>
       <c r="U413" s="5"/>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" ht="12.75">
       <c r="A414" s="7"/>
       <c r="B414" s="8"/>
       <c r="C414" s="9"/>
@@ -10012,7 +10015,7 @@
       <c r="T414" s="5"/>
       <c r="U414" s="5"/>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" ht="12.75">
       <c r="A415" s="7"/>
       <c r="B415" s="8"/>
       <c r="C415" s="9"/>
@@ -10035,7 +10038,7 @@
       <c r="T415" s="5"/>
       <c r="U415" s="5"/>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" ht="12.75">
       <c r="A416" s="7"/>
       <c r="B416" s="8"/>
       <c r="C416" s="9"/>
@@ -10058,7 +10061,7 @@
       <c r="T416" s="5"/>
       <c r="U416" s="5"/>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" ht="12.75">
       <c r="A417" s="7"/>
       <c r="B417" s="8"/>
       <c r="C417" s="9"/>
@@ -10081,7 +10084,7 @@
       <c r="T417" s="5"/>
       <c r="U417" s="5"/>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" ht="12.75">
       <c r="A418" s="7"/>
       <c r="B418" s="8"/>
       <c r="C418" s="9"/>
@@ -10104,7 +10107,7 @@
       <c r="T418" s="5"/>
       <c r="U418" s="5"/>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" ht="12.75">
       <c r="A419" s="7"/>
       <c r="B419" s="8"/>
       <c r="C419" s="9"/>
@@ -10127,7 +10130,7 @@
       <c r="T419" s="5"/>
       <c r="U419" s="5"/>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" ht="12.75">
       <c r="A420" s="7"/>
       <c r="B420" s="8"/>
       <c r="C420" s="9"/>
@@ -10150,7 +10153,7 @@
       <c r="T420" s="5"/>
       <c r="U420" s="5"/>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" ht="12.75">
       <c r="A421" s="7"/>
       <c r="B421" s="8"/>
       <c r="C421" s="9"/>
@@ -10173,7 +10176,7 @@
       <c r="T421" s="5"/>
       <c r="U421" s="5"/>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" ht="12.75">
       <c r="A422" s="7"/>
       <c r="B422" s="8"/>
       <c r="C422" s="9"/>
@@ -10196,7 +10199,7 @@
       <c r="T422" s="5"/>
       <c r="U422" s="5"/>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" ht="12.75">
       <c r="A423" s="7"/>
       <c r="B423" s="8"/>
       <c r="C423" s="9"/>
@@ -10219,7 +10222,7 @@
       <c r="T423" s="5"/>
       <c r="U423" s="5"/>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" ht="12.75">
       <c r="A424" s="7"/>
       <c r="B424" s="8"/>
       <c r="C424" s="9"/>
@@ -10242,7 +10245,7 @@
       <c r="T424" s="5"/>
       <c r="U424" s="5"/>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" ht="12.75">
       <c r="A425" s="7"/>
       <c r="B425" s="8"/>
       <c r="C425" s="9"/>
@@ -10265,7 +10268,7 @@
       <c r="T425" s="5"/>
       <c r="U425" s="5"/>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" ht="12.75">
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="9"/>
@@ -10288,7 +10291,7 @@
       <c r="T426" s="5"/>
       <c r="U426" s="5"/>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" ht="12.75">
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="9"/>
@@ -10311,7 +10314,7 @@
       <c r="T427" s="5"/>
       <c r="U427" s="5"/>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" ht="12.75">
       <c r="A428" s="7"/>
       <c r="B428" s="8"/>
       <c r="C428" s="9"/>
@@ -10334,7 +10337,7 @@
       <c r="T428" s="5"/>
       <c r="U428" s="5"/>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" ht="12.75">
       <c r="A429" s="7"/>
       <c r="B429" s="8"/>
       <c r="C429" s="9"/>
@@ -10357,7 +10360,7 @@
       <c r="T429" s="5"/>
       <c r="U429" s="5"/>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" ht="12.75">
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="9"/>
@@ -10380,7 +10383,7 @@
       <c r="T430" s="5"/>
       <c r="U430" s="5"/>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" ht="12.75">
       <c r="A431" s="7"/>
       <c r="B431" s="8"/>
       <c r="C431" s="9"/>
@@ -10403,7 +10406,7 @@
       <c r="T431" s="5"/>
       <c r="U431" s="5"/>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" ht="12.75">
       <c r="A432" s="7"/>
       <c r="B432" s="8"/>
       <c r="C432" s="9"/>
@@ -10426,7 +10429,7 @@
       <c r="T432" s="5"/>
       <c r="U432" s="5"/>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" ht="12.75">
       <c r="A433" s="7"/>
       <c r="B433" s="8"/>
       <c r="C433" s="9"/>
@@ -10449,7 +10452,7 @@
       <c r="T433" s="5"/>
       <c r="U433" s="5"/>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:21" ht="12.75">
       <c r="A434" s="7"/>
       <c r="B434" s="8"/>
       <c r="C434" s="9"/>
@@ -10472,7 +10475,7 @@
       <c r="T434" s="5"/>
       <c r="U434" s="5"/>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:21" ht="12.75">
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="9"/>
@@ -10495,7 +10498,7 @@
       <c r="T435" s="5"/>
       <c r="U435" s="5"/>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:21" ht="12.75">
       <c r="A436" s="7"/>
       <c r="B436" s="8"/>
       <c r="C436" s="9"/>
@@ -10518,7 +10521,7 @@
       <c r="T436" s="5"/>
       <c r="U436" s="5"/>
     </row>
-    <row r="437" spans="1:21">
+    <row r="437" spans="1:21" ht="12.75">
       <c r="A437" s="7"/>
       <c r="B437" s="8"/>
       <c r="C437" s="9"/>
@@ -10541,7 +10544,7 @@
       <c r="T437" s="5"/>
       <c r="U437" s="5"/>
     </row>
-    <row r="438" spans="1:21">
+    <row r="438" spans="1:21" ht="12.75">
       <c r="A438" s="7"/>
       <c r="B438" s="8"/>
       <c r="C438" s="9"/>
@@ -10564,7 +10567,7 @@
       <c r="T438" s="5"/>
       <c r="U438" s="5"/>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" spans="1:21" ht="12.75">
       <c r="A439" s="7"/>
       <c r="B439" s="8"/>
       <c r="C439" s="9"/>
@@ -10587,7 +10590,7 @@
       <c r="T439" s="5"/>
       <c r="U439" s="5"/>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" spans="1:21" ht="12.75">
       <c r="A440" s="7"/>
       <c r="B440" s="8"/>
       <c r="C440" s="9"/>
@@ -10610,7 +10613,7 @@
       <c r="T440" s="5"/>
       <c r="U440" s="5"/>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" spans="1:21" ht="12.75">
       <c r="A441" s="7"/>
       <c r="B441" s="8"/>
       <c r="C441" s="9"/>
@@ -10633,7 +10636,7 @@
       <c r="T441" s="5"/>
       <c r="U441" s="5"/>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" spans="1:21" ht="12.75">
       <c r="A442" s="7"/>
       <c r="B442" s="8"/>
       <c r="C442" s="9"/>
@@ -10656,7 +10659,7 @@
       <c r="T442" s="5"/>
       <c r="U442" s="5"/>
     </row>
-    <row r="443" spans="1:21">
+    <row r="443" spans="1:21" ht="12.75">
       <c r="A443" s="7"/>
       <c r="B443" s="8"/>
       <c r="C443" s="9"/>
@@ -10679,7 +10682,7 @@
       <c r="T443" s="5"/>
       <c r="U443" s="5"/>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" spans="1:21" ht="12.75">
       <c r="A444" s="7"/>
       <c r="B444" s="8"/>
       <c r="C444" s="9"/>
@@ -10702,7 +10705,7 @@
       <c r="T444" s="5"/>
       <c r="U444" s="5"/>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" spans="1:21" ht="12.75">
       <c r="A445" s="7"/>
       <c r="B445" s="8"/>
       <c r="C445" s="9"/>
@@ -10725,7 +10728,7 @@
       <c r="T445" s="5"/>
       <c r="U445" s="5"/>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" spans="1:21" ht="12.75">
       <c r="A446" s="7"/>
       <c r="B446" s="8"/>
       <c r="C446" s="9"/>
@@ -10748,7 +10751,7 @@
       <c r="T446" s="5"/>
       <c r="U446" s="5"/>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" spans="1:21" ht="12.75">
       <c r="A447" s="7"/>
       <c r="B447" s="8"/>
       <c r="C447" s="9"/>
@@ -10771,7 +10774,7 @@
       <c r="T447" s="5"/>
       <c r="U447" s="5"/>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" spans="1:21" ht="12.75">
       <c r="A448" s="7"/>
       <c r="B448" s="8"/>
       <c r="C448" s="9"/>
@@ -10794,7 +10797,7 @@
       <c r="T448" s="5"/>
       <c r="U448" s="5"/>
     </row>
-    <row r="449" spans="1:21">
+    <row r="449" spans="1:21" ht="12.75">
       <c r="A449" s="7"/>
       <c r="B449" s="8"/>
       <c r="C449" s="9"/>
@@ -10817,7 +10820,7 @@
       <c r="T449" s="5"/>
       <c r="U449" s="5"/>
     </row>
-    <row r="450" spans="1:21">
+    <row r="450" spans="1:21" ht="12.75">
       <c r="A450" s="7"/>
       <c r="B450" s="8"/>
       <c r="C450" s="9"/>
@@ -10840,7 +10843,7 @@
       <c r="T450" s="5"/>
       <c r="U450" s="5"/>
     </row>
-    <row r="451" spans="1:21">
+    <row r="451" spans="1:21" ht="12.75">
       <c r="A451" s="7"/>
       <c r="B451" s="8"/>
       <c r="C451" s="9"/>
@@ -10863,7 +10866,7 @@
       <c r="T451" s="5"/>
       <c r="U451" s="5"/>
     </row>
-    <row r="452" spans="1:21">
+    <row r="452" spans="1:21" ht="12.75">
       <c r="A452" s="7"/>
       <c r="B452" s="8"/>
       <c r="C452" s="9"/>
@@ -10886,7 +10889,7 @@
       <c r="T452" s="5"/>
       <c r="U452" s="5"/>
     </row>
-    <row r="453" spans="1:21">
+    <row r="453" spans="1:21" ht="12.75">
       <c r="A453" s="7"/>
       <c r="B453" s="8"/>
       <c r="C453" s="9"/>
@@ -10909,7 +10912,7 @@
       <c r="T453" s="5"/>
       <c r="U453" s="5"/>
     </row>
-    <row r="454" spans="1:21">
+    <row r="454" spans="1:21" ht="12.75">
       <c r="A454" s="7"/>
       <c r="B454" s="8"/>
       <c r="C454" s="9"/>
@@ -10932,7 +10935,7 @@
       <c r="T454" s="5"/>
       <c r="U454" s="5"/>
     </row>
-    <row r="455" spans="1:21">
+    <row r="455" spans="1:21" ht="12.75">
       <c r="A455" s="7"/>
       <c r="B455" s="8"/>
       <c r="C455" s="9"/>
@@ -10955,7 +10958,7 @@
       <c r="T455" s="5"/>
       <c r="U455" s="5"/>
     </row>
-    <row r="456" spans="1:21">
+    <row r="456" spans="1:21" ht="12.75">
       <c r="A456" s="7"/>
       <c r="B456" s="8"/>
       <c r="C456" s="9"/>
@@ -10978,7 +10981,7 @@
       <c r="T456" s="5"/>
       <c r="U456" s="5"/>
     </row>
-    <row r="457" spans="1:21">
+    <row r="457" spans="1:21" ht="12.75">
       <c r="A457" s="7"/>
       <c r="B457" s="8"/>
       <c r="C457" s="9"/>
@@ -11001,7 +11004,7 @@
       <c r="T457" s="5"/>
       <c r="U457" s="5"/>
     </row>
-    <row r="458" spans="1:21">
+    <row r="458" spans="1:21" ht="12.75">
       <c r="A458" s="7"/>
       <c r="B458" s="8"/>
       <c r="C458" s="9"/>
@@ -11024,7 +11027,7 @@
       <c r="T458" s="5"/>
       <c r="U458" s="5"/>
     </row>
-    <row r="459" spans="1:21">
+    <row r="459" spans="1:21" ht="12.75">
       <c r="A459" s="7"/>
       <c r="B459" s="8"/>
       <c r="C459" s="9"/>
@@ -11047,7 +11050,7 @@
       <c r="T459" s="5"/>
       <c r="U459" s="5"/>
     </row>
-    <row r="460" spans="1:21">
+    <row r="460" spans="1:21" ht="12.75">
       <c r="A460" s="7"/>
       <c r="B460" s="8"/>
       <c r="C460" s="9"/>
@@ -11070,7 +11073,7 @@
       <c r="T460" s="5"/>
       <c r="U460" s="5"/>
     </row>
-    <row r="461" spans="1:21">
+    <row r="461" spans="1:21" ht="12.75">
       <c r="A461" s="7"/>
       <c r="B461" s="8"/>
       <c r="C461" s="9"/>
@@ -11093,7 +11096,7 @@
       <c r="T461" s="5"/>
       <c r="U461" s="5"/>
     </row>
-    <row r="462" spans="1:21">
+    <row r="462" spans="1:21" ht="12.75">
       <c r="A462" s="7"/>
       <c r="B462" s="8"/>
       <c r="C462" s="9"/>
@@ -11116,7 +11119,7 @@
       <c r="T462" s="5"/>
       <c r="U462" s="5"/>
     </row>
-    <row r="463" spans="1:21">
+    <row r="463" spans="1:21" ht="12.75">
       <c r="A463" s="7"/>
       <c r="B463" s="8"/>
       <c r="C463" s="9"/>
@@ -11139,7 +11142,7 @@
       <c r="T463" s="5"/>
       <c r="U463" s="5"/>
     </row>
-    <row r="464" spans="1:21">
+    <row r="464" spans="1:21" ht="12.75">
       <c r="A464" s="7"/>
       <c r="B464" s="8"/>
       <c r="C464" s="9"/>
@@ -11162,7 +11165,7 @@
       <c r="T464" s="5"/>
       <c r="U464" s="5"/>
     </row>
-    <row r="465" spans="1:21">
+    <row r="465" spans="1:21" ht="12.75">
       <c r="A465" s="7"/>
       <c r="B465" s="8"/>
       <c r="C465" s="9"/>
@@ -11185,7 +11188,7 @@
       <c r="T465" s="5"/>
       <c r="U465" s="5"/>
     </row>
-    <row r="466" spans="1:21">
+    <row r="466" spans="1:21" ht="12.75">
       <c r="A466" s="7"/>
       <c r="B466" s="8"/>
       <c r="C466" s="9"/>
@@ -11208,7 +11211,7 @@
       <c r="T466" s="5"/>
       <c r="U466" s="5"/>
     </row>
-    <row r="467" spans="1:21">
+    <row r="467" spans="1:21" ht="12.75">
       <c r="A467" s="7"/>
       <c r="B467" s="8"/>
       <c r="C467" s="9"/>
@@ -11231,7 +11234,7 @@
       <c r="T467" s="5"/>
       <c r="U467" s="5"/>
     </row>
-    <row r="468" spans="1:21">
+    <row r="468" spans="1:21" ht="12.75">
       <c r="A468" s="7"/>
       <c r="B468" s="8"/>
       <c r="C468" s="9"/>
@@ -11254,7 +11257,7 @@
       <c r="T468" s="5"/>
       <c r="U468" s="5"/>
     </row>
-    <row r="469" spans="1:21">
+    <row r="469" spans="1:21" ht="12.75">
       <c r="A469" s="7"/>
       <c r="B469" s="8"/>
       <c r="C469" s="9"/>
@@ -11277,7 +11280,7 @@
       <c r="T469" s="5"/>
       <c r="U469" s="5"/>
     </row>
-    <row r="470" spans="1:21">
+    <row r="470" spans="1:21" ht="12.75">
       <c r="A470" s="7"/>
       <c r="B470" s="8"/>
       <c r="C470" s="9"/>
@@ -11300,7 +11303,7 @@
       <c r="T470" s="5"/>
       <c r="U470" s="5"/>
     </row>
-    <row r="471" spans="1:21">
+    <row r="471" spans="1:21" ht="12.75">
       <c r="A471" s="7"/>
       <c r="B471" s="8"/>
       <c r="C471" s="9"/>
@@ -11323,7 +11326,7 @@
       <c r="T471" s="5"/>
       <c r="U471" s="5"/>
     </row>
-    <row r="472" spans="1:21">
+    <row r="472" spans="1:21" ht="12.75">
       <c r="A472" s="7"/>
       <c r="B472" s="8"/>
       <c r="C472" s="9"/>
@@ -11346,7 +11349,7 @@
       <c r="T472" s="5"/>
       <c r="U472" s="5"/>
     </row>
-    <row r="473" spans="1:21">
+    <row r="473" spans="1:21" ht="12.75">
       <c r="A473" s="7"/>
       <c r="B473" s="8"/>
       <c r="C473" s="9"/>
@@ -11369,7 +11372,7 @@
       <c r="T473" s="5"/>
       <c r="U473" s="5"/>
     </row>
-    <row r="474" spans="1:21">
+    <row r="474" spans="1:21" ht="12.75">
       <c r="A474" s="7"/>
       <c r="B474" s="8"/>
       <c r="C474" s="9"/>
@@ -11392,7 +11395,7 @@
       <c r="T474" s="5"/>
       <c r="U474" s="5"/>
     </row>
-    <row r="475" spans="1:21">
+    <row r="475" spans="1:21" ht="12.75">
       <c r="A475" s="7"/>
       <c r="B475" s="8"/>
       <c r="C475" s="9"/>
@@ -11415,7 +11418,7 @@
       <c r="T475" s="5"/>
       <c r="U475" s="5"/>
     </row>
-    <row r="476" spans="1:21">
+    <row r="476" spans="1:21" ht="12.75">
       <c r="A476" s="7"/>
       <c r="B476" s="8"/>
       <c r="C476" s="9"/>
@@ -11438,7 +11441,7 @@
       <c r="T476" s="5"/>
       <c r="U476" s="5"/>
     </row>
-    <row r="477" spans="1:21">
+    <row r="477" spans="1:21" ht="12.75">
       <c r="A477" s="7"/>
       <c r="B477" s="8"/>
       <c r="C477" s="9"/>
@@ -11461,7 +11464,7 @@
       <c r="T477" s="5"/>
       <c r="U477" s="5"/>
     </row>
-    <row r="478" spans="1:21">
+    <row r="478" spans="1:21" ht="12.75">
       <c r="A478" s="7"/>
       <c r="B478" s="8"/>
       <c r="C478" s="9"/>
@@ -11484,7 +11487,7 @@
       <c r="T478" s="5"/>
       <c r="U478" s="5"/>
     </row>
-    <row r="479" spans="1:21">
+    <row r="479" spans="1:21" ht="12.75">
       <c r="A479" s="7"/>
       <c r="B479" s="8"/>
       <c r="C479" s="9"/>
@@ -11507,7 +11510,7 @@
       <c r="T479" s="5"/>
       <c r="U479" s="5"/>
     </row>
-    <row r="480" spans="1:21">
+    <row r="480" spans="1:21" ht="12.75">
       <c r="A480" s="7"/>
       <c r="B480" s="8"/>
       <c r="C480" s="9"/>
@@ -11530,7 +11533,7 @@
       <c r="T480" s="5"/>
       <c r="U480" s="5"/>
     </row>
-    <row r="481" spans="1:21">
+    <row r="481" spans="1:21" ht="12.75">
       <c r="A481" s="7"/>
       <c r="B481" s="8"/>
       <c r="C481" s="9"/>
@@ -11553,7 +11556,7 @@
       <c r="T481" s="5"/>
       <c r="U481" s="5"/>
     </row>
-    <row r="482" spans="1:21">
+    <row r="482" spans="1:21" ht="12.75">
       <c r="A482" s="7"/>
       <c r="B482" s="8"/>
       <c r="C482" s="9"/>
@@ -11576,7 +11579,7 @@
       <c r="T482" s="5"/>
       <c r="U482" s="5"/>
     </row>
-    <row r="483" spans="1:21">
+    <row r="483" spans="1:21" ht="12.75">
       <c r="A483" s="7"/>
       <c r="B483" s="8"/>
       <c r="C483" s="9"/>
@@ -11599,7 +11602,7 @@
       <c r="T483" s="5"/>
       <c r="U483" s="5"/>
     </row>
-    <row r="484" spans="1:21">
+    <row r="484" spans="1:21" ht="12.75">
       <c r="A484" s="7"/>
       <c r="B484" s="8"/>
       <c r="C484" s="9"/>
@@ -11622,7 +11625,7 @@
       <c r="T484" s="5"/>
       <c r="U484" s="5"/>
     </row>
-    <row r="485" spans="1:21">
+    <row r="485" spans="1:21" ht="12.75">
       <c r="A485" s="7"/>
       <c r="B485" s="8"/>
       <c r="C485" s="9"/>
@@ -11645,7 +11648,7 @@
       <c r="T485" s="5"/>
       <c r="U485" s="5"/>
     </row>
-    <row r="486" spans="1:21">
+    <row r="486" spans="1:21" ht="12.75">
       <c r="A486" s="7"/>
       <c r="B486" s="8"/>
       <c r="C486" s="9"/>
@@ -11668,7 +11671,7 @@
       <c r="T486" s="5"/>
       <c r="U486" s="5"/>
     </row>
-    <row r="487" spans="1:21">
+    <row r="487" spans="1:21" ht="12.75">
       <c r="A487" s="7"/>
       <c r="B487" s="8"/>
       <c r="C487" s="9"/>
@@ -11691,7 +11694,7 @@
       <c r="T487" s="5"/>
       <c r="U487" s="5"/>
     </row>
-    <row r="488" spans="1:21">
+    <row r="488" spans="1:21" ht="12.75">
       <c r="A488" s="7"/>
       <c r="B488" s="8"/>
       <c r="C488" s="9"/>
@@ -11714,7 +11717,7 @@
       <c r="T488" s="5"/>
       <c r="U488" s="5"/>
     </row>
-    <row r="489" spans="1:21">
+    <row r="489" spans="1:21" ht="12.75">
       <c r="A489" s="7"/>
       <c r="B489" s="8"/>
       <c r="C489" s="9"/>
@@ -11737,7 +11740,7 @@
       <c r="T489" s="5"/>
       <c r="U489" s="5"/>
     </row>
-    <row r="490" spans="1:21">
+    <row r="490" spans="1:21" ht="12.75">
       <c r="A490" s="7"/>
       <c r="B490" s="8"/>
       <c r="C490" s="9"/>
@@ -11760,7 +11763,7 @@
       <c r="T490" s="5"/>
       <c r="U490" s="5"/>
     </row>
-    <row r="491" spans="1:21">
+    <row r="491" spans="1:21" ht="12.75">
       <c r="A491" s="7"/>
       <c r="B491" s="8"/>
       <c r="C491" s="9"/>
@@ -11783,7 +11786,7 @@
       <c r="T491" s="5"/>
       <c r="U491" s="5"/>
     </row>
-    <row r="492" spans="1:21">
+    <row r="492" spans="1:21" ht="12.75">
       <c r="A492" s="7"/>
       <c r="B492" s="8"/>
       <c r="C492" s="9"/>
@@ -11806,7 +11809,7 @@
       <c r="T492" s="5"/>
       <c r="U492" s="5"/>
     </row>
-    <row r="493" spans="1:21">
+    <row r="493" spans="1:21" ht="12.75">
       <c r="A493" s="7"/>
       <c r="B493" s="8"/>
       <c r="C493" s="9"/>
@@ -11829,7 +11832,7 @@
       <c r="T493" s="5"/>
       <c r="U493" s="5"/>
     </row>
-    <row r="494" spans="1:21">
+    <row r="494" spans="1:21" ht="12.75">
       <c r="A494" s="7"/>
       <c r="B494" s="8"/>
       <c r="C494" s="9"/>
@@ -11852,7 +11855,7 @@
       <c r="T494" s="5"/>
       <c r="U494" s="5"/>
     </row>
-    <row r="495" spans="1:21">
+    <row r="495" spans="1:21" ht="12.75">
       <c r="A495" s="7"/>
       <c r="B495" s="8"/>
       <c r="C495" s="9"/>
@@ -11875,7 +11878,7 @@
       <c r="T495" s="5"/>
       <c r="U495" s="5"/>
     </row>
-    <row r="496" spans="1:21">
+    <row r="496" spans="1:21" ht="12.75">
       <c r="A496" s="7"/>
       <c r="B496" s="8"/>
       <c r="C496" s="9"/>
@@ -11898,7 +11901,7 @@
       <c r="T496" s="5"/>
       <c r="U496" s="5"/>
     </row>
-    <row r="497" spans="1:21">
+    <row r="497" spans="1:21" ht="12.75">
       <c r="A497" s="7"/>
       <c r="B497" s="8"/>
       <c r="C497" s="9"/>
@@ -11921,7 +11924,7 @@
       <c r="T497" s="5"/>
       <c r="U497" s="5"/>
     </row>
-    <row r="498" spans="1:21">
+    <row r="498" spans="1:21" ht="12.75">
       <c r="A498" s="7"/>
       <c r="B498" s="8"/>
       <c r="C498" s="9"/>
@@ -11944,7 +11947,7 @@
       <c r="T498" s="5"/>
       <c r="U498" s="5"/>
     </row>
-    <row r="499" spans="1:21">
+    <row r="499" spans="1:21" ht="12.75">
       <c r="A499" s="7"/>
       <c r="B499" s="8"/>
       <c r="C499" s="9"/>
@@ -11967,7 +11970,7 @@
       <c r="T499" s="5"/>
       <c r="U499" s="5"/>
     </row>
-    <row r="500" spans="1:21">
+    <row r="500" spans="1:21" ht="12.75">
       <c r="A500" s="7"/>
       <c r="B500" s="8"/>
       <c r="C500" s="9"/>
@@ -11990,7 +11993,7 @@
       <c r="T500" s="5"/>
       <c r="U500" s="5"/>
     </row>
-    <row r="501" spans="1:21">
+    <row r="501" spans="1:21" ht="12.75">
       <c r="A501" s="7"/>
       <c r="B501" s="8"/>
       <c r="C501" s="9"/>
@@ -12013,7 +12016,7 @@
       <c r="T501" s="5"/>
       <c r="U501" s="5"/>
     </row>
-    <row r="502" spans="1:21">
+    <row r="502" spans="1:21" ht="12.75">
       <c r="A502" s="7"/>
       <c r="B502" s="8"/>
       <c r="C502" s="9"/>
@@ -12036,7 +12039,7 @@
       <c r="T502" s="5"/>
       <c r="U502" s="5"/>
     </row>
-    <row r="503" spans="1:21">
+    <row r="503" spans="1:21" ht="12.75">
       <c r="A503" s="7"/>
       <c r="B503" s="8"/>
       <c r="C503" s="9"/>
@@ -12059,7 +12062,7 @@
       <c r="T503" s="5"/>
       <c r="U503" s="5"/>
     </row>
-    <row r="504" spans="1:21">
+    <row r="504" spans="1:21" ht="12.75">
       <c r="A504" s="7"/>
       <c r="B504" s="8"/>
       <c r="C504" s="9"/>
@@ -12082,7 +12085,7 @@
       <c r="T504" s="5"/>
       <c r="U504" s="5"/>
     </row>
-    <row r="505" spans="1:21">
+    <row r="505" spans="1:21" ht="12.75">
       <c r="A505" s="7"/>
       <c r="B505" s="8"/>
       <c r="C505" s="9"/>
@@ -12105,7 +12108,7 @@
       <c r="T505" s="5"/>
       <c r="U505" s="5"/>
     </row>
-    <row r="506" spans="1:21">
+    <row r="506" spans="1:21" ht="12.75">
       <c r="A506" s="7"/>
       <c r="B506" s="8"/>
       <c r="C506" s="9"/>
@@ -12128,7 +12131,7 @@
       <c r="T506" s="5"/>
       <c r="U506" s="5"/>
     </row>
-    <row r="507" spans="1:21">
+    <row r="507" spans="1:21" ht="12.75">
       <c r="A507" s="7"/>
       <c r="B507" s="8"/>
       <c r="C507" s="9"/>
@@ -12151,7 +12154,7 @@
       <c r="T507" s="5"/>
       <c r="U507" s="5"/>
     </row>
-    <row r="508" spans="1:21">
+    <row r="508" spans="1:21" ht="12.75">
       <c r="A508" s="7"/>
       <c r="B508" s="8"/>
       <c r="C508" s="9"/>
@@ -12174,7 +12177,7 @@
       <c r="T508" s="5"/>
       <c r="U508" s="5"/>
     </row>
-    <row r="509" spans="1:21">
+    <row r="509" spans="1:21" ht="12.75">
       <c r="A509" s="7"/>
       <c r="B509" s="8"/>
       <c r="C509" s="9"/>
@@ -12197,7 +12200,7 @@
       <c r="T509" s="5"/>
       <c r="U509" s="5"/>
     </row>
-    <row r="510" spans="1:21">
+    <row r="510" spans="1:21" ht="12.75">
       <c r="A510" s="7"/>
       <c r="B510" s="8"/>
       <c r="C510" s="9"/>
@@ -12220,7 +12223,7 @@
       <c r="T510" s="5"/>
       <c r="U510" s="5"/>
     </row>
-    <row r="511" spans="1:21">
+    <row r="511" spans="1:21" ht="12.75">
       <c r="A511" s="7"/>
       <c r="B511" s="8"/>
       <c r="C511" s="9"/>
@@ -12243,7 +12246,7 @@
       <c r="T511" s="5"/>
       <c r="U511" s="5"/>
     </row>
-    <row r="512" spans="1:21">
+    <row r="512" spans="1:21" ht="12.75">
       <c r="A512" s="7"/>
       <c r="B512" s="8"/>
       <c r="C512" s="9"/>
@@ -12266,7 +12269,7 @@
       <c r="T512" s="5"/>
       <c r="U512" s="5"/>
     </row>
-    <row r="513" spans="1:21">
+    <row r="513" spans="1:21" ht="12.75">
       <c r="A513" s="7"/>
       <c r="B513" s="8"/>
       <c r="C513" s="9"/>
@@ -12289,7 +12292,7 @@
       <c r="T513" s="5"/>
       <c r="U513" s="5"/>
     </row>
-    <row r="514" spans="1:21">
+    <row r="514" spans="1:21" ht="12.75">
       <c r="A514" s="7"/>
       <c r="B514" s="8"/>
       <c r="C514" s="9"/>
@@ -12312,7 +12315,7 @@
       <c r="T514" s="5"/>
       <c r="U514" s="5"/>
     </row>
-    <row r="515" spans="1:21">
+    <row r="515" spans="1:21" ht="12.75">
       <c r="A515" s="7"/>
       <c r="B515" s="8"/>
       <c r="C515" s="9"/>
@@ -12335,7 +12338,7 @@
       <c r="T515" s="5"/>
       <c r="U515" s="5"/>
     </row>
-    <row r="516" spans="1:21">
+    <row r="516" spans="1:21" ht="12.75">
       <c r="A516" s="7"/>
       <c r="B516" s="8"/>
       <c r="C516" s="9"/>
@@ -12358,7 +12361,7 @@
       <c r="T516" s="5"/>
       <c r="U516" s="5"/>
     </row>
-    <row r="517" spans="1:21">
+    <row r="517" spans="1:21" ht="12.75">
       <c r="A517" s="7"/>
       <c r="B517" s="8"/>
       <c r="C517" s="9"/>
@@ -12381,7 +12384,7 @@
       <c r="T517" s="5"/>
       <c r="U517" s="5"/>
     </row>
-    <row r="518" spans="1:21">
+    <row r="518" spans="1:21" ht="12.75">
       <c r="A518" s="7"/>
       <c r="B518" s="8"/>
       <c r="C518" s="9"/>
@@ -12404,7 +12407,7 @@
       <c r="T518" s="5"/>
       <c r="U518" s="5"/>
     </row>
-    <row r="519" spans="1:21">
+    <row r="519" spans="1:21" ht="12.75">
       <c r="A519" s="7"/>
       <c r="B519" s="8"/>
       <c r="C519" s="9"/>
@@ -12427,7 +12430,7 @@
       <c r="T519" s="5"/>
       <c r="U519" s="5"/>
     </row>
-    <row r="520" spans="1:21">
+    <row r="520" spans="1:21" ht="12.75">
       <c r="A520" s="7"/>
       <c r="B520" s="8"/>
       <c r="C520" s="9"/>
@@ -12450,7 +12453,7 @@
       <c r="T520" s="5"/>
       <c r="U520" s="5"/>
     </row>
-    <row r="521" spans="1:21">
+    <row r="521" spans="1:21" ht="12.75">
       <c r="A521" s="7"/>
       <c r="B521" s="8"/>
       <c r="C521" s="9"/>
@@ -12473,7 +12476,7 @@
       <c r="T521" s="5"/>
       <c r="U521" s="5"/>
     </row>
-    <row r="522" spans="1:21">
+    <row r="522" spans="1:21" ht="12.75">
       <c r="A522" s="7"/>
       <c r="B522" s="8"/>
       <c r="C522" s="9"/>
@@ -12496,7 +12499,7 @@
       <c r="T522" s="5"/>
       <c r="U522" s="5"/>
     </row>
-    <row r="523" spans="1:21">
+    <row r="523" spans="1:21" ht="12.75">
       <c r="A523" s="7"/>
       <c r="B523" s="8"/>
       <c r="C523" s="9"/>
@@ -12519,7 +12522,7 @@
       <c r="T523" s="5"/>
       <c r="U523" s="5"/>
     </row>
-    <row r="524" spans="1:21">
+    <row r="524" spans="1:21" ht="12.75">
       <c r="A524" s="7"/>
       <c r="B524" s="8"/>
       <c r="C524" s="9"/>
@@ -12542,7 +12545,7 @@
       <c r="T524" s="5"/>
       <c r="U524" s="5"/>
     </row>
-    <row r="525" spans="1:21">
+    <row r="525" spans="1:21" ht="12.75">
       <c r="A525" s="7"/>
       <c r="B525" s="8"/>
       <c r="C525" s="9"/>
@@ -12565,7 +12568,7 @@
       <c r="T525" s="5"/>
       <c r="U525" s="5"/>
     </row>
-    <row r="526" spans="1:21">
+    <row r="526" spans="1:21" ht="12.75">
       <c r="A526" s="7"/>
       <c r="B526" s="8"/>
       <c r="C526" s="9"/>
@@ -12588,7 +12591,7 @@
       <c r="T526" s="5"/>
       <c r="U526" s="5"/>
     </row>
-    <row r="527" spans="1:21">
+    <row r="527" spans="1:21" ht="12.75">
       <c r="A527" s="7"/>
       <c r="B527" s="8"/>
       <c r="C527" s="9"/>
@@ -12611,7 +12614,7 @@
       <c r="T527" s="5"/>
       <c r="U527" s="5"/>
     </row>
-    <row r="528" spans="1:21">
+    <row r="528" spans="1:21" ht="12.75">
       <c r="A528" s="7"/>
       <c r="B528" s="8"/>
       <c r="C528" s="9"/>
@@ -12634,7 +12637,7 @@
       <c r="T528" s="5"/>
       <c r="U528" s="5"/>
     </row>
-    <row r="529" spans="1:21">
+    <row r="529" spans="1:21" ht="12.75">
       <c r="A529" s="7"/>
       <c r="B529" s="8"/>
       <c r="C529" s="9"/>
@@ -12657,7 +12660,7 @@
       <c r="T529" s="5"/>
       <c r="U529" s="5"/>
     </row>
-    <row r="530" spans="1:21">
+    <row r="530" spans="1:21" ht="12.75">
       <c r="A530" s="7"/>
       <c r="B530" s="8"/>
       <c r="C530" s="9"/>
@@ -12680,7 +12683,7 @@
       <c r="T530" s="5"/>
       <c r="U530" s="5"/>
     </row>
-    <row r="531" spans="1:21">
+    <row r="531" spans="1:21" ht="12.75">
       <c r="A531" s="7"/>
       <c r="B531" s="8"/>
       <c r="C531" s="9"/>
@@ -12703,7 +12706,7 @@
       <c r="T531" s="5"/>
       <c r="U531" s="5"/>
     </row>
-    <row r="532" spans="1:21">
+    <row r="532" spans="1:21" ht="12.75">
       <c r="A532" s="7"/>
       <c r="B532" s="8"/>
       <c r="C532" s="9"/>
@@ -12726,7 +12729,7 @@
       <c r="T532" s="5"/>
       <c r="U532" s="5"/>
     </row>
-    <row r="533" spans="1:21">
+    <row r="533" spans="1:21" ht="12.75">
       <c r="A533" s="7"/>
       <c r="B533" s="8"/>
       <c r="C533" s="9"/>
@@ -12749,7 +12752,7 @@
       <c r="T533" s="5"/>
       <c r="U533" s="5"/>
     </row>
-    <row r="534" spans="1:21">
+    <row r="534" spans="1:21" ht="12.75">
       <c r="A534" s="7"/>
       <c r="B534" s="8"/>
       <c r="C534" s="9"/>
@@ -12772,7 +12775,7 @@
       <c r="T534" s="5"/>
       <c r="U534" s="5"/>
     </row>
-    <row r="535" spans="1:21">
+    <row r="535" spans="1:21" ht="12.75">
       <c r="A535" s="7"/>
       <c r="B535" s="8"/>
       <c r="C535" s="9"/>
@@ -12795,7 +12798,7 @@
       <c r="T535" s="5"/>
       <c r="U535" s="5"/>
     </row>
-    <row r="536" spans="1:21">
+    <row r="536" spans="1:21" ht="12.75">
       <c r="A536" s="7"/>
       <c r="B536" s="8"/>
       <c r="C536" s="9"/>
@@ -12818,7 +12821,7 @@
       <c r="T536" s="5"/>
       <c r="U536" s="5"/>
     </row>
-    <row r="537" spans="1:21">
+    <row r="537" spans="1:21" ht="12.75">
       <c r="A537" s="7"/>
       <c r="B537" s="8"/>
       <c r="C537" s="9"/>
@@ -12841,7 +12844,7 @@
       <c r="T537" s="5"/>
       <c r="U537" s="5"/>
     </row>
-    <row r="538" spans="1:21">
+    <row r="538" spans="1:21" ht="12.75">
       <c r="A538" s="7"/>
       <c r="B538" s="8"/>
       <c r="C538" s="9"/>
@@ -12864,7 +12867,7 @@
       <c r="T538" s="5"/>
       <c r="U538" s="5"/>
     </row>
-    <row r="539" spans="1:21">
+    <row r="539" spans="1:21" ht="12.75">
       <c r="A539" s="7"/>
       <c r="B539" s="8"/>
       <c r="C539" s="9"/>
@@ -12887,7 +12890,7 @@
       <c r="T539" s="5"/>
       <c r="U539" s="5"/>
     </row>
-    <row r="540" spans="1:21">
+    <row r="540" spans="1:21" ht="12.75">
       <c r="A540" s="7"/>
       <c r="B540" s="8"/>
       <c r="C540" s="9"/>
@@ -12910,7 +12913,7 @@
       <c r="T540" s="5"/>
       <c r="U540" s="5"/>
     </row>
-    <row r="541" spans="1:21">
+    <row r="541" spans="1:21" ht="12.75">
       <c r="A541" s="7"/>
       <c r="B541" s="8"/>
       <c r="C541" s="9"/>
@@ -12933,7 +12936,7 @@
       <c r="T541" s="5"/>
       <c r="U541" s="5"/>
     </row>
-    <row r="542" spans="1:21">
+    <row r="542" spans="1:21" ht="12.75">
       <c r="A542" s="7"/>
       <c r="B542" s="8"/>
       <c r="C542" s="9"/>
@@ -12956,7 +12959,7 @@
       <c r="T542" s="5"/>
       <c r="U542" s="5"/>
     </row>
-    <row r="543" spans="1:21">
+    <row r="543" spans="1:21" ht="12.75">
       <c r="A543" s="7"/>
       <c r="B543" s="8"/>
       <c r="C543" s="9"/>
@@ -12979,7 +12982,7 @@
       <c r="T543" s="5"/>
       <c r="U543" s="5"/>
     </row>
-    <row r="544" spans="1:21">
+    <row r="544" spans="1:21" ht="12.75">
       <c r="A544" s="7"/>
       <c r="B544" s="8"/>
       <c r="C544" s="9"/>
@@ -13002,7 +13005,7 @@
       <c r="T544" s="5"/>
       <c r="U544" s="5"/>
     </row>
-    <row r="545" spans="1:21">
+    <row r="545" spans="1:21" ht="12.75">
       <c r="A545" s="7"/>
       <c r="B545" s="8"/>
       <c r="C545" s="9"/>
@@ -13025,7 +13028,7 @@
       <c r="T545" s="5"/>
       <c r="U545" s="5"/>
     </row>
-    <row r="546" spans="1:21">
+    <row r="546" spans="1:21" ht="12.75">
       <c r="A546" s="7"/>
       <c r="B546" s="8"/>
       <c r="C546" s="9"/>
@@ -13048,7 +13051,7 @@
       <c r="T546" s="5"/>
       <c r="U546" s="5"/>
     </row>
-    <row r="547" spans="1:21">
+    <row r="547" spans="1:21" ht="12.75">
       <c r="A547" s="7"/>
       <c r="B547" s="8"/>
       <c r="C547" s="9"/>
@@ -13071,7 +13074,7 @@
       <c r="T547" s="5"/>
       <c r="U547" s="5"/>
     </row>
-    <row r="548" spans="1:21">
+    <row r="548" spans="1:21" ht="12.75">
       <c r="A548" s="7"/>
       <c r="B548" s="8"/>
       <c r="C548" s="9"/>
@@ -13094,7 +13097,7 @@
       <c r="T548" s="5"/>
       <c r="U548" s="5"/>
     </row>
-    <row r="549" spans="1:21">
+    <row r="549" spans="1:21" ht="12.75">
       <c r="A549" s="7"/>
       <c r="B549" s="8"/>
       <c r="C549" s="9"/>
@@ -13117,7 +13120,7 @@
       <c r="T549" s="5"/>
       <c r="U549" s="5"/>
     </row>
-    <row r="550" spans="1:21">
+    <row r="550" spans="1:21" ht="12.75">
       <c r="A550" s="7"/>
       <c r="B550" s="8"/>
       <c r="C550" s="9"/>
@@ -13140,7 +13143,7 @@
       <c r="T550" s="5"/>
       <c r="U550" s="5"/>
     </row>
-    <row r="551" spans="1:21">
+    <row r="551" spans="1:21" ht="12.75">
       <c r="A551" s="7"/>
       <c r="B551" s="8"/>
       <c r="C551" s="9"/>
@@ -13163,7 +13166,7 @@
       <c r="T551" s="5"/>
       <c r="U551" s="5"/>
     </row>
-    <row r="552" spans="1:21">
+    <row r="552" spans="1:21" ht="12.75">
       <c r="A552" s="7"/>
       <c r="B552" s="8"/>
       <c r="C552" s="9"/>
@@ -13186,7 +13189,7 @@
       <c r="T552" s="5"/>
       <c r="U552" s="5"/>
     </row>
-    <row r="553" spans="1:21">
+    <row r="553" spans="1:21" ht="12.75">
       <c r="A553" s="7"/>
       <c r="B553" s="8"/>
       <c r="C553" s="9"/>
@@ -13209,7 +13212,7 @@
       <c r="T553" s="5"/>
       <c r="U553" s="5"/>
     </row>
-    <row r="554" spans="1:21">
+    <row r="554" spans="1:21" ht="12.75">
       <c r="A554" s="7"/>
       <c r="B554" s="8"/>
       <c r="C554" s="9"/>
@@ -13232,7 +13235,7 @@
       <c r="T554" s="5"/>
       <c r="U554" s="5"/>
     </row>
-    <row r="555" spans="1:21">
+    <row r="555" spans="1:21" ht="12.75">
       <c r="A555" s="7"/>
       <c r="B555" s="8"/>
       <c r="C555" s="9"/>
@@ -13255,7 +13258,7 @@
       <c r="T555" s="5"/>
       <c r="U555" s="5"/>
     </row>
-    <row r="556" spans="1:21">
+    <row r="556" spans="1:21" ht="12.75">
       <c r="A556" s="7"/>
       <c r="B556" s="8"/>
       <c r="C556" s="9"/>
@@ -13278,7 +13281,7 @@
       <c r="T556" s="5"/>
       <c r="U556" s="5"/>
     </row>
-    <row r="557" spans="1:21">
+    <row r="557" spans="1:21" ht="12.75">
       <c r="A557" s="7"/>
       <c r="B557" s="8"/>
       <c r="C557" s="9"/>
@@ -13301,7 +13304,7 @@
       <c r="T557" s="5"/>
       <c r="U557" s="5"/>
     </row>
-    <row r="558" spans="1:21">
+    <row r="558" spans="1:21" ht="12.75">
       <c r="A558" s="7"/>
       <c r="B558" s="8"/>
       <c r="C558" s="9"/>
@@ -13324,7 +13327,7 @@
       <c r="T558" s="5"/>
       <c r="U558" s="5"/>
     </row>
-    <row r="559" spans="1:21">
+    <row r="559" spans="1:21" ht="12.75">
       <c r="A559" s="7"/>
       <c r="B559" s="8"/>
       <c r="C559" s="9"/>
@@ -13347,7 +13350,7 @@
       <c r="T559" s="5"/>
       <c r="U559" s="5"/>
     </row>
-    <row r="560" spans="1:21">
+    <row r="560" spans="1:21" ht="12.75">
       <c r="A560" s="7"/>
       <c r="B560" s="8"/>
       <c r="C560" s="9"/>
@@ -13370,7 +13373,7 @@
       <c r="T560" s="5"/>
       <c r="U560" s="5"/>
     </row>
-    <row r="561" spans="1:21">
+    <row r="561" spans="1:21" ht="12.75">
       <c r="A561" s="7"/>
       <c r="B561" s="8"/>
       <c r="C561" s="9"/>
@@ -13393,7 +13396,7 @@
       <c r="T561" s="5"/>
       <c r="U561" s="5"/>
     </row>
-    <row r="562" spans="1:21">
+    <row r="562" spans="1:21" ht="12.75">
       <c r="A562" s="7"/>
       <c r="B562" s="8"/>
       <c r="C562" s="9"/>
@@ -13416,7 +13419,7 @@
       <c r="T562" s="5"/>
       <c r="U562" s="5"/>
     </row>
-    <row r="563" spans="1:21">
+    <row r="563" spans="1:21" ht="12.75">
       <c r="A563" s="7"/>
       <c r="B563" s="8"/>
       <c r="C563" s="9"/>
@@ -13439,7 +13442,7 @@
       <c r="T563" s="5"/>
       <c r="U563" s="5"/>
     </row>
-    <row r="564" spans="1:21">
+    <row r="564" spans="1:21" ht="12.75">
       <c r="A564" s="7"/>
       <c r="B564" s="8"/>
       <c r="C564" s="9"/>
@@ -13462,7 +13465,7 @@
       <c r="T564" s="5"/>
       <c r="U564" s="5"/>
     </row>
-    <row r="565" spans="1:21">
+    <row r="565" spans="1:21" ht="12.75">
       <c r="A565" s="7"/>
       <c r="B565" s="8"/>
       <c r="C565" s="9"/>
@@ -13485,7 +13488,7 @@
       <c r="T565" s="5"/>
       <c r="U565" s="5"/>
     </row>
-    <row r="566" spans="1:21">
+    <row r="566" spans="1:21" ht="12.75">
       <c r="A566" s="7"/>
       <c r="B566" s="8"/>
       <c r="C566" s="9"/>
@@ -13508,7 +13511,7 @@
       <c r="T566" s="5"/>
       <c r="U566" s="5"/>
     </row>
-    <row r="567" spans="1:21">
+    <row r="567" spans="1:21" ht="12.75">
       <c r="A567" s="7"/>
       <c r="B567" s="8"/>
       <c r="C567" s="9"/>
@@ -13531,7 +13534,7 @@
       <c r="T567" s="5"/>
       <c r="U567" s="5"/>
     </row>
-    <row r="568" spans="1:21">
+    <row r="568" spans="1:21" ht="12.75">
       <c r="A568" s="7"/>
       <c r="B568" s="8"/>
       <c r="C568" s="9"/>
@@ -13554,7 +13557,7 @@
       <c r="T568" s="5"/>
       <c r="U568" s="5"/>
     </row>
-    <row r="569" spans="1:21">
+    <row r="569" spans="1:21" ht="12.75">
       <c r="A569" s="7"/>
       <c r="B569" s="8"/>
       <c r="C569" s="9"/>
@@ -13577,7 +13580,7 @@
       <c r="T569" s="5"/>
       <c r="U569" s="5"/>
     </row>
-    <row r="570" spans="1:21">
+    <row r="570" spans="1:21" ht="12.75">
       <c r="A570" s="7"/>
       <c r="B570" s="8"/>
       <c r="C570" s="9"/>
@@ -13600,7 +13603,7 @@
       <c r="T570" s="5"/>
       <c r="U570" s="5"/>
     </row>
-    <row r="571" spans="1:21">
+    <row r="571" spans="1:21" ht="12.75">
       <c r="A571" s="7"/>
       <c r="B571" s="8"/>
       <c r="C571" s="9"/>
@@ -13623,7 +13626,7 @@
       <c r="T571" s="5"/>
       <c r="U571" s="5"/>
     </row>
-    <row r="572" spans="1:21">
+    <row r="572" spans="1:21" ht="12.75">
       <c r="A572" s="7"/>
       <c r="B572" s="8"/>
       <c r="C572" s="9"/>
@@ -13646,7 +13649,7 @@
       <c r="T572" s="5"/>
       <c r="U572" s="5"/>
     </row>
-    <row r="573" spans="1:21">
+    <row r="573" spans="1:21" ht="12.75">
       <c r="A573" s="7"/>
       <c r="B573" s="8"/>
       <c r="C573" s="9"/>
@@ -13669,7 +13672,7 @@
       <c r="T573" s="5"/>
       <c r="U573" s="5"/>
     </row>
-    <row r="574" spans="1:21">
+    <row r="574" spans="1:21" ht="12.75">
       <c r="A574" s="7"/>
       <c r="B574" s="8"/>
       <c r="C574" s="9"/>
@@ -13692,7 +13695,7 @@
       <c r="T574" s="5"/>
       <c r="U574" s="5"/>
     </row>
-    <row r="575" spans="1:21">
+    <row r="575" spans="1:21" ht="12.75">
       <c r="A575" s="7"/>
       <c r="B575" s="8"/>
       <c r="C575" s="9"/>
@@ -13715,7 +13718,7 @@
       <c r="T575" s="5"/>
       <c r="U575" s="5"/>
     </row>
-    <row r="576" spans="1:21">
+    <row r="576" spans="1:21" ht="12.75">
       <c r="A576" s="7"/>
       <c r="B576" s="8"/>
       <c r="C576" s="9"/>
@@ -13738,7 +13741,7 @@
       <c r="T576" s="5"/>
       <c r="U576" s="5"/>
     </row>
-    <row r="577" spans="1:21">
+    <row r="577" spans="1:21" ht="12.75">
       <c r="A577" s="7"/>
       <c r="B577" s="8"/>
       <c r="C577" s="9"/>
@@ -13761,7 +13764,7 @@
       <c r="T577" s="5"/>
       <c r="U577" s="5"/>
     </row>
-    <row r="578" spans="1:21">
+    <row r="578" spans="1:21" ht="12.75">
       <c r="A578" s="7"/>
       <c r="B578" s="8"/>
       <c r="C578" s="9"/>
@@ -13784,7 +13787,7 @@
       <c r="T578" s="5"/>
       <c r="U578" s="5"/>
     </row>
-    <row r="579" spans="1:21">
+    <row r="579" spans="1:21" ht="12.75">
       <c r="A579" s="7"/>
       <c r="B579" s="8"/>
       <c r="C579" s="9"/>
@@ -13807,7 +13810,7 @@
       <c r="T579" s="5"/>
       <c r="U579" s="5"/>
     </row>
-    <row r="580" spans="1:21">
+    <row r="580" spans="1:21" ht="12.75">
       <c r="A580" s="7"/>
       <c r="B580" s="8"/>
       <c r="C580" s="9"/>
@@ -13830,7 +13833,7 @@
       <c r="T580" s="5"/>
       <c r="U580" s="5"/>
     </row>
-    <row r="581" spans="1:21">
+    <row r="581" spans="1:21" ht="12.75">
       <c r="A581" s="7"/>
       <c r="B581" s="8"/>
       <c r="C581" s="9"/>
@@ -13853,7 +13856,7 @@
       <c r="T581" s="5"/>
       <c r="U581" s="5"/>
     </row>
-    <row r="582" spans="1:21">
+    <row r="582" spans="1:21" ht="12.75">
       <c r="A582" s="7"/>
       <c r="B582" s="8"/>
       <c r="C582" s="9"/>
@@ -13876,7 +13879,7 @@
       <c r="T582" s="5"/>
       <c r="U582" s="5"/>
     </row>
-    <row r="583" spans="1:21">
+    <row r="583" spans="1:21" ht="12.75">
       <c r="A583" s="7"/>
       <c r="B583" s="8"/>
       <c r="C583" s="9"/>
@@ -13899,7 +13902,7 @@
       <c r="T583" s="5"/>
       <c r="U583" s="5"/>
     </row>
-    <row r="584" spans="1:21">
+    <row r="584" spans="1:21" ht="12.75">
       <c r="A584" s="7"/>
       <c r="B584" s="8"/>
       <c r="C584" s="9"/>
@@ -13922,7 +13925,7 @@
       <c r="T584" s="5"/>
       <c r="U584" s="5"/>
     </row>
-    <row r="585" spans="1:21">
+    <row r="585" spans="1:21" ht="12.75">
       <c r="A585" s="7"/>
       <c r="B585" s="8"/>
       <c r="C585" s="9"/>
@@ -13945,7 +13948,7 @@
       <c r="T585" s="5"/>
       <c r="U585" s="5"/>
     </row>
-    <row r="586" spans="1:21">
+    <row r="586" spans="1:21" ht="12.75">
       <c r="A586" s="7"/>
       <c r="B586" s="8"/>
       <c r="C586" s="9"/>
@@ -13968,7 +13971,7 @@
       <c r="T586" s="5"/>
       <c r="U586" s="5"/>
     </row>
-    <row r="587" spans="1:21">
+    <row r="587" spans="1:21" ht="12.75">
       <c r="A587" s="7"/>
       <c r="B587" s="8"/>
       <c r="C587" s="9"/>
@@ -13991,7 +13994,7 @@
       <c r="T587" s="5"/>
       <c r="U587" s="5"/>
     </row>
-    <row r="588" spans="1:21">
+    <row r="588" spans="1:21" ht="12.75">
       <c r="A588" s="7"/>
       <c r="B588" s="8"/>
       <c r="C588" s="9"/>
@@ -14014,7 +14017,7 @@
       <c r="T588" s="5"/>
       <c r="U588" s="5"/>
     </row>
-    <row r="589" spans="1:21">
+    <row r="589" spans="1:21" ht="12.75">
       <c r="A589" s="7"/>
       <c r="B589" s="8"/>
       <c r="C589" s="9"/>
@@ -14037,7 +14040,7 @@
       <c r="T589" s="5"/>
       <c r="U589" s="5"/>
     </row>
-    <row r="590" spans="1:21">
+    <row r="590" spans="1:21" ht="12.75">
       <c r="A590" s="7"/>
       <c r="B590" s="8"/>
       <c r="C590" s="9"/>
@@ -14060,7 +14063,7 @@
       <c r="T590" s="5"/>
       <c r="U590" s="5"/>
     </row>
-    <row r="591" spans="1:21">
+    <row r="591" spans="1:21" ht="12.75">
       <c r="A591" s="7"/>
       <c r="B591" s="8"/>
       <c r="C591" s="9"/>
@@ -14083,7 +14086,7 @@
       <c r="T591" s="5"/>
       <c r="U591" s="5"/>
     </row>
-    <row r="592" spans="1:21">
+    <row r="592" spans="1:21" ht="12.75">
       <c r="A592" s="7"/>
       <c r="B592" s="8"/>
       <c r="C592" s="9"/>
@@ -14106,7 +14109,7 @@
       <c r="T592" s="5"/>
       <c r="U592" s="5"/>
     </row>
-    <row r="593" spans="1:21">
+    <row r="593" spans="1:21" ht="12.75">
       <c r="A593" s="7"/>
       <c r="B593" s="8"/>
       <c r="C593" s="9"/>
@@ -14129,7 +14132,7 @@
       <c r="T593" s="5"/>
       <c r="U593" s="5"/>
     </row>
-    <row r="594" spans="1:21">
+    <row r="594" spans="1:21" ht="12.75">
       <c r="A594" s="7"/>
       <c r="B594" s="8"/>
       <c r="C594" s="9"/>
@@ -14152,7 +14155,7 @@
       <c r="T594" s="5"/>
       <c r="U594" s="5"/>
     </row>
-    <row r="595" spans="1:21">
+    <row r="595" spans="1:21" ht="12.75">
       <c r="A595" s="7"/>
       <c r="B595" s="8"/>
       <c r="C595" s="9"/>
@@ -14175,7 +14178,7 @@
       <c r="T595" s="5"/>
       <c r="U595" s="5"/>
     </row>
-    <row r="596" spans="1:21">
+    <row r="596" spans="1:21" ht="12.75">
       <c r="A596" s="7"/>
       <c r="B596" s="8"/>
       <c r="C596" s="9"/>
@@ -14198,7 +14201,7 @@
       <c r="T596" s="5"/>
       <c r="U596" s="5"/>
     </row>
-    <row r="597" spans="1:21">
+    <row r="597" spans="1:21" ht="12.75">
       <c r="A597" s="7"/>
       <c r="B597" s="8"/>
       <c r="C597" s="9"/>
@@ -14221,7 +14224,7 @@
       <c r="T597" s="5"/>
       <c r="U597" s="5"/>
     </row>
-    <row r="598" spans="1:21">
+    <row r="598" spans="1:21" ht="12.75">
       <c r="A598" s="7"/>
       <c r="B598" s="8"/>
       <c r="C598" s="9"/>
@@ -14244,7 +14247,7 @@
       <c r="T598" s="5"/>
       <c r="U598" s="5"/>
     </row>
-    <row r="599" spans="1:21">
+    <row r="599" spans="1:21" ht="12.75">
       <c r="A599" s="7"/>
       <c r="B599" s="8"/>
       <c r="C599" s="9"/>
@@ -14267,7 +14270,7 @@
       <c r="T599" s="5"/>
       <c r="U599" s="5"/>
     </row>
-    <row r="600" spans="1:21">
+    <row r="600" spans="1:21" ht="12.75">
       <c r="A600" s="7"/>
       <c r="B600" s="8"/>
       <c r="C600" s="9"/>
@@ -14290,7 +14293,7 @@
       <c r="T600" s="5"/>
       <c r="U600" s="5"/>
     </row>
-    <row r="601" spans="1:21">
+    <row r="601" spans="1:21" ht="12.75">
       <c r="A601" s="7"/>
       <c r="B601" s="8"/>
       <c r="C601" s="9"/>
@@ -14313,7 +14316,7 @@
       <c r="T601" s="5"/>
       <c r="U601" s="5"/>
     </row>
-    <row r="602" spans="1:21">
+    <row r="602" spans="1:21" ht="12.75">
       <c r="A602" s="7"/>
       <c r="B602" s="8"/>
       <c r="C602" s="9"/>
@@ -14336,7 +14339,7 @@
       <c r="T602" s="5"/>
       <c r="U602" s="5"/>
     </row>
-    <row r="603" spans="1:21">
+    <row r="603" spans="1:21" ht="12.75">
       <c r="A603" s="7"/>
       <c r="B603" s="8"/>
       <c r="C603" s="9"/>
@@ -14359,7 +14362,7 @@
       <c r="T603" s="5"/>
       <c r="U603" s="5"/>
     </row>
-    <row r="604" spans="1:21">
+    <row r="604" spans="1:21" ht="12.75">
       <c r="A604" s="7"/>
       <c r="B604" s="8"/>
       <c r="C604" s="9"/>
@@ -14382,7 +14385,7 @@
       <c r="T604" s="5"/>
       <c r="U604" s="5"/>
     </row>
-    <row r="605" spans="1:21">
+    <row r="605" spans="1:21" ht="12.75">
       <c r="A605" s="7"/>
       <c r="B605" s="8"/>
       <c r="C605" s="9"/>
@@ -14405,7 +14408,7 @@
       <c r="T605" s="5"/>
       <c r="U605" s="5"/>
     </row>
-    <row r="606" spans="1:21">
+    <row r="606" spans="1:21" ht="12.75">
       <c r="A606" s="7"/>
       <c r="B606" s="8"/>
       <c r="C606" s="9"/>
@@ -14428,7 +14431,7 @@
       <c r="T606" s="5"/>
       <c r="U606" s="5"/>
     </row>
-    <row r="607" spans="1:21">
+    <row r="607" spans="1:21" ht="12.75">
       <c r="A607" s="7"/>
       <c r="B607" s="8"/>
       <c r="C607" s="9"/>
@@ -14451,7 +14454,7 @@
       <c r="T607" s="5"/>
       <c r="U607" s="5"/>
     </row>
-    <row r="608" spans="1:21">
+    <row r="608" spans="1:21" ht="12.75">
       <c r="A608" s="7"/>
       <c r="B608" s="8"/>
       <c r="C608" s="9"/>
@@ -14474,7 +14477,7 @@
       <c r="T608" s="5"/>
       <c r="U608" s="5"/>
     </row>
-    <row r="609" spans="1:21">
+    <row r="609" spans="1:21" ht="12.75">
       <c r="A609" s="7"/>
       <c r="B609" s="8"/>
       <c r="C609" s="9"/>
@@ -14497,7 +14500,7 @@
       <c r="T609" s="5"/>
       <c r="U609" s="5"/>
     </row>
-    <row r="610" spans="1:21">
+    <row r="610" spans="1:21" ht="12.75">
       <c r="A610" s="7"/>
       <c r="B610" s="8"/>
       <c r="C610" s="9"/>
@@ -14520,7 +14523,7 @@
       <c r="T610" s="5"/>
       <c r="U610" s="5"/>
     </row>
-    <row r="611" spans="1:21">
+    <row r="611" spans="1:21" ht="12.75">
       <c r="A611" s="7"/>
       <c r="B611" s="8"/>
       <c r="C611" s="9"/>
@@ -14543,7 +14546,7 @@
       <c r="T611" s="5"/>
       <c r="U611" s="5"/>
     </row>
-    <row r="612" spans="1:21">
+    <row r="612" spans="1:21" ht="12.75">
       <c r="A612" s="7"/>
       <c r="B612" s="8"/>
       <c r="C612" s="9"/>
@@ -14566,7 +14569,7 @@
       <c r="T612" s="5"/>
       <c r="U612" s="5"/>
     </row>
-    <row r="613" spans="1:21">
+    <row r="613" spans="1:21" ht="12.75">
       <c r="A613" s="7"/>
       <c r="B613" s="8"/>
       <c r="C613" s="9"/>
@@ -14589,7 +14592,7 @@
       <c r="T613" s="5"/>
       <c r="U613" s="5"/>
     </row>
-    <row r="614" spans="1:21">
+    <row r="614" spans="1:21" ht="12.75">
       <c r="A614" s="7"/>
       <c r="B614" s="8"/>
       <c r="C614" s="9"/>
@@ -14612,7 +14615,7 @@
       <c r="T614" s="5"/>
       <c r="U614" s="5"/>
     </row>
-    <row r="615" spans="1:21">
+    <row r="615" spans="1:21" ht="12.75">
       <c r="A615" s="7"/>
       <c r="B615" s="8"/>
       <c r="C615" s="9"/>
@@ -14635,7 +14638,7 @@
       <c r="T615" s="5"/>
       <c r="U615" s="5"/>
     </row>
-    <row r="616" spans="1:21">
+    <row r="616" spans="1:21" ht="12.75">
       <c r="A616" s="7"/>
       <c r="B616" s="8"/>
       <c r="C616" s="9"/>
@@ -14658,7 +14661,7 @@
       <c r="T616" s="5"/>
       <c r="U616" s="5"/>
     </row>
-    <row r="617" spans="1:21">
+    <row r="617" spans="1:21" ht="12.75">
       <c r="A617" s="7"/>
       <c r="B617" s="8"/>
       <c r="C617" s="9"/>
@@ -14681,7 +14684,7 @@
       <c r="T617" s="5"/>
       <c r="U617" s="5"/>
     </row>
-    <row r="618" spans="1:21">
+    <row r="618" spans="1:21" ht="12.75">
       <c r="A618" s="7"/>
       <c r="B618" s="8"/>
       <c r="C618" s="9"/>
@@ -14704,7 +14707,7 @@
       <c r="T618" s="5"/>
       <c r="U618" s="5"/>
     </row>
-    <row r="619" spans="1:21">
+    <row r="619" spans="1:21" ht="12.75">
       <c r="A619" s="7"/>
       <c r="B619" s="8"/>
       <c r="C619" s="9"/>
@@ -14727,7 +14730,7 @@
       <c r="T619" s="5"/>
       <c r="U619" s="5"/>
     </row>
-    <row r="620" spans="1:21">
+    <row r="620" spans="1:21" ht="12.75">
       <c r="A620" s="7"/>
       <c r="B620" s="8"/>
       <c r="C620" s="9"/>
@@ -14750,7 +14753,7 @@
       <c r="T620" s="5"/>
       <c r="U620" s="5"/>
     </row>
-    <row r="621" spans="1:21">
+    <row r="621" spans="1:21" ht="12.75">
       <c r="A621" s="7"/>
       <c r="B621" s="8"/>
       <c r="C621" s="9"/>
@@ -14773,7 +14776,7 @@
       <c r="T621" s="5"/>
       <c r="U621" s="5"/>
     </row>
-    <row r="622" spans="1:21">
+    <row r="622" spans="1:21" ht="12.75">
       <c r="A622" s="7"/>
       <c r="B622" s="8"/>
       <c r="C622" s="9"/>
@@ -14796,7 +14799,7 @@
       <c r="T622" s="5"/>
       <c r="U622" s="5"/>
     </row>
-    <row r="623" spans="1:21">
+    <row r="623" spans="1:21" ht="12.75">
       <c r="A623" s="7"/>
       <c r="B623" s="8"/>
       <c r="C623" s="9"/>
@@ -14819,7 +14822,7 @@
       <c r="T623" s="5"/>
       <c r="U623" s="5"/>
     </row>
-    <row r="624" spans="1:21">
+    <row r="624" spans="1:21" ht="12.75">
       <c r="A624" s="7"/>
       <c r="B624" s="8"/>
       <c r="C624" s="9"/>
@@ -14842,7 +14845,7 @@
       <c r="T624" s="5"/>
       <c r="U624" s="5"/>
     </row>
-    <row r="625" spans="1:21">
+    <row r="625" spans="1:21" ht="12.75">
       <c r="A625" s="7"/>
       <c r="B625" s="8"/>
       <c r="C625" s="9"/>
@@ -14865,7 +14868,7 @@
       <c r="T625" s="5"/>
       <c r="U625" s="5"/>
     </row>
-    <row r="626" spans="1:21">
+    <row r="626" spans="1:21" ht="12.75">
       <c r="A626" s="7"/>
       <c r="B626" s="8"/>
       <c r="C626" s="9"/>
@@ -14888,7 +14891,7 @@
       <c r="T626" s="5"/>
       <c r="U626" s="5"/>
     </row>
-    <row r="627" spans="1:21">
+    <row r="627" spans="1:21" ht="12.75">
       <c r="A627" s="7"/>
       <c r="B627" s="8"/>
       <c r="C627" s="9"/>
@@ -14911,7 +14914,7 @@
       <c r="T627" s="5"/>
       <c r="U627" s="5"/>
     </row>
-    <row r="628" spans="1:21">
+    <row r="628" spans="1:21" ht="12.75">
       <c r="A628" s="7"/>
       <c r="B628" s="8"/>
       <c r="C628" s="9"/>
@@ -14934,7 +14937,7 @@
       <c r="T628" s="5"/>
       <c r="U628" s="5"/>
     </row>
-    <row r="629" spans="1:21">
+    <row r="629" spans="1:21" ht="12.75">
       <c r="A629" s="7"/>
       <c r="B629" s="8"/>
       <c r="C629" s="9"/>
@@ -14957,7 +14960,7 @@
       <c r="T629" s="5"/>
       <c r="U629" s="5"/>
     </row>
-    <row r="630" spans="1:21">
+    <row r="630" spans="1:21" ht="12.75">
       <c r="A630" s="7"/>
       <c r="B630" s="8"/>
       <c r="C630" s="9"/>
@@ -14980,7 +14983,7 @@
       <c r="T630" s="5"/>
       <c r="U630" s="5"/>
     </row>
-    <row r="631" spans="1:21">
+    <row r="631" spans="1:21" ht="12.75">
       <c r="A631" s="7"/>
       <c r="B631" s="8"/>
       <c r="C631" s="9"/>
@@ -15003,7 +15006,7 @@
       <c r="T631" s="5"/>
       <c r="U631" s="5"/>
     </row>
-    <row r="632" spans="1:21">
+    <row r="632" spans="1:21" ht="12.75">
       <c r="A632" s="7"/>
       <c r="B632" s="8"/>
       <c r="C632" s="9"/>
@@ -15026,7 +15029,7 @@
       <c r="T632" s="5"/>
       <c r="U632" s="5"/>
     </row>
-    <row r="633" spans="1:21">
+    <row r="633" spans="1:21" ht="12.75">
       <c r="A633" s="7"/>
       <c r="B633" s="8"/>
       <c r="C633" s="9"/>
@@ -15049,7 +15052,7 @@
       <c r="T633" s="5"/>
       <c r="U633" s="5"/>
     </row>
-    <row r="634" spans="1:21">
+    <row r="634" spans="1:21" ht="12.75">
       <c r="A634" s="7"/>
       <c r="B634" s="8"/>
       <c r="C634" s="9"/>
@@ -15072,7 +15075,7 @@
       <c r="T634" s="5"/>
       <c r="U634" s="5"/>
     </row>
-    <row r="635" spans="1:21">
+    <row r="635" spans="1:21" ht="12.75">
       <c r="A635" s="7"/>
       <c r="B635" s="8"/>
       <c r="C635" s="9"/>
@@ -15095,7 +15098,7 @@
       <c r="T635" s="5"/>
       <c r="U635" s="5"/>
     </row>
-    <row r="636" spans="1:21">
+    <row r="636" spans="1:21" ht="12.75">
       <c r="A636" s="7"/>
       <c r="B636" s="8"/>
       <c r="C636" s="9"/>
@@ -15118,7 +15121,7 @@
       <c r="T636" s="5"/>
       <c r="U636" s="5"/>
     </row>
-    <row r="637" spans="1:21">
+    <row r="637" spans="1:21" ht="12.75">
       <c r="A637" s="7"/>
       <c r="B637" s="8"/>
       <c r="C637" s="9"/>
@@ -15141,7 +15144,7 @@
       <c r="T637" s="5"/>
       <c r="U637" s="5"/>
     </row>
-    <row r="638" spans="1:21">
+    <row r="638" spans="1:21" ht="12.75">
       <c r="A638" s="7"/>
       <c r="B638" s="8"/>
       <c r="C638" s="9"/>
@@ -15164,7 +15167,7 @@
       <c r="T638" s="5"/>
       <c r="U638" s="5"/>
     </row>
-    <row r="639" spans="1:21">
+    <row r="639" spans="1:21" ht="12.75">
       <c r="A639" s="7"/>
       <c r="B639" s="8"/>
       <c r="C639" s="9"/>
@@ -15187,7 +15190,7 @@
       <c r="T639" s="5"/>
       <c r="U639" s="5"/>
     </row>
-    <row r="640" spans="1:21">
+    <row r="640" spans="1:21" ht="12.75">
       <c r="A640" s="7"/>
       <c r="B640" s="8"/>
       <c r="C640" s="9"/>
@@ -15210,7 +15213,7 @@
       <c r="T640" s="5"/>
       <c r="U640" s="5"/>
     </row>
-    <row r="641" spans="1:21">
+    <row r="641" spans="1:21" ht="12.75">
       <c r="A641" s="7"/>
       <c r="B641" s="8"/>
       <c r="C641" s="9"/>
@@ -15233,7 +15236,7 @@
       <c r="T641" s="5"/>
       <c r="U641" s="5"/>
     </row>
-    <row r="642" spans="1:21">
+    <row r="642" spans="1:21" ht="12.75">
       <c r="A642" s="7"/>
       <c r="B642" s="8"/>
       <c r="C642" s="9"/>
@@ -15256,7 +15259,7 @@
       <c r="T642" s="5"/>
       <c r="U642" s="5"/>
     </row>
-    <row r="643" spans="1:21">
+    <row r="643" spans="1:21" ht="12.75">
       <c r="A643" s="7"/>
       <c r="B643" s="8"/>
       <c r="C643" s="9"/>
@@ -15279,7 +15282,7 @@
       <c r="T643" s="5"/>
       <c r="U643" s="5"/>
     </row>
-    <row r="644" spans="1:21">
+    <row r="644" spans="1:21" ht="12.75">
       <c r="A644" s="7"/>
       <c r="B644" s="8"/>
       <c r="C644" s="9"/>
@@ -15302,7 +15305,7 @@
       <c r="T644" s="5"/>
       <c r="U644" s="5"/>
     </row>
-    <row r="645" spans="1:21">
+    <row r="645" spans="1:21" ht="12.75">
       <c r="A645" s="7"/>
       <c r="B645" s="8"/>
       <c r="C645" s="9"/>
@@ -15325,7 +15328,7 @@
       <c r="T645" s="5"/>
       <c r="U645" s="5"/>
     </row>
-    <row r="646" spans="1:21">
+    <row r="646" spans="1:21" ht="12.75">
       <c r="A646" s="7"/>
       <c r="B646" s="8"/>
       <c r="C646" s="9"/>
@@ -15348,7 +15351,7 @@
       <c r="T646" s="5"/>
       <c r="U646" s="5"/>
     </row>
-    <row r="647" spans="1:21">
+    <row r="647" spans="1:21" ht="12.75">
       <c r="A647" s="7"/>
       <c r="B647" s="8"/>
       <c r="C647" s="9"/>
@@ -15371,7 +15374,7 @@
       <c r="T647" s="5"/>
       <c r="U647" s="5"/>
     </row>
-    <row r="648" spans="1:21">
+    <row r="648" spans="1:21" ht="12.75">
       <c r="A648" s="7"/>
       <c r="B648" s="8"/>
       <c r="C648" s="9"/>
@@ -15394,7 +15397,7 @@
       <c r="T648" s="5"/>
       <c r="U648" s="5"/>
     </row>
-    <row r="649" spans="1:21">
+    <row r="649" spans="1:21" ht="12.75">
       <c r="A649" s="7"/>
       <c r="B649" s="8"/>
       <c r="C649" s="9"/>
@@ -15417,7 +15420,7 @@
       <c r="T649" s="5"/>
       <c r="U649" s="5"/>
     </row>
-    <row r="650" spans="1:21">
+    <row r="650" spans="1:21" ht="12.75">
       <c r="A650" s="7"/>
       <c r="B650" s="8"/>
       <c r="C650" s="9"/>
@@ -15440,7 +15443,7 @@
       <c r="T650" s="5"/>
       <c r="U650" s="5"/>
     </row>
-    <row r="651" spans="1:21">
+    <row r="651" spans="1:21" ht="12.75">
       <c r="A651" s="7"/>
       <c r="B651" s="8"/>
       <c r="C651" s="9"/>
@@ -15463,7 +15466,7 @@
       <c r="T651" s="5"/>
       <c r="U651" s="5"/>
     </row>
-    <row r="652" spans="1:21">
+    <row r="652" spans="1:21" ht="12.75">
       <c r="A652" s="7"/>
       <c r="B652" s="8"/>
       <c r="C652" s="9"/>
@@ -15486,7 +15489,7 @@
       <c r="T652" s="5"/>
       <c r="U652" s="5"/>
     </row>
-    <row r="653" spans="1:21">
+    <row r="653" spans="1:21" ht="12.75">
       <c r="A653" s="7"/>
       <c r="B653" s="8"/>
       <c r="C653" s="9"/>
@@ -15509,7 +15512,7 @@
       <c r="T653" s="5"/>
       <c r="U653" s="5"/>
     </row>
-    <row r="654" spans="1:21">
+    <row r="654" spans="1:21" ht="12.75">
       <c r="A654" s="7"/>
       <c r="B654" s="8"/>
       <c r="C654" s="9"/>
@@ -15532,7 +15535,7 @@
       <c r="T654" s="5"/>
       <c r="U654" s="5"/>
     </row>
-    <row r="655" spans="1:21">
+    <row r="655" spans="1:21" ht="12.75">
       <c r="A655" s="7"/>
       <c r="B655" s="8"/>
       <c r="C655" s="9"/>
@@ -15555,7 +15558,7 @@
       <c r="T655" s="5"/>
       <c r="U655" s="5"/>
     </row>
-    <row r="656" spans="1:21">
+    <row r="656" spans="1:21" ht="12.75">
       <c r="A656" s="7"/>
       <c r="B656" s="8"/>
       <c r="C656" s="9"/>
@@ -15578,7 +15581,7 @@
       <c r="T656" s="5"/>
       <c r="U656" s="5"/>
     </row>
-    <row r="657" spans="1:21">
+    <row r="657" spans="1:21" ht="12.75">
       <c r="A657" s="7"/>
       <c r="B657" s="8"/>
       <c r="C657" s="9"/>
@@ -15601,7 +15604,7 @@
       <c r="T657" s="5"/>
       <c r="U657" s="5"/>
     </row>
-    <row r="658" spans="1:21">
+    <row r="658" spans="1:21" ht="12.75">
       <c r="A658" s="7"/>
       <c r="B658" s="8"/>
       <c r="C658" s="9"/>
@@ -15624,7 +15627,7 @@
       <c r="T658" s="5"/>
       <c r="U658" s="5"/>
     </row>
-    <row r="659" spans="1:21">
+    <row r="659" spans="1:21" ht="12.75">
       <c r="A659" s="7"/>
       <c r="B659" s="8"/>
       <c r="C659" s="9"/>
@@ -15647,7 +15650,7 @@
       <c r="T659" s="5"/>
       <c r="U659" s="5"/>
     </row>
-    <row r="660" spans="1:21">
+    <row r="660" spans="1:21" ht="12.75">
       <c r="A660" s="7"/>
       <c r="B660" s="8"/>
       <c r="C660" s="9"/>
@@ -15670,7 +15673,7 @@
       <c r="T660" s="5"/>
       <c r="U660" s="5"/>
     </row>
-    <row r="661" spans="1:21">
+    <row r="661" spans="1:21" ht="12.75">
       <c r="A661" s="7"/>
       <c r="B661" s="8"/>
       <c r="C661" s="9"/>
@@ -15693,7 +15696,7 @@
       <c r="T661" s="5"/>
       <c r="U661" s="5"/>
     </row>
-    <row r="662" spans="1:21">
+    <row r="662" spans="1:21" ht="12.75">
       <c r="A662" s="7"/>
       <c r="B662" s="8"/>
       <c r="C662" s="9"/>
@@ -15716,7 +15719,7 @@
       <c r="T662" s="5"/>
       <c r="U662" s="5"/>
     </row>
-    <row r="663" spans="1:21">
+    <row r="663" spans="1:21" ht="12.75">
       <c r="A663" s="7"/>
       <c r="B663" s="8"/>
       <c r="C663" s="9"/>
@@ -15739,7 +15742,7 @@
       <c r="T663" s="5"/>
       <c r="U663" s="5"/>
     </row>
-    <row r="664" spans="1:21">
+    <row r="664" spans="1:21" ht="12.75">
       <c r="A664" s="7"/>
       <c r="B664" s="8"/>
       <c r="C664" s="9"/>
@@ -15762,7 +15765,7 @@
       <c r="T664" s="5"/>
       <c r="U664" s="5"/>
     </row>
-    <row r="665" spans="1:21">
+    <row r="665" spans="1:21" ht="12.75">
       <c r="A665" s="7"/>
       <c r="B665" s="8"/>
       <c r="C665" s="9"/>
@@ -15785,7 +15788,7 @@
       <c r="T665" s="5"/>
       <c r="U665" s="5"/>
     </row>
-    <row r="666" spans="1:21">
+    <row r="666" spans="1:21" ht="12.75">
       <c r="A666" s="7"/>
       <c r="B666" s="8"/>
       <c r="C666" s="9"/>
@@ -15808,7 +15811,7 @@
       <c r="T666" s="5"/>
       <c r="U666" s="5"/>
     </row>
-    <row r="667" spans="1:21">
+    <row r="667" spans="1:21" ht="12.75">
       <c r="A667" s="7"/>
       <c r="B667" s="8"/>
       <c r="C667" s="9"/>
@@ -15831,7 +15834,7 @@
       <c r="T667" s="5"/>
       <c r="U667" s="5"/>
     </row>
-    <row r="668" spans="1:21">
+    <row r="668" spans="1:21" ht="12.75">
       <c r="A668" s="7"/>
       <c r="B668" s="8"/>
       <c r="C668" s="9"/>
@@ -15854,7 +15857,7 @@
       <c r="T668" s="5"/>
       <c r="U668" s="5"/>
     </row>
-    <row r="669" spans="1:21">
+    <row r="669" spans="1:21" ht="12.75">
       <c r="A669" s="7"/>
       <c r="B669" s="8"/>
       <c r="C669" s="9"/>
@@ -15877,7 +15880,7 @@
       <c r="T669" s="5"/>
       <c r="U669" s="5"/>
     </row>
-    <row r="670" spans="1:21">
+    <row r="670" spans="1:21" ht="12.75">
       <c r="A670" s="7"/>
       <c r="B670" s="8"/>
       <c r="C670" s="9"/>
@@ -15900,7 +15903,7 @@
       <c r="T670" s="5"/>
       <c r="U670" s="5"/>
     </row>
-    <row r="671" spans="1:21">
+    <row r="671" spans="1:21" ht="12.75">
       <c r="A671" s="7"/>
       <c r="B671" s="8"/>
       <c r="C671" s="9"/>
@@ -15923,7 +15926,7 @@
       <c r="T671" s="5"/>
       <c r="U671" s="5"/>
     </row>
-    <row r="672" spans="1:21">
+    <row r="672" spans="1:21" ht="12.75">
       <c r="A672" s="7"/>
       <c r="B672" s="8"/>
       <c r="C672" s="9"/>
@@ -15946,7 +15949,7 @@
       <c r="T672" s="5"/>
       <c r="U672" s="5"/>
     </row>
-    <row r="673" spans="1:21">
+    <row r="673" spans="1:21" ht="12.75">
       <c r="A673" s="7"/>
       <c r="B673" s="8"/>
       <c r="C673" s="9"/>
@@ -15969,7 +15972,7 @@
       <c r="T673" s="5"/>
       <c r="U673" s="5"/>
     </row>
-    <row r="674" spans="1:21">
+    <row r="674" spans="1:21" ht="12.75">
       <c r="A674" s="7"/>
       <c r="B674" s="8"/>
       <c r="C674" s="9"/>
@@ -15992,7 +15995,7 @@
       <c r="T674" s="5"/>
       <c r="U674" s="5"/>
     </row>
-    <row r="675" spans="1:21">
+    <row r="675" spans="1:21" ht="12.75">
       <c r="A675" s="7"/>
       <c r="B675" s="8"/>
       <c r="C675" s="9"/>
@@ -16015,7 +16018,7 @@
       <c r="T675" s="5"/>
       <c r="U675" s="5"/>
     </row>
-    <row r="676" spans="1:21">
+    <row r="676" spans="1:21" ht="12.75">
       <c r="A676" s="7"/>
       <c r="B676" s="8"/>
       <c r="C676" s="9"/>
@@ -16038,7 +16041,7 @@
       <c r="T676" s="5"/>
       <c r="U676" s="5"/>
     </row>
-    <row r="677" spans="1:21">
+    <row r="677" spans="1:21" ht="12.75">
       <c r="A677" s="7"/>
       <c r="B677" s="8"/>
       <c r="C677" s="9"/>
@@ -16061,7 +16064,7 @@
       <c r="T677" s="5"/>
       <c r="U677" s="5"/>
     </row>
-    <row r="678" spans="1:21">
+    <row r="678" spans="1:21" ht="12.75">
       <c r="A678" s="7"/>
       <c r="B678" s="8"/>
       <c r="C678" s="9"/>
@@ -16084,7 +16087,7 @@
       <c r="T678" s="5"/>
       <c r="U678" s="5"/>
     </row>
-    <row r="679" spans="1:21">
+    <row r="679" spans="1:21" ht="12.75">
       <c r="A679" s="7"/>
       <c r="B679" s="8"/>
       <c r="C679" s="9"/>
@@ -16107,7 +16110,7 @@
       <c r="T679" s="5"/>
       <c r="U679" s="5"/>
     </row>
-    <row r="680" spans="1:21">
+    <row r="680" spans="1:21" ht="12.75">
       <c r="A680" s="7"/>
       <c r="B680" s="8"/>
       <c r="C680" s="9"/>
@@ -16130,7 +16133,7 @@
       <c r="T680" s="5"/>
       <c r="U680" s="5"/>
     </row>
-    <row r="681" spans="1:21">
+    <row r="681" spans="1:21" ht="12.75">
       <c r="A681" s="7"/>
       <c r="B681" s="8"/>
       <c r="C681" s="9"/>
@@ -16153,7 +16156,7 @@
       <c r="T681" s="5"/>
       <c r="U681" s="5"/>
     </row>
-    <row r="682" spans="1:21">
+    <row r="682" spans="1:21" ht="12.75">
       <c r="A682" s="7"/>
       <c r="B682" s="8"/>
       <c r="C682" s="9"/>
@@ -16176,7 +16179,7 @@
       <c r="T682" s="5"/>
       <c r="U682" s="5"/>
     </row>
-    <row r="683" spans="1:21">
+    <row r="683" spans="1:21" ht="12.75">
       <c r="A683" s="7"/>
       <c r="B683" s="8"/>
       <c r="C683" s="9"/>
@@ -16199,7 +16202,7 @@
       <c r="T683" s="5"/>
       <c r="U683" s="5"/>
     </row>
-    <row r="684" spans="1:21">
+    <row r="684" spans="1:21" ht="12.75">
       <c r="A684" s="7"/>
       <c r="B684" s="8"/>
       <c r="C684" s="9"/>
@@ -16222,7 +16225,7 @@
       <c r="T684" s="5"/>
       <c r="U684" s="5"/>
     </row>
-    <row r="685" spans="1:21">
+    <row r="685" spans="1:21" ht="12.75">
       <c r="A685" s="7"/>
       <c r="B685" s="8"/>
       <c r="C685" s="9"/>
@@ -16245,7 +16248,7 @@
       <c r="T685" s="5"/>
       <c r="U685" s="5"/>
     </row>
-    <row r="686" spans="1:21">
+    <row r="686" spans="1:21" ht="12.75">
       <c r="A686" s="7"/>
       <c r="B686" s="8"/>
       <c r="C686" s="9"/>
@@ -16268,7 +16271,7 @@
       <c r="T686" s="5"/>
       <c r="U686" s="5"/>
     </row>
-    <row r="687" spans="1:21">
+    <row r="687" spans="1:21" ht="12.75">
       <c r="A687" s="7"/>
       <c r="B687" s="8"/>
       <c r="C687" s="9"/>
@@ -16291,7 +16294,7 @@
       <c r="T687" s="5"/>
       <c r="U687" s="5"/>
     </row>
-    <row r="688" spans="1:21">
+    <row r="688" spans="1:21" ht="12.75">
       <c r="A688" s="7"/>
       <c r="B688" s="8"/>
       <c r="C688" s="9"/>
@@ -16314,7 +16317,7 @@
       <c r="T688" s="5"/>
       <c r="U688" s="5"/>
     </row>
-    <row r="689" spans="1:21">
+    <row r="689" spans="1:21" ht="12.75">
       <c r="A689" s="7"/>
       <c r="B689" s="8"/>
       <c r="C689" s="9"/>
@@ -16337,7 +16340,7 @@
       <c r="T689" s="5"/>
       <c r="U689" s="5"/>
     </row>
-    <row r="690" spans="1:21">
+    <row r="690" spans="1:21" ht="12.75">
       <c r="A690" s="7"/>
       <c r="B690" s="8"/>
       <c r="C690" s="9"/>
@@ -16360,7 +16363,7 @@
       <c r="T690" s="5"/>
       <c r="U690" s="5"/>
     </row>
-    <row r="691" spans="1:21">
+    <row r="691" spans="1:21" ht="12.75">
       <c r="A691" s="7"/>
       <c r="B691" s="8"/>
       <c r="C691" s="9"/>
@@ -16383,7 +16386,7 @@
       <c r="T691" s="5"/>
       <c r="U691" s="5"/>
     </row>
-    <row r="692" spans="1:21">
+    <row r="692" spans="1:21" ht="12.75">
       <c r="A692" s="7"/>
       <c r="B692" s="8"/>
       <c r="C692" s="9"/>
@@ -16406,7 +16409,7 @@
       <c r="T692" s="5"/>
       <c r="U692" s="5"/>
     </row>
-    <row r="693" spans="1:21">
+    <row r="693" spans="1:21" ht="12.75">
       <c r="A693" s="7"/>
       <c r="B693" s="8"/>
       <c r="C693" s="9"/>
@@ -16429,7 +16432,7 @@
       <c r="T693" s="5"/>
       <c r="U693" s="5"/>
     </row>
-    <row r="694" spans="1:21">
+    <row r="694" spans="1:21" ht="12.75">
       <c r="A694" s="7"/>
       <c r="B694" s="8"/>
       <c r="C694" s="9"/>
@@ -16452,7 +16455,7 @@
       <c r="T694" s="5"/>
       <c r="U694" s="5"/>
     </row>
-    <row r="695" spans="1:21">
+    <row r="695" spans="1:21" ht="12.75">
       <c r="A695" s="7"/>
       <c r="B695" s="8"/>
       <c r="C695" s="9"/>
@@ -16475,7 +16478,7 @@
       <c r="T695" s="5"/>
       <c r="U695" s="5"/>
     </row>
-    <row r="696" spans="1:21">
+    <row r="696" spans="1:21" ht="12.75">
       <c r="A696" s="7"/>
       <c r="B696" s="8"/>
       <c r="C696" s="9"/>
@@ -16498,7 +16501,7 @@
       <c r="T696" s="5"/>
       <c r="U696" s="5"/>
     </row>
-    <row r="697" spans="1:21">
+    <row r="697" spans="1:21" ht="12.75">
       <c r="A697" s="7"/>
       <c r="B697" s="8"/>
       <c r="C697" s="9"/>
@@ -16521,7 +16524,7 @@
       <c r="T697" s="5"/>
       <c r="U697" s="5"/>
     </row>
-    <row r="698" spans="1:21">
+    <row r="698" spans="1:21" ht="12.75">
       <c r="A698" s="7"/>
       <c r="B698" s="8"/>
       <c r="C698" s="9"/>
@@ -16544,7 +16547,7 @@
       <c r="T698" s="5"/>
       <c r="U698" s="5"/>
     </row>
-    <row r="699" spans="1:21">
+    <row r="699" spans="1:21" ht="12.75">
       <c r="A699" s="7"/>
       <c r="B699" s="8"/>
       <c r="C699" s="9"/>
@@ -16567,7 +16570,7 @@
       <c r="T699" s="5"/>
       <c r="U699" s="5"/>
     </row>
-    <row r="700" spans="1:21">
+    <row r="700" spans="1:21" ht="12.75">
       <c r="A700" s="7"/>
       <c r="B700" s="8"/>
       <c r="C700" s="9"/>
@@ -16590,7 +16593,7 @@
       <c r="T700" s="5"/>
       <c r="U700" s="5"/>
     </row>
-    <row r="701" spans="1:21">
+    <row r="701" spans="1:21" ht="12.75">
       <c r="A701" s="7"/>
       <c r="B701" s="8"/>
       <c r="C701" s="9"/>
@@ -16613,7 +16616,7 @@
       <c r="T701" s="5"/>
       <c r="U701" s="5"/>
     </row>
-    <row r="702" spans="1:21">
+    <row r="702" spans="1:21" ht="12.75">
       <c r="A702" s="7"/>
       <c r="B702" s="8"/>
       <c r="C702" s="9"/>
@@ -16636,7 +16639,7 @@
       <c r="T702" s="5"/>
       <c r="U702" s="5"/>
     </row>
-    <row r="703" spans="1:21">
+    <row r="703" spans="1:21" ht="12.75">
       <c r="A703" s="7"/>
       <c r="B703" s="8"/>
       <c r="C703" s="9"/>
@@ -16659,7 +16662,7 @@
       <c r="T703" s="5"/>
       <c r="U703" s="5"/>
     </row>
-    <row r="704" spans="1:21">
+    <row r="704" spans="1:21" ht="12.75">
       <c r="A704" s="7"/>
       <c r="B704" s="8"/>
       <c r="C704" s="9"/>
@@ -16682,7 +16685,7 @@
       <c r="T704" s="5"/>
       <c r="U704" s="5"/>
     </row>
-    <row r="705" spans="1:21">
+    <row r="705" spans="1:21" ht="12.75">
       <c r="A705" s="7"/>
       <c r="B705" s="8"/>
       <c r="C705" s="9"/>
@@ -16705,7 +16708,7 @@
       <c r="T705" s="5"/>
       <c r="U705" s="5"/>
     </row>
-    <row r="706" spans="1:21">
+    <row r="706" spans="1:21" ht="12.75">
       <c r="A706" s="7"/>
       <c r="B706" s="8"/>
       <c r="C706" s="9"/>
@@ -16728,7 +16731,7 @@
       <c r="T706" s="5"/>
       <c r="U706" s="5"/>
     </row>
-    <row r="707" spans="1:21">
+    <row r="707" spans="1:21" ht="12.75">
       <c r="A707" s="7"/>
       <c r="B707" s="8"/>
       <c r="C707" s="9"/>
@@ -16751,7 +16754,7 @@
       <c r="T707" s="5"/>
       <c r="U707" s="5"/>
     </row>
-    <row r="708" spans="1:21">
+    <row r="708" spans="1:21" ht="12.75">
       <c r="A708" s="7"/>
       <c r="B708" s="8"/>
       <c r="C708" s="9"/>
@@ -16774,7 +16777,7 @@
       <c r="T708" s="5"/>
       <c r="U708" s="5"/>
     </row>
-    <row r="709" spans="1:21">
+    <row r="709" spans="1:21" ht="12.75">
       <c r="A709" s="7"/>
       <c r="B709" s="8"/>
       <c r="C709" s="9"/>
@@ -16797,7 +16800,7 @@
       <c r="T709" s="5"/>
       <c r="U709" s="5"/>
     </row>
-    <row r="710" spans="1:21">
+    <row r="710" spans="1:21" ht="12.75">
       <c r="A710" s="7"/>
       <c r="B710" s="8"/>
       <c r="C710" s="9"/>
@@ -16820,7 +16823,7 @@
       <c r="T710" s="5"/>
       <c r="U710" s="5"/>
     </row>
-    <row r="711" spans="1:21">
+    <row r="711" spans="1:21" ht="12.75">
       <c r="A711" s="7"/>
       <c r="B711" s="8"/>
       <c r="C711" s="9"/>
@@ -16843,7 +16846,7 @@
       <c r="T711" s="5"/>
       <c r="U711" s="5"/>
     </row>
-    <row r="712" spans="1:21">
+    <row r="712" spans="1:21" ht="12.75">
       <c r="A712" s="7"/>
       <c r="B712" s="8"/>
       <c r="C712" s="9"/>
@@ -16866,7 +16869,7 @@
       <c r="T712" s="5"/>
       <c r="U712" s="5"/>
     </row>
-    <row r="713" spans="1:21">
+    <row r="713" spans="1:21" ht="12.75">
       <c r="A713" s="7"/>
       <c r="B713" s="8"/>
       <c r="C713" s="9"/>
@@ -16889,7 +16892,7 @@
       <c r="T713" s="5"/>
       <c r="U713" s="5"/>
     </row>
-    <row r="714" spans="1:21">
+    <row r="714" spans="1:21" ht="12.75">
       <c r="A714" s="7"/>
       <c r="B714" s="8"/>
       <c r="C714" s="9"/>
@@ -16912,7 +16915,7 @@
       <c r="T714" s="5"/>
       <c r="U714" s="5"/>
     </row>
-    <row r="715" spans="1:21">
+    <row r="715" spans="1:21" ht="12.75">
       <c r="A715" s="7"/>
       <c r="B715" s="8"/>
       <c r="C715" s="9"/>
@@ -16935,7 +16938,7 @@
       <c r="T715" s="5"/>
       <c r="U715" s="5"/>
     </row>
-    <row r="716" spans="1:21">
+    <row r="716" spans="1:21" ht="12.75">
       <c r="A716" s="7"/>
       <c r="B716" s="8"/>
       <c r="C716" s="9"/>
@@ -16958,7 +16961,7 @@
       <c r="T716" s="5"/>
       <c r="U716" s="5"/>
     </row>
-    <row r="717" spans="1:21">
+    <row r="717" spans="1:21" ht="12.75">
       <c r="A717" s="7"/>
       <c r="B717" s="8"/>
       <c r="C717" s="9"/>
@@ -16981,7 +16984,7 @@
       <c r="T717" s="5"/>
       <c r="U717" s="5"/>
     </row>
-    <row r="718" spans="1:21">
+    <row r="718" spans="1:21" ht="12.75">
       <c r="A718" s="7"/>
       <c r="B718" s="8"/>
       <c r="C718" s="9"/>
@@ -17004,7 +17007,7 @@
       <c r="T718" s="5"/>
       <c r="U718" s="5"/>
     </row>
-    <row r="719" spans="1:21">
+    <row r="719" spans="1:21" ht="12.75">
       <c r="A719" s="7"/>
       <c r="B719" s="8"/>
       <c r="C719" s="9"/>
@@ -17027,7 +17030,7 @@
       <c r="T719" s="5"/>
       <c r="U719" s="5"/>
     </row>
-    <row r="720" spans="1:21">
+    <row r="720" spans="1:21" ht="12.75">
       <c r="A720" s="7"/>
       <c r="B720" s="8"/>
       <c r="C720" s="9"/>
@@ -17050,7 +17053,7 @@
       <c r="T720" s="5"/>
       <c r="U720" s="5"/>
     </row>
-    <row r="721" spans="1:21">
+    <row r="721" spans="1:21" ht="12.75">
       <c r="A721" s="7"/>
       <c r="B721" s="8"/>
       <c r="C721" s="9"/>
@@ -17073,7 +17076,7 @@
       <c r="T721" s="5"/>
       <c r="U721" s="5"/>
     </row>
-    <row r="722" spans="1:21">
+    <row r="722" spans="1:21" ht="12.75">
       <c r="A722" s="7"/>
       <c r="B722" s="8"/>
       <c r="C722" s="9"/>
@@ -17096,7 +17099,7 @@
       <c r="T722" s="5"/>
       <c r="U722" s="5"/>
     </row>
-    <row r="723" spans="1:21">
+    <row r="723" spans="1:21" ht="12.75">
       <c r="A723" s="7"/>
       <c r="B723" s="8"/>
       <c r="C723" s="9"/>
@@ -17119,7 +17122,7 @@
       <c r="T723" s="5"/>
       <c r="U723" s="5"/>
     </row>
-    <row r="724" spans="1:21">
+    <row r="724" spans="1:21" ht="12.75">
       <c r="A724" s="7"/>
       <c r="B724" s="8"/>
       <c r="C724" s="9"/>
@@ -17142,7 +17145,7 @@
       <c r="T724" s="5"/>
       <c r="U724" s="5"/>
     </row>
-    <row r="725" spans="1:21">
+    <row r="725" spans="1:21" ht="12.75">
       <c r="A725" s="7"/>
       <c r="B725" s="8"/>
       <c r="C725" s="9"/>
@@ -17165,7 +17168,7 @@
       <c r="T725" s="5"/>
       <c r="U725" s="5"/>
     </row>
-    <row r="726" spans="1:21">
+    <row r="726" spans="1:21" ht="12.75">
       <c r="A726" s="7"/>
       <c r="B726" s="8"/>
       <c r="C726" s="9"/>
@@ -17188,7 +17191,7 @@
       <c r="T726" s="5"/>
       <c r="U726" s="5"/>
     </row>
-    <row r="727" spans="1:21">
+    <row r="727" spans="1:21" ht="12.75">
       <c r="A727" s="7"/>
       <c r="B727" s="8"/>
       <c r="C727" s="9"/>
@@ -17211,7 +17214,7 @@
       <c r="T727" s="5"/>
       <c r="U727" s="5"/>
     </row>
-    <row r="728" spans="1:21">
+    <row r="728" spans="1:21" ht="12.75">
       <c r="A728" s="7"/>
       <c r="B728" s="8"/>
       <c r="C728" s="9"/>
@@ -17234,7 +17237,7 @@
       <c r="T728" s="5"/>
       <c r="U728" s="5"/>
     </row>
-    <row r="729" spans="1:21">
+    <row r="729" spans="1:21" ht="12.75">
       <c r="A729" s="7"/>
       <c r="B729" s="8"/>
       <c r="C729" s="9"/>
@@ -17257,7 +17260,7 @@
       <c r="T729" s="5"/>
       <c r="U729" s="5"/>
     </row>
-    <row r="730" spans="1:21">
+    <row r="730" spans="1:21" ht="12.75">
       <c r="A730" s="7"/>
       <c r="B730" s="8"/>
       <c r="C730" s="9"/>
@@ -17280,7 +17283,7 @@
       <c r="T730" s="5"/>
       <c r="U730" s="5"/>
     </row>
-    <row r="731" spans="1:21">
+    <row r="731" spans="1:21" ht="12.75">
       <c r="A731" s="7"/>
       <c r="B731" s="8"/>
       <c r="C731" s="9"/>
@@ -17303,7 +17306,7 @@
       <c r="T731" s="5"/>
       <c r="U731" s="5"/>
     </row>
-    <row r="732" spans="1:21">
+    <row r="732" spans="1:21" ht="12.75">
       <c r="A732" s="7"/>
       <c r="B732" s="8"/>
       <c r="C732" s="9"/>
@@ -17326,7 +17329,7 @@
       <c r="T732" s="5"/>
       <c r="U732" s="5"/>
     </row>
-    <row r="733" spans="1:21">
+    <row r="733" spans="1:21" ht="12.75">
       <c r="A733" s="7"/>
       <c r="B733" s="8"/>
       <c r="C733" s="9"/>
@@ -17349,7 +17352,7 @@
       <c r="T733" s="5"/>
       <c r="U733" s="5"/>
     </row>
-    <row r="734" spans="1:21">
+    <row r="734" spans="1:21" ht="12.75">
       <c r="A734" s="7"/>
       <c r="B734" s="8"/>
       <c r="C734" s="9"/>
@@ -17372,7 +17375,7 @@
       <c r="T734" s="5"/>
       <c r="U734" s="5"/>
     </row>
-    <row r="735" spans="1:21">
+    <row r="735" spans="1:21" ht="12.75">
       <c r="A735" s="7"/>
       <c r="B735" s="8"/>
       <c r="C735" s="9"/>
@@ -17395,7 +17398,7 @@
       <c r="T735" s="5"/>
       <c r="U735" s="5"/>
     </row>
-    <row r="736" spans="1:21">
+    <row r="736" spans="1:21" ht="12.75">
       <c r="A736" s="7"/>
       <c r="B736" s="8"/>
       <c r="C736" s="9"/>
@@ -17418,7 +17421,7 @@
       <c r="T736" s="5"/>
       <c r="U736" s="5"/>
     </row>
-    <row r="737" spans="1:21">
+    <row r="737" spans="1:21" ht="12.75">
       <c r="A737" s="7"/>
       <c r="B737" s="8"/>
       <c r="C737" s="9"/>
@@ -17441,7 +17444,7 @@
       <c r="T737" s="5"/>
       <c r="U737" s="5"/>
     </row>
-    <row r="738" spans="1:21">
+    <row r="738" spans="1:21" ht="12.75">
       <c r="A738" s="7"/>
       <c r="B738" s="8"/>
       <c r="C738" s="9"/>
@@ -17464,7 +17467,7 @@
       <c r="T738" s="5"/>
       <c r="U738" s="5"/>
     </row>
-    <row r="739" spans="1:21">
+    <row r="739" spans="1:21" ht="12.75">
       <c r="A739" s="7"/>
       <c r="B739" s="8"/>
       <c r="C739" s="9"/>
@@ -17487,7 +17490,7 @@
       <c r="T739" s="5"/>
       <c r="U739" s="5"/>
     </row>
-    <row r="740" spans="1:21">
+    <row r="740" spans="1:21" ht="12.75">
       <c r="A740" s="7"/>
       <c r="B740" s="8"/>
       <c r="C740" s="9"/>
@@ -17510,7 +17513,7 @@
       <c r="T740" s="5"/>
       <c r="U740" s="5"/>
     </row>
-    <row r="741" spans="1:21">
+    <row r="741" spans="1:21" ht="12.75">
       <c r="A741" s="7"/>
       <c r="B741" s="8"/>
       <c r="C741" s="9"/>
@@ -17533,7 +17536,7 @@
       <c r="T741" s="5"/>
       <c r="U741" s="5"/>
     </row>
-    <row r="742" spans="1:21">
+    <row r="742" spans="1:21" ht="12.75">
       <c r="A742" s="7"/>
       <c r="B742" s="8"/>
       <c r="C742" s="9"/>
@@ -17556,7 +17559,7 @@
       <c r="T742" s="5"/>
       <c r="U742" s="5"/>
     </row>
-    <row r="743" spans="1:21">
+    <row r="743" spans="1:21" ht="12.75">
       <c r="A743" s="7"/>
       <c r="B743" s="8"/>
       <c r="C743" s="9"/>
@@ -17579,7 +17582,7 @@
       <c r="T743" s="5"/>
       <c r="U743" s="5"/>
     </row>
-    <row r="744" spans="1:21">
+    <row r="744" spans="1:21" ht="12.75">
       <c r="A744" s="7"/>
       <c r="B744" s="8"/>
       <c r="C744" s="9"/>
@@ -17602,7 +17605,7 @@
       <c r="T744" s="5"/>
       <c r="U744" s="5"/>
     </row>
-    <row r="745" spans="1:21">
+    <row r="745" spans="1:21" ht="12.75">
       <c r="A745" s="7"/>
       <c r="B745" s="8"/>
       <c r="C745" s="9"/>
@@ -17625,7 +17628,7 @@
       <c r="T745" s="5"/>
       <c r="U745" s="5"/>
     </row>
-    <row r="746" spans="1:21">
+    <row r="746" spans="1:21" ht="12.75">
       <c r="A746" s="7"/>
       <c r="B746" s="8"/>
       <c r="C746" s="9"/>
@@ -17648,7 +17651,7 @@
       <c r="T746" s="5"/>
       <c r="U746" s="5"/>
     </row>
-    <row r="747" spans="1:21">
+    <row r="747" spans="1:21" ht="12.75">
       <c r="A747" s="7"/>
       <c r="B747" s="8"/>
       <c r="C747" s="9"/>
@@ -17671,7 +17674,7 @@
       <c r="T747" s="5"/>
       <c r="U747" s="5"/>
     </row>
-    <row r="748" spans="1:21">
+    <row r="748" spans="1:21" ht="12.75">
       <c r="A748" s="7"/>
       <c r="B748" s="8"/>
       <c r="C748" s="9"/>
@@ -17694,7 +17697,7 @@
       <c r="T748" s="5"/>
       <c r="U748" s="5"/>
     </row>
-    <row r="749" spans="1:21">
+    <row r="749" spans="1:21" ht="12.75">
       <c r="A749" s="7"/>
       <c r="B749" s="8"/>
       <c r="C749" s="9"/>
@@ -17717,7 +17720,7 @@
       <c r="T749" s="5"/>
       <c r="U749" s="5"/>
     </row>
-    <row r="750" spans="1:21">
+    <row r="750" spans="1:21" ht="12.75">
       <c r="A750" s="7"/>
       <c r="B750" s="8"/>
       <c r="C750" s="9"/>
@@ -17740,7 +17743,7 @@
       <c r="T750" s="5"/>
       <c r="U750" s="5"/>
     </row>
-    <row r="751" spans="1:21">
+    <row r="751" spans="1:21" ht="12.75">
       <c r="A751" s="7"/>
       <c r="B751" s="8"/>
       <c r="C751" s="9"/>
@@ -17763,7 +17766,7 @@
       <c r="T751" s="5"/>
       <c r="U751" s="5"/>
     </row>
-    <row r="752" spans="1:21">
+    <row r="752" spans="1:21" ht="12.75">
       <c r="A752" s="7"/>
       <c r="B752" s="8"/>
       <c r="C752" s="9"/>
@@ -17786,7 +17789,7 @@
       <c r="T752" s="5"/>
       <c r="U752" s="5"/>
     </row>
-    <row r="753" spans="1:21">
+    <row r="753" spans="1:21" ht="12.75">
       <c r="A753" s="7"/>
       <c r="B753" s="8"/>
       <c r="C753" s="9"/>
@@ -17809,7 +17812,7 @@
       <c r="T753" s="5"/>
       <c r="U753" s="5"/>
     </row>
-    <row r="754" spans="1:21">
+    <row r="754" spans="1:21" ht="12.75">
       <c r="A754" s="7"/>
       <c r="B754" s="8"/>
       <c r="C754" s="9"/>
@@ -17832,7 +17835,7 @@
       <c r="T754" s="5"/>
       <c r="U754" s="5"/>
     </row>
-    <row r="755" spans="1:21">
+    <row r="755" spans="1:21" ht="12.75">
       <c r="A755" s="7"/>
       <c r="B755" s="8"/>
       <c r="C755" s="9"/>
@@ -17855,7 +17858,7 @@
       <c r="T755" s="5"/>
       <c r="U755" s="5"/>
     </row>
-    <row r="756" spans="1:21">
+    <row r="756" spans="1:21" ht="12.75">
       <c r="A756" s="7"/>
       <c r="B756" s="8"/>
       <c r="C756" s="9"/>
@@ -17878,7 +17881,7 @@
       <c r="T756" s="5"/>
       <c r="U756" s="5"/>
     </row>
-    <row r="757" spans="1:21">
+    <row r="757" spans="1:21" ht="12.75">
       <c r="A757" s="7"/>
       <c r="B757" s="8"/>
       <c r="C757" s="9"/>
@@ -17901,7 +17904,7 @@
       <c r="T757" s="5"/>
       <c r="U757" s="5"/>
     </row>
-    <row r="758" spans="1:21">
+    <row r="758" spans="1:21" ht="12.75">
       <c r="A758" s="7"/>
       <c r="B758" s="8"/>
       <c r="C758" s="9"/>
@@ -17924,7 +17927,7 @@
       <c r="T758" s="5"/>
       <c r="U758" s="5"/>
     </row>
-    <row r="759" spans="1:21">
+    <row r="759" spans="1:21" ht="12.75">
       <c r="A759" s="7"/>
       <c r="B759" s="8"/>
       <c r="C759" s="9"/>
@@ -17947,7 +17950,7 @@
       <c r="T759" s="5"/>
       <c r="U759" s="5"/>
     </row>
-    <row r="760" spans="1:21">
+    <row r="760" spans="1:21" ht="12.75">
       <c r="A760" s="7"/>
       <c r="B760" s="8"/>
       <c r="C760" s="9"/>
@@ -17970,7 +17973,7 @@
       <c r="T760" s="5"/>
       <c r="U760" s="5"/>
     </row>
-    <row r="761" spans="1:21">
+    <row r="761" spans="1:21" ht="12.75">
       <c r="A761" s="7"/>
       <c r="B761" s="8"/>
       <c r="C761" s="9"/>
@@ -17993,7 +17996,7 @@
       <c r="T761" s="5"/>
       <c r="U761" s="5"/>
     </row>
-    <row r="762" spans="1:21">
+    <row r="762" spans="1:21" ht="12.75">
       <c r="A762" s="7"/>
       <c r="B762" s="8"/>
       <c r="C762" s="9"/>
@@ -18016,7 +18019,7 @@
       <c r="T762" s="5"/>
       <c r="U762" s="5"/>
     </row>
-    <row r="763" spans="1:21">
+    <row r="763" spans="1:21" ht="12.75">
       <c r="A763" s="7"/>
       <c r="B763" s="8"/>
       <c r="C763" s="9"/>
@@ -18039,7 +18042,7 @@
       <c r="T763" s="5"/>
       <c r="U763" s="5"/>
     </row>
-    <row r="764" spans="1:21">
+    <row r="764" spans="1:21" ht="12.75">
       <c r="A764" s="7"/>
       <c r="B764" s="8"/>
       <c r="C764" s="9"/>
@@ -18062,7 +18065,7 @@
       <c r="T764" s="5"/>
       <c r="U764" s="5"/>
     </row>
-    <row r="765" spans="1:21">
+    <row r="765" spans="1:21" ht="12.75">
       <c r="A765" s="7"/>
       <c r="B765" s="8"/>
       <c r="C765" s="9"/>
@@ -18085,7 +18088,7 @@
       <c r="T765" s="5"/>
       <c r="U765" s="5"/>
     </row>
-    <row r="766" spans="1:21">
+    <row r="766" spans="1:21" ht="12.75">
       <c r="A766" s="7"/>
       <c r="B766" s="8"/>
       <c r="C766" s="9"/>
@@ -18108,7 +18111,7 @@
       <c r="T766" s="5"/>
       <c r="U766" s="5"/>
     </row>
-    <row r="767" spans="1:21">
+    <row r="767" spans="1:21" ht="12.75">
       <c r="A767" s="7"/>
       <c r="B767" s="8"/>
       <c r="C767" s="9"/>
@@ -18131,7 +18134,7 @@
       <c r="T767" s="5"/>
       <c r="U767" s="5"/>
     </row>
-    <row r="768" spans="1:21">
+    <row r="768" spans="1:21" ht="12.75">
       <c r="A768" s="7"/>
       <c r="B768" s="8"/>
       <c r="C768" s="9"/>
@@ -18154,7 +18157,7 @@
       <c r="T768" s="5"/>
       <c r="U768" s="5"/>
     </row>
-    <row r="769" spans="1:21">
+    <row r="769" spans="1:21" ht="12.75">
       <c r="A769" s="7"/>
       <c r="B769" s="8"/>
       <c r="C769" s="9"/>
@@ -18177,7 +18180,7 @@
       <c r="T769" s="5"/>
       <c r="U769" s="5"/>
     </row>
-    <row r="770" spans="1:21">
+    <row r="770" spans="1:21" ht="12.75">
       <c r="A770" s="7"/>
       <c r="B770" s="8"/>
       <c r="C770" s="9"/>
@@ -18200,7 +18203,7 @@
       <c r="T770" s="5"/>
       <c r="U770" s="5"/>
     </row>
-    <row r="771" spans="1:21">
+    <row r="771" spans="1:21" ht="12.75">
       <c r="A771" s="7"/>
       <c r="B771" s="8"/>
       <c r="C771" s="9"/>
@@ -18223,7 +18226,7 @@
       <c r="T771" s="5"/>
       <c r="U771" s="5"/>
     </row>
-    <row r="772" spans="1:21">
+    <row r="772" spans="1:21" ht="12.75">
       <c r="A772" s="7"/>
       <c r="B772" s="8"/>
       <c r="C772" s="9"/>
@@ -18246,7 +18249,7 @@
       <c r="T772" s="5"/>
       <c r="U772" s="5"/>
     </row>
-    <row r="773" spans="1:21">
+    <row r="773" spans="1:21" ht="12.75">
       <c r="A773" s="7"/>
       <c r="B773" s="8"/>
       <c r="C773" s="9"/>
@@ -18269,7 +18272,7 @@
       <c r="T773" s="5"/>
       <c r="U773" s="5"/>
     </row>
-    <row r="774" spans="1:21">
+    <row r="774" spans="1:21" ht="12.75">
       <c r="A774" s="7"/>
       <c r="B774" s="8"/>
       <c r="C774" s="9"/>
@@ -18292,7 +18295,7 @@
       <c r="T774" s="5"/>
       <c r="U774" s="5"/>
     </row>
-    <row r="775" spans="1:21">
+    <row r="775" spans="1:21" ht="12.75">
       <c r="A775" s="7"/>
       <c r="B775" s="8"/>
       <c r="C775" s="9"/>
@@ -18315,7 +18318,7 @@
       <c r="T775" s="5"/>
       <c r="U775" s="5"/>
     </row>
-    <row r="776" spans="1:21">
+    <row r="776" spans="1:21" ht="12.75">
       <c r="A776" s="7"/>
       <c r="B776" s="8"/>
       <c r="C776" s="9"/>
@@ -18338,7 +18341,7 @@
       <c r="T776" s="5"/>
       <c r="U776" s="5"/>
     </row>
-    <row r="777" spans="1:21">
+    <row r="777" spans="1:21" ht="12.75">
       <c r="A777" s="7"/>
       <c r="B777" s="8"/>
       <c r="C777" s="9"/>
@@ -18361,7 +18364,7 @@
       <c r="T777" s="5"/>
       <c r="U777" s="5"/>
     </row>
-    <row r="778" spans="1:21">
+    <row r="778" spans="1:21" ht="12.75">
       <c r="A778" s="7"/>
       <c r="B778" s="8"/>
       <c r="C778" s="9"/>
@@ -18384,7 +18387,7 @@
       <c r="T778" s="5"/>
       <c r="U778" s="5"/>
     </row>
-    <row r="779" spans="1:21">
+    <row r="779" spans="1:21" ht="12.75">
       <c r="A779" s="7"/>
       <c r="B779" s="8"/>
       <c r="C779" s="9"/>
@@ -18407,7 +18410,7 @@
       <c r="T779" s="5"/>
       <c r="U779" s="5"/>
     </row>
-    <row r="780" spans="1:21">
+    <row r="780" spans="1:21" ht="12.75">
       <c r="A780" s="7"/>
       <c r="B780" s="8"/>
       <c r="C780" s="9"/>
@@ -18430,7 +18433,7 @@
       <c r="T780" s="5"/>
       <c r="U780" s="5"/>
     </row>
-    <row r="781" spans="1:21">
+    <row r="781" spans="1:21" ht="12.75">
       <c r="A781" s="7"/>
       <c r="B781" s="8"/>
       <c r="C781" s="9"/>
@@ -18453,7 +18456,7 @@
       <c r="T781" s="5"/>
       <c r="U781" s="5"/>
     </row>
-    <row r="782" spans="1:21">
+    <row r="782" spans="1:21" ht="12.75">
       <c r="A782" s="7"/>
       <c r="B782" s="8"/>
       <c r="C782" s="9"/>
@@ -18476,7 +18479,7 @@
       <c r="T782" s="5"/>
       <c r="U782" s="5"/>
     </row>
-    <row r="783" spans="1:21">
+    <row r="783" spans="1:21" ht="12.75">
       <c r="A783" s="7"/>
       <c r="B783" s="8"/>
       <c r="C783" s="9"/>
@@ -18499,7 +18502,7 @@
       <c r="T783" s="5"/>
       <c r="U783" s="5"/>
     </row>
-    <row r="784" spans="1:21">
+    <row r="784" spans="1:21" ht="12.75">
       <c r="A784" s="7"/>
       <c r="B784" s="8"/>
       <c r="C784" s="9"/>
@@ -18522,7 +18525,7 @@
       <c r="T784" s="5"/>
       <c r="U784" s="5"/>
     </row>
-    <row r="785" spans="1:21">
+    <row r="785" spans="1:21" ht="12.75">
       <c r="A785" s="7"/>
       <c r="B785" s="8"/>
       <c r="C785" s="9"/>
@@ -18545,7 +18548,7 @@
       <c r="T785" s="5"/>
       <c r="U785" s="5"/>
     </row>
-    <row r="786" spans="1:21">
+    <row r="786" spans="1:21" ht="12.75">
       <c r="A786" s="7"/>
       <c r="B786" s="8"/>
       <c r="C786" s="9"/>
@@ -18568,7 +18571,7 @@
       <c r="T786" s="5"/>
       <c r="U786" s="5"/>
     </row>
-    <row r="787" spans="1:21">
+    <row r="787" spans="1:21" ht="12.75">
       <c r="A787" s="7"/>
       <c r="B787" s="8"/>
       <c r="C787" s="9"/>
@@ -18591,7 +18594,7 @@
       <c r="T787" s="5"/>
       <c r="U787" s="5"/>
     </row>
-    <row r="788" spans="1:21">
+    <row r="788" spans="1:21" ht="12.75">
       <c r="A788" s="7"/>
       <c r="B788" s="8"/>
       <c r="C788" s="9"/>
@@ -18614,7 +18617,7 @@
       <c r="T788" s="5"/>
       <c r="U788" s="5"/>
     </row>
-    <row r="789" spans="1:21">
+    <row r="789" spans="1:21" ht="12.75">
       <c r="A789" s="7"/>
       <c r="B789" s="8"/>
       <c r="C789" s="9"/>
@@ -18637,7 +18640,7 @@
       <c r="T789" s="5"/>
       <c r="U789" s="5"/>
     </row>
-    <row r="790" spans="1:21">
+    <row r="790" spans="1:21" ht="12.75">
       <c r="A790" s="7"/>
       <c r="B790" s="8"/>
       <c r="C790" s="9"/>
@@ -18660,7 +18663,7 @@
       <c r="T790" s="5"/>
       <c r="U790" s="5"/>
     </row>
-    <row r="791" spans="1:21">
+    <row r="791" spans="1:21" ht="12.75">
       <c r="A791" s="7"/>
       <c r="B791" s="8"/>
       <c r="C791" s="9"/>
@@ -18683,7 +18686,7 @@
       <c r="T791" s="5"/>
       <c r="U791" s="5"/>
     </row>
-    <row r="792" spans="1:21">
+    <row r="792" spans="1:21" ht="12.75">
       <c r="A792" s="7"/>
       <c r="B792" s="8"/>
       <c r="C792" s="9"/>
@@ -18706,7 +18709,7 @@
       <c r="T792" s="5"/>
       <c r="U792" s="5"/>
     </row>
-    <row r="793" spans="1:21">
+    <row r="793" spans="1:21" ht="12.75">
       <c r="A793" s="7"/>
       <c r="B793" s="8"/>
       <c r="C793" s="9"/>
@@ -18729,7 +18732,7 @@
       <c r="T793" s="5"/>
       <c r="U793" s="5"/>
     </row>
-    <row r="794" spans="1:21">
+    <row r="794" spans="1:21" ht="12.75">
       <c r="A794" s="7"/>
       <c r="B794" s="8"/>
       <c r="C794" s="9"/>
@@ -18752,7 +18755,7 @@
       <c r="T794" s="5"/>
       <c r="U794" s="5"/>
     </row>
-    <row r="795" spans="1:21">
+    <row r="795" spans="1:21" ht="12.75">
       <c r="A795" s="7"/>
       <c r="B795" s="8"/>
       <c r="C795" s="9"/>
@@ -18775,7 +18778,7 @@
       <c r="T795" s="5"/>
       <c r="U795" s="5"/>
     </row>
-    <row r="796" spans="1:21">
+    <row r="796" spans="1:21" ht="12.75">
       <c r="A796" s="7"/>
       <c r="B796" s="8"/>
       <c r="C796" s="9"/>
@@ -18798,7 +18801,7 @@
       <c r="T796" s="5"/>
       <c r="U796" s="5"/>
     </row>
-    <row r="797" spans="1:21">
+    <row r="797" spans="1:21" ht="12.75">
       <c r="A797" s="7"/>
       <c r="B797" s="8"/>
       <c r="C797" s="9"/>
@@ -18821,7 +18824,7 @@
       <c r="T797" s="5"/>
       <c r="U797" s="5"/>
     </row>
-    <row r="798" spans="1:21">
+    <row r="798" spans="1:21" ht="12.75">
       <c r="A798" s="7"/>
       <c r="B798" s="8"/>
       <c r="C798" s="9"/>
@@ -18844,7 +18847,7 @@
       <c r="T798" s="5"/>
       <c r="U798" s="5"/>
     </row>
-    <row r="799" spans="1:21">
+    <row r="799" spans="1:21" ht="12.75">
       <c r="A799" s="7"/>
       <c r="B799" s="8"/>
       <c r="C799" s="9"/>
@@ -18867,7 +18870,7 @@
       <c r="T799" s="5"/>
       <c r="U799" s="5"/>
     </row>
-    <row r="800" spans="1:21">
+    <row r="800" spans="1:21" ht="12.75">
       <c r="A800" s="7"/>
       <c r="B800" s="8"/>
       <c r="C800" s="9"/>
@@ -18890,7 +18893,7 @@
       <c r="T800" s="5"/>
       <c r="U800" s="5"/>
     </row>
-    <row r="801" spans="1:21">
+    <row r="801" spans="1:21" ht="12.75">
       <c r="A801" s="7"/>
       <c r="B801" s="8"/>
       <c r="C801" s="9"/>
@@ -18913,7 +18916,7 @@
       <c r="T801" s="5"/>
       <c r="U801" s="5"/>
     </row>
-    <row r="802" spans="1:21">
+    <row r="802" spans="1:21" ht="12.75">
       <c r="A802" s="7"/>
       <c r="B802" s="8"/>
       <c r="C802" s="9"/>
@@ -18936,7 +18939,7 @@
       <c r="T802" s="5"/>
       <c r="U802" s="5"/>
     </row>
-    <row r="803" spans="1:21">
+    <row r="803" spans="1:21" ht="12.75">
       <c r="A803" s="7"/>
       <c r="B803" s="8"/>
       <c r="C803" s="9"/>
@@ -18959,7 +18962,7 @@
       <c r="T803" s="5"/>
       <c r="U803" s="5"/>
     </row>
-    <row r="804" spans="1:21">
+    <row r="804" spans="1:21" ht="12.75">
       <c r="A804" s="7"/>
       <c r="B804" s="8"/>
       <c r="C804" s="9"/>
@@ -18982,7 +18985,7 @@
       <c r="T804" s="5"/>
       <c r="U804" s="5"/>
     </row>
-    <row r="805" spans="1:21">
+    <row r="805" spans="1:21" ht="12.75">
       <c r="A805" s="7"/>
       <c r="B805" s="8"/>
       <c r="C805" s="9"/>
@@ -19005,7 +19008,7 @@
       <c r="T805" s="5"/>
       <c r="U805" s="5"/>
     </row>
-    <row r="806" spans="1:21">
+    <row r="806" spans="1:21" ht="12.75">
       <c r="A806" s="7"/>
       <c r="B806" s="8"/>
       <c r="C806" s="9"/>
@@ -19028,7 +19031,7 @@
       <c r="T806" s="5"/>
       <c r="U806" s="5"/>
     </row>
-    <row r="807" spans="1:21">
+    <row r="807" spans="1:21" ht="12.75">
       <c r="A807" s="7"/>
       <c r="B807" s="8"/>
       <c r="C807" s="9"/>
@@ -19051,7 +19054,7 @@
       <c r="T807" s="5"/>
       <c r="U807" s="5"/>
     </row>
-    <row r="808" spans="1:21">
+    <row r="808" spans="1:21" ht="12.75">
       <c r="A808" s="7"/>
       <c r="B808" s="8"/>
       <c r="C808" s="9"/>
@@ -19074,7 +19077,7 @@
       <c r="T808" s="5"/>
       <c r="U808" s="5"/>
     </row>
-    <row r="809" spans="1:21">
+    <row r="809" spans="1:21" ht="12.75">
       <c r="A809" s="7"/>
       <c r="B809" s="8"/>
       <c r="C809" s="9"/>
@@ -19097,7 +19100,7 @@
       <c r="T809" s="5"/>
       <c r="U809" s="5"/>
     </row>
-    <row r="810" spans="1:21">
+    <row r="810" spans="1:21" ht="12.75">
       <c r="A810" s="7"/>
       <c r="B810" s="8"/>
       <c r="C810" s="9"/>
@@ -19120,7 +19123,7 @@
       <c r="T810" s="5"/>
       <c r="U810" s="5"/>
     </row>
-    <row r="811" spans="1:21">
+    <row r="811" spans="1:21" ht="12.75">
       <c r="A811" s="7"/>
       <c r="B811" s="8"/>
       <c r="C811" s="9"/>
@@ -19143,7 +19146,7 @@
       <c r="T811" s="5"/>
       <c r="U811" s="5"/>
     </row>
-    <row r="812" spans="1:21">
+    <row r="812" spans="1:21" ht="12.75">
       <c r="A812" s="7"/>
       <c r="B812" s="8"/>
       <c r="C812" s="9"/>
@@ -19166,7 +19169,7 @@
       <c r="T812" s="5"/>
       <c r="U812" s="5"/>
     </row>
-    <row r="813" spans="1:21">
+    <row r="813" spans="1:21" ht="12.75">
       <c r="A813" s="7"/>
       <c r="B813" s="8"/>
       <c r="C813" s="9"/>
@@ -19189,7 +19192,7 @@
       <c r="T813" s="5"/>
       <c r="U813" s="5"/>
     </row>
-    <row r="814" spans="1:21">
+    <row r="814" spans="1:21" ht="12.75">
       <c r="A814" s="7"/>
       <c r="B814" s="8"/>
       <c r="C814" s="9"/>
@@ -19212,7 +19215,7 @@
       <c r="T814" s="5"/>
       <c r="U814" s="5"/>
     </row>
-    <row r="815" spans="1:21">
+    <row r="815" spans="1:21" ht="12.75">
       <c r="A815" s="7"/>
       <c r="B815" s="8"/>
       <c r="C815" s="9"/>
@@ -19235,7 +19238,7 @@
       <c r="T815" s="5"/>
       <c r="U815" s="5"/>
     </row>
-    <row r="816" spans="1:21">
+    <row r="816" spans="1:21" ht="12.75">
       <c r="A816" s="7"/>
       <c r="B816" s="8"/>
       <c r="C816" s="9"/>
@@ -19258,7 +19261,7 @@
       <c r="T816" s="5"/>
       <c r="U816" s="5"/>
     </row>
-    <row r="817" spans="1:21">
+    <row r="817" spans="1:21" ht="12.75">
       <c r="A817" s="7"/>
       <c r="B817" s="8"/>
       <c r="C817" s="9"/>
@@ -19281,7 +19284,7 @@
       <c r="T817" s="5"/>
       <c r="U817" s="5"/>
     </row>
-    <row r="818" spans="1:21">
+    <row r="818" spans="1:21" ht="12.75">
       <c r="A818" s="7"/>
       <c r="B818" s="8"/>
       <c r="C818" s="9"/>
@@ -19304,7 +19307,7 @@
       <c r="T818" s="5"/>
       <c r="U818" s="5"/>
     </row>
-    <row r="819" spans="1:21">
+    <row r="819" spans="1:21" ht="12.75">
       <c r="A819" s="7"/>
       <c r="B819" s="8"/>
       <c r="C819" s="9"/>
@@ -19327,7 +19330,7 @@
       <c r="T819" s="5"/>
       <c r="U819" s="5"/>
     </row>
-    <row r="820" spans="1:21">
+    <row r="820" spans="1:21" ht="12.75">
       <c r="A820" s="7"/>
       <c r="B820" s="8"/>
       <c r="C820" s="9"/>
@@ -19350,7 +19353,7 @@
       <c r="T820" s="5"/>
       <c r="U820" s="5"/>
     </row>
-    <row r="821" spans="1:21">
+    <row r="821" spans="1:21" ht="12.75">
       <c r="A821" s="7"/>
       <c r="B821" s="8"/>
       <c r="C821" s="9"/>
@@ -19373,7 +19376,7 @@
       <c r="T821" s="5"/>
       <c r="U821" s="5"/>
     </row>
-    <row r="822" spans="1:21">
+    <row r="822" spans="1:21" ht="12.75">
       <c r="A822" s="7"/>
       <c r="B822" s="8"/>
       <c r="C822" s="9"/>
@@ -19396,7 +19399,7 @@
       <c r="T822" s="5"/>
       <c r="U822" s="5"/>
     </row>
-    <row r="823" spans="1:21">
+    <row r="823" spans="1:21" ht="12.75">
       <c r="A823" s="7"/>
       <c r="B823" s="8"/>
       <c r="C823" s="9"/>
@@ -19419,7 +19422,7 @@
       <c r="T823" s="5"/>
       <c r="U823" s="5"/>
     </row>
-    <row r="824" spans="1:21">
+    <row r="824" spans="1:21" ht="12.75">
       <c r="A824" s="7"/>
       <c r="B824" s="8"/>
       <c r="C824" s="9"/>
@@ -19442,7 +19445,7 @@
       <c r="T824" s="5"/>
       <c r="U824" s="5"/>
     </row>
-    <row r="825" spans="1:21">
+    <row r="825" spans="1:21" ht="12.75">
       <c r="A825" s="7"/>
       <c r="B825" s="8"/>
       <c r="C825" s="9"/>
@@ -19465,7 +19468,7 @@
       <c r="T825" s="5"/>
       <c r="U825" s="5"/>
     </row>
-    <row r="826" spans="1:21">
+    <row r="826" spans="1:21" ht="12.75">
       <c r="A826" s="7"/>
       <c r="B826" s="8"/>
       <c r="C826" s="9"/>
@@ -19488,7 +19491,7 @@
       <c r="T826" s="5"/>
       <c r="U826" s="5"/>
     </row>
-    <row r="827" spans="1:21">
+    <row r="827" spans="1:21" ht="12.75">
       <c r="A827" s="7"/>
       <c r="B827" s="8"/>
       <c r="C827" s="9"/>
@@ -19511,7 +19514,7 @@
       <c r="T827" s="5"/>
       <c r="U827" s="5"/>
     </row>
-    <row r="828" spans="1:21">
+    <row r="828" spans="1:21" ht="12.75">
       <c r="A828" s="7"/>
       <c r="B828" s="8"/>
       <c r="C828" s="9"/>
@@ -19534,7 +19537,7 @@
       <c r="T828" s="5"/>
       <c r="U828" s="5"/>
     </row>
-    <row r="829" spans="1:21">
+    <row r="829" spans="1:21" ht="12.75">
       <c r="A829" s="7"/>
       <c r="B829" s="8"/>
       <c r="C829" s="9"/>
@@ -19557,7 +19560,7 @@
       <c r="T829" s="5"/>
       <c r="U829" s="5"/>
     </row>
-    <row r="830" spans="1:21">
+    <row r="830" spans="1:21" ht="12.75">
       <c r="A830" s="7"/>
       <c r="B830" s="8"/>
       <c r="C830" s="9"/>
@@ -19580,7 +19583,7 @@
       <c r="T830" s="5"/>
       <c r="U830" s="5"/>
     </row>
-    <row r="831" spans="1:21">
+    <row r="831" spans="1:21" ht="12.75">
       <c r="A831" s="7"/>
       <c r="B831" s="8"/>
       <c r="C831" s="9"/>
@@ -19603,7 +19606,7 @@
       <c r="T831" s="5"/>
       <c r="U831" s="5"/>
     </row>
-    <row r="832" spans="1:21">
+    <row r="832" spans="1:21" ht="12.75">
       <c r="A832" s="7"/>
       <c r="B832" s="8"/>
       <c r="C832" s="9"/>
@@ -19626,7 +19629,7 @@
       <c r="T832" s="5"/>
       <c r="U832" s="5"/>
     </row>
-    <row r="833" spans="1:21">
+    <row r="833" spans="1:21" ht="12.75">
       <c r="A833" s="7"/>
       <c r="B833" s="8"/>
       <c r="C833" s="9"/>
@@ -19649,7 +19652,7 @@
       <c r="T833" s="5"/>
       <c r="U833" s="5"/>
     </row>
-    <row r="834" spans="1:21">
+    <row r="834" spans="1:21" ht="12.75">
       <c r="A834" s="7"/>
       <c r="B834" s="8"/>
       <c r="C834" s="9"/>
@@ -19672,7 +19675,7 @@
       <c r="T834" s="5"/>
       <c r="U834" s="5"/>
     </row>
-    <row r="835" spans="1:21">
+    <row r="835" spans="1:21" ht="12.75">
       <c r="A835" s="7"/>
       <c r="B835" s="8"/>
       <c r="C835" s="9"/>
@@ -19695,7 +19698,7 @@
       <c r="T835" s="5"/>
       <c r="U835" s="5"/>
     </row>
-    <row r="836" spans="1:21">
+    <row r="836" spans="1:21" ht="12.75">
       <c r="A836" s="7"/>
       <c r="B836" s="8"/>
       <c r="C836" s="9"/>
@@ -19718,7 +19721,7 @@
       <c r="T836" s="5"/>
       <c r="U836" s="5"/>
     </row>
-    <row r="837" spans="1:21">
+    <row r="837" spans="1:21" ht="12.75">
       <c r="A837" s="7"/>
       <c r="B837" s="8"/>
       <c r="C837" s="9"/>
@@ -19741,7 +19744,7 @@
       <c r="T837" s="5"/>
       <c r="U837" s="5"/>
     </row>
-    <row r="838" spans="1:21">
+    <row r="838" spans="1:21" ht="12.75">
       <c r="A838" s="7"/>
       <c r="B838" s="8"/>
       <c r="C838" s="9"/>
@@ -19764,7 +19767,7 @@
       <c r="T838" s="5"/>
       <c r="U838" s="5"/>
     </row>
-    <row r="839" spans="1:21">
+    <row r="839" spans="1:21" ht="12.75">
       <c r="A839" s="7"/>
       <c r="B839" s="8"/>
       <c r="C839" s="9"/>
@@ -19787,7 +19790,7 @@
       <c r="T839" s="5"/>
       <c r="U839" s="5"/>
     </row>
-    <row r="840" spans="1:21">
+    <row r="840" spans="1:21" ht="12.75">
       <c r="A840" s="7"/>
       <c r="B840" s="8"/>
       <c r="C840" s="9"/>
@@ -19810,7 +19813,7 @@
       <c r="T840" s="5"/>
       <c r="U840" s="5"/>
     </row>
-    <row r="841" spans="1:21">
+    <row r="841" spans="1:21" ht="12.75">
       <c r="A841" s="7"/>
       <c r="B841" s="8"/>
       <c r="C841" s="9"/>
@@ -19833,7 +19836,7 @@
       <c r="T841" s="5"/>
       <c r="U841" s="5"/>
     </row>
-    <row r="842" spans="1:21">
+    <row r="842" spans="1:21" ht="12.75">
       <c r="A842" s="7"/>
       <c r="B842" s="8"/>
       <c r="C842" s="9"/>
@@ -19856,7 +19859,7 @@
       <c r="T842" s="5"/>
       <c r="U842" s="5"/>
     </row>
-    <row r="843" spans="1:21">
+    <row r="843" spans="1:21" ht="12.75">
       <c r="A843" s="7"/>
       <c r="B843" s="8"/>
       <c r="C843" s="9"/>
@@ -19879,7 +19882,7 @@
       <c r="T843" s="5"/>
       <c r="U843" s="5"/>
     </row>
-    <row r="844" spans="1:21">
+    <row r="844" spans="1:21" ht="12.75">
       <c r="A844" s="7"/>
       <c r="B844" s="8"/>
       <c r="C844" s="9"/>
@@ -19902,7 +19905,7 @@
       <c r="T844" s="5"/>
       <c r="U844" s="5"/>
     </row>
-    <row r="845" spans="1:21">
+    <row r="845" spans="1:21" ht="12.75">
       <c r="A845" s="7"/>
       <c r="B845" s="8"/>
       <c r="C845" s="9"/>
@@ -19925,7 +19928,7 @@
       <c r="T845" s="5"/>
       <c r="U845" s="5"/>
     </row>
-    <row r="846" spans="1:21">
+    <row r="846" spans="1:21" ht="12.75">
       <c r="A846" s="7"/>
       <c r="B846" s="8"/>
       <c r="C846" s="9"/>
@@ -19948,7 +19951,7 @@
       <c r="T846" s="5"/>
       <c r="U846" s="5"/>
     </row>
-    <row r="847" spans="1:21">
+    <row r="847" spans="1:21" ht="12.75">
       <c r="A847" s="7"/>
       <c r="B847" s="8"/>
       <c r="C847" s="9"/>
@@ -19971,7 +19974,7 @@
       <c r="T847" s="5"/>
       <c r="U847" s="5"/>
     </row>
-    <row r="848" spans="1:21">
+    <row r="848" spans="1:21" ht="12.75">
       <c r="A848" s="7"/>
       <c r="B848" s="8"/>
       <c r="C848" s="9"/>
@@ -19994,7 +19997,7 @@
       <c r="T848" s="5"/>
       <c r="U848" s="5"/>
     </row>
-    <row r="849" spans="1:21">
+    <row r="849" spans="1:21" ht="12.75">
       <c r="A849" s="7"/>
       <c r="B849" s="8"/>
       <c r="C849" s="9"/>
@@ -20017,7 +20020,7 @@
       <c r="T849" s="5"/>
       <c r="U849" s="5"/>
     </row>
-    <row r="850" spans="1:21">
+    <row r="850" spans="1:21" ht="12.75">
       <c r="A850" s="7"/>
       <c r="B850" s="8"/>
       <c r="C850" s="9"/>
@@ -20040,7 +20043,7 @@
       <c r="T850" s="5"/>
       <c r="U850" s="5"/>
     </row>
-    <row r="851" spans="1:21">
+    <row r="851" spans="1:21" ht="12.75">
       <c r="A851" s="7"/>
       <c r="B851" s="8"/>
       <c r="C851" s="9"/>
@@ -20063,7 +20066,7 @@
       <c r="T851" s="5"/>
       <c r="U851" s="5"/>
     </row>
-    <row r="852" spans="1:21">
+    <row r="852" spans="1:21" ht="12.75">
       <c r="A852" s="7"/>
       <c r="B852" s="8"/>
       <c r="C852" s="9"/>
@@ -20086,7 +20089,7 @@
       <c r="T852" s="5"/>
       <c r="U852" s="5"/>
     </row>
-    <row r="853" spans="1:21">
+    <row r="853" spans="1:21" ht="12.75">
       <c r="A853" s="7"/>
       <c r="B853" s="8"/>
       <c r="C853" s="9"/>
@@ -20109,7 +20112,7 @@
       <c r="T853" s="5"/>
       <c r="U853" s="5"/>
     </row>
-    <row r="854" spans="1:21">
+    <row r="854" spans="1:21" ht="12.75">
       <c r="A854" s="7"/>
       <c r="B854" s="8"/>
       <c r="C854" s="9"/>
@@ -20132,7 +20135,7 @@
       <c r="T854" s="5"/>
       <c r="U854" s="5"/>
     </row>
-    <row r="855" spans="1:21">
+    <row r="855" spans="1:21" ht="12.75">
       <c r="A855" s="7"/>
       <c r="B855" s="8"/>
       <c r="C855" s="9"/>
@@ -20155,7 +20158,7 @@
       <c r="T855" s="5"/>
       <c r="U855" s="5"/>
     </row>
-    <row r="856" spans="1:21">
+    <row r="856" spans="1:21" ht="12.75">
       <c r="A856" s="7"/>
       <c r="B856" s="8"/>
       <c r="C856" s="9"/>
@@ -20178,7 +20181,7 @@
       <c r="T856" s="5"/>
       <c r="U856" s="5"/>
     </row>
-    <row r="857" spans="1:21">
+    <row r="857" spans="1:21" ht="12.75">
       <c r="A857" s="7"/>
       <c r="B857" s="8"/>
       <c r="C857" s="9"/>
@@ -20201,7 +20204,7 @@
       <c r="T857" s="5"/>
       <c r="U857" s="5"/>
     </row>
-    <row r="858" spans="1:21">
+    <row r="858" spans="1:21" ht="12.75">
       <c r="A858" s="7"/>
       <c r="B858" s="8"/>
       <c r="C858" s="9"/>
@@ -20224,7 +20227,7 @@
       <c r="T858" s="5"/>
       <c r="U858" s="5"/>
     </row>
-    <row r="859" spans="1:21">
+    <row r="859" spans="1:21" ht="12.75">
       <c r="A859" s="7"/>
       <c r="B859" s="8"/>
       <c r="C859" s="9"/>
@@ -20247,7 +20250,7 @@
       <c r="T859" s="5"/>
       <c r="U859" s="5"/>
     </row>
-    <row r="860" spans="1:21">
+    <row r="860" spans="1:21" ht="12.75">
       <c r="A860" s="7"/>
       <c r="B860" s="8"/>
       <c r="C860" s="9"/>
@@ -20270,7 +20273,7 @@
       <c r="T860" s="5"/>
       <c r="U860" s="5"/>
     </row>
-    <row r="861" spans="1:21">
+    <row r="861" spans="1:21" ht="12.75">
       <c r="A861" s="7"/>
       <c r="B861" s="8"/>
       <c r="C861" s="9"/>
@@ -20293,7 +20296,7 @@
       <c r="T861" s="5"/>
       <c r="U861" s="5"/>
     </row>
-    <row r="862" spans="1:21">
+    <row r="862" spans="1:21" ht="12.75">
       <c r="A862" s="7"/>
       <c r="B862" s="8"/>
       <c r="C862" s="9"/>
@@ -20316,7 +20319,7 @@
       <c r="T862" s="5"/>
       <c r="U862" s="5"/>
     </row>
-    <row r="863" spans="1:21">
+    <row r="863" spans="1:21" ht="12.75">
       <c r="A863" s="7"/>
       <c r="B863" s="8"/>
       <c r="C863" s="9"/>
@@ -20339,7 +20342,7 @@
       <c r="T863" s="5"/>
       <c r="U863" s="5"/>
     </row>
-    <row r="864" spans="1:21">
+    <row r="864" spans="1:21" ht="12.75">
       <c r="A864" s="7"/>
       <c r="B864" s="8"/>
       <c r="C864" s="9"/>
@@ -20362,7 +20365,7 @@
       <c r="T864" s="5"/>
       <c r="U864" s="5"/>
     </row>
-    <row r="865" spans="1:21">
+    <row r="865" spans="1:21" ht="12.75">
       <c r="A865" s="7"/>
       <c r="B865" s="8"/>
       <c r="C865" s="9"/>
@@ -20385,7 +20388,7 @@
       <c r="T865" s="5"/>
       <c r="U865" s="5"/>
     </row>
-    <row r="866" spans="1:21">
+    <row r="866" spans="1:21" ht="12.75">
       <c r="A866" s="7"/>
       <c r="B866" s="8"/>
       <c r="C866" s="9"/>
@@ -20408,7 +20411,7 @@
       <c r="T866" s="5"/>
       <c r="U866" s="5"/>
     </row>
-    <row r="867" spans="1:21">
+    <row r="867" spans="1:21" ht="12.75">
       <c r="A867" s="7"/>
       <c r="B867" s="8"/>
       <c r="C867" s="9"/>
@@ -20431,7 +20434,7 @@
       <c r="T867" s="5"/>
       <c r="U867" s="5"/>
     </row>
-    <row r="868" spans="1:21">
+    <row r="868" spans="1:21" ht="12.75">
       <c r="A868" s="7"/>
       <c r="B868" s="8"/>
       <c r="C868" s="9"/>
@@ -20454,7 +20457,7 @@
       <c r="T868" s="5"/>
       <c r="U868" s="5"/>
     </row>
-    <row r="869" spans="1:21">
+    <row r="869" spans="1:21" ht="12.75">
       <c r="A869" s="7"/>
       <c r="B869" s="8"/>
       <c r="C869" s="9"/>
@@ -20477,7 +20480,7 @@
       <c r="T869" s="5"/>
       <c r="U869" s="5"/>
     </row>
-    <row r="870" spans="1:21">
+    <row r="870" spans="1:21" ht="12.75">
       <c r="A870" s="7"/>
       <c r="B870" s="8"/>
       <c r="C870" s="9"/>
@@ -20500,7 +20503,7 @@
       <c r="T870" s="5"/>
       <c r="U870" s="5"/>
     </row>
-    <row r="871" spans="1:21">
+    <row r="871" spans="1:21" ht="12.75">
       <c r="A871" s="7"/>
       <c r="B871" s="8"/>
       <c r="C871" s="9"/>
@@ -20523,7 +20526,7 @@
       <c r="T871" s="5"/>
       <c r="U871" s="5"/>
     </row>
-    <row r="872" spans="1:21">
+    <row r="872" spans="1:21" ht="12.75">
       <c r="A872" s="7"/>
       <c r="B872" s="8"/>
       <c r="C872" s="9"/>
@@ -20546,7 +20549,7 @@
       <c r="T872" s="5"/>
       <c r="U872" s="5"/>
     </row>
-    <row r="873" spans="1:21">
+    <row r="873" spans="1:21" ht="12.75">
       <c r="A873" s="7"/>
       <c r="B873" s="8"/>
       <c r="C873" s="9"/>
@@ -20569,7 +20572,7 @@
       <c r="T873" s="5"/>
       <c r="U873" s="5"/>
     </row>
-    <row r="874" spans="1:21">
+    <row r="874" spans="1:21" ht="12.75">
       <c r="A874" s="7"/>
       <c r="B874" s="8"/>
       <c r="C874" s="9"/>
@@ -20592,7 +20595,7 @@
       <c r="T874" s="5"/>
       <c r="U874" s="5"/>
     </row>
-    <row r="875" spans="1:21">
+    <row r="875" spans="1:21" ht="12.75">
       <c r="A875" s="7"/>
       <c r="B875" s="8"/>
       <c r="C875" s="9"/>
@@ -20615,7 +20618,7 @@
       <c r="T875" s="5"/>
       <c r="U875" s="5"/>
     </row>
-    <row r="876" spans="1:21">
+    <row r="876" spans="1:21" ht="12.75">
       <c r="A876" s="7"/>
       <c r="B876" s="8"/>
       <c r="C876" s="9"/>
@@ -20638,7 +20641,7 @@
       <c r="T876" s="5"/>
       <c r="U876" s="5"/>
     </row>
-    <row r="877" spans="1:21">
+    <row r="877" spans="1:21" ht="12.75">
       <c r="A877" s="7"/>
       <c r="B877" s="8"/>
       <c r="C877" s="9"/>
@@ -20661,7 +20664,7 @@
       <c r="T877" s="5"/>
       <c r="U877" s="5"/>
     </row>
-    <row r="878" spans="1:21">
+    <row r="878" spans="1:21" ht="12.75">
       <c r="A878" s="7"/>
       <c r="B878" s="8"/>
       <c r="C878" s="9"/>
@@ -20684,7 +20687,7 @@
       <c r="T878" s="5"/>
       <c r="U878" s="5"/>
     </row>
-    <row r="879" spans="1:21">
+    <row r="879" spans="1:21" ht="12.75">
       <c r="A879" s="7"/>
       <c r="B879" s="8"/>
       <c r="C879" s="9"/>
@@ -20707,7 +20710,7 @@
       <c r="T879" s="5"/>
       <c r="U879" s="5"/>
     </row>
-    <row r="880" spans="1:21">
+    <row r="880" spans="1:21" ht="12.75">
       <c r="A880" s="7"/>
       <c r="B880" s="8"/>
       <c r="C880" s="9"/>
@@ -20730,7 +20733,7 @@
       <c r="T880" s="5"/>
       <c r="U880" s="5"/>
     </row>
-    <row r="881" spans="1:21">
+    <row r="881" spans="1:21" ht="12.75">
       <c r="A881" s="7"/>
       <c r="B881" s="8"/>
       <c r="C881" s="9"/>
@@ -20753,7 +20756,7 @@
       <c r="T881" s="5"/>
       <c r="U881" s="5"/>
     </row>
-    <row r="882" spans="1:21">
+    <row r="882" spans="1:21" ht="12.75">
       <c r="A882" s="7"/>
       <c r="B882" s="8"/>
       <c r="C882" s="9"/>
@@ -20776,7 +20779,7 @@
       <c r="T882" s="5"/>
       <c r="U882" s="5"/>
     </row>
-    <row r="883" spans="1:21">
+    <row r="883" spans="1:21" ht="12.75">
       <c r="A883" s="7"/>
       <c r="B883" s="8"/>
       <c r="C883" s="9"/>
@@ -20799,7 +20802,7 @@
       <c r="T883" s="5"/>
       <c r="U883" s="5"/>
     </row>
-    <row r="884" spans="1:21">
+    <row r="884" spans="1:21" ht="12.75">
       <c r="A884" s="7"/>
       <c r="B884" s="8"/>
       <c r="C884" s="9"/>
@@ -20822,7 +20825,7 @@
       <c r="T884" s="5"/>
       <c r="U884" s="5"/>
     </row>
-    <row r="885" spans="1:21">
+    <row r="885" spans="1:21" ht="12.75">
       <c r="A885" s="7"/>
       <c r="B885" s="8"/>
       <c r="C885" s="9"/>
@@ -20845,7 +20848,7 @@
       <c r="T885" s="5"/>
       <c r="U885" s="5"/>
     </row>
-    <row r="886" spans="1:21">
+    <row r="886" spans="1:21" ht="12.75">
       <c r="A886" s="7"/>
       <c r="B886" s="8"/>
       <c r="C886" s="9"/>
@@ -20868,7 +20871,7 @@
       <c r="T886" s="5"/>
       <c r="U886" s="5"/>
     </row>
-    <row r="887" spans="1:21">
+    <row r="887" spans="1:21" ht="12.75">
       <c r="A887" s="7"/>
       <c r="B887" s="8"/>
       <c r="C887" s="9"/>
@@ -20891,7 +20894,7 @@
       <c r="T887" s="5"/>
       <c r="U887" s="5"/>
     </row>
-    <row r="888" spans="1:21">
+    <row r="888" spans="1:21" ht="12.75">
       <c r="A888" s="7"/>
       <c r="B888" s="8"/>
       <c r="C888" s="9"/>
@@ -20914,7 +20917,7 @@
       <c r="T888" s="5"/>
       <c r="U888" s="5"/>
     </row>
-    <row r="889" spans="1:21">
+    <row r="889" spans="1:21" ht="12.75">
       <c r="A889" s="7"/>
       <c r="B889" s="8"/>
       <c r="C889" s="9"/>
@@ -20937,7 +20940,7 @@
       <c r="T889" s="5"/>
       <c r="U889" s="5"/>
     </row>
-    <row r="890" spans="1:21">
+    <row r="890" spans="1:21" ht="12.75">
       <c r="A890" s="7"/>
       <c r="B890" s="8"/>
       <c r="C890" s="9"/>
@@ -20960,7 +20963,7 @@
       <c r="T890" s="5"/>
       <c r="U890" s="5"/>
     </row>
-    <row r="891" spans="1:21">
+    <row r="891" spans="1:21" ht="12.75">
       <c r="A891" s="7"/>
       <c r="B891" s="8"/>
       <c r="C891" s="9"/>
@@ -20983,7 +20986,7 @@
       <c r="T891" s="5"/>
       <c r="U891" s="5"/>
     </row>
-    <row r="892" spans="1:21">
+    <row r="892" spans="1:21" ht="12.75">
       <c r="A892" s="7"/>
       <c r="B892" s="8"/>
       <c r="C892" s="9"/>
@@ -21006,7 +21009,7 @@
       <c r="T892" s="5"/>
       <c r="U892" s="5"/>
     </row>
-    <row r="893" spans="1:21">
+    <row r="893" spans="1:21" ht="12.75">
       <c r="A893" s="7"/>
       <c r="B893" s="8"/>
       <c r="C893" s="9"/>
@@ -21029,7 +21032,7 @@
       <c r="T893" s="5"/>
       <c r="U893" s="5"/>
     </row>
-    <row r="894" spans="1:21">
+    <row r="894" spans="1:21" ht="12.75">
       <c r="A894" s="7"/>
       <c r="B894" s="8"/>
       <c r="C894" s="9"/>
@@ -21052,7 +21055,7 @@
       <c r="T894" s="5"/>
       <c r="U894" s="5"/>
     </row>
-    <row r="895" spans="1:21">
+    <row r="895" spans="1:21" ht="12.75">
       <c r="A895" s="7"/>
       <c r="B895" s="8"/>
       <c r="C895" s="9"/>
@@ -21075,7 +21078,7 @@
       <c r="T895" s="5"/>
       <c r="U895" s="5"/>
     </row>
-    <row r="896" spans="1:21">
+    <row r="896" spans="1:21" ht="12.75">
       <c r="A896" s="7"/>
       <c r="B896" s="8"/>
       <c r="C896" s="9"/>
@@ -21098,7 +21101,7 @@
       <c r="T896" s="5"/>
       <c r="U896" s="5"/>
     </row>
-    <row r="897" spans="1:21">
+    <row r="897" spans="1:21" ht="12.75">
       <c r="A897" s="7"/>
       <c r="B897" s="8"/>
       <c r="C897" s="9"/>
@@ -21121,7 +21124,7 @@
       <c r="T897" s="5"/>
       <c r="U897" s="5"/>
     </row>
-    <row r="898" spans="1:21">
+    <row r="898" spans="1:21" ht="12.75">
       <c r="A898" s="7"/>
       <c r="B898" s="8"/>
       <c r="C898" s="9"/>
@@ -21144,7 +21147,7 @@
       <c r="T898" s="5"/>
       <c r="U898" s="5"/>
     </row>
-    <row r="899" spans="1:21">
+    <row r="899" spans="1:21" ht="12.75">
       <c r="A899" s="7"/>
       <c r="B899" s="8"/>
       <c r="C899" s="9"/>
@@ -21167,7 +21170,7 @@
       <c r="T899" s="5"/>
       <c r="U899" s="5"/>
     </row>
-    <row r="900" spans="1:21">
+    <row r="900" spans="1:21" ht="12.75">
       <c r="A900" s="7"/>
       <c r="B900" s="8"/>
       <c r="C900" s="9"/>
@@ -21190,7 +21193,7 @@
       <c r="T900" s="5"/>
       <c r="U900" s="5"/>
     </row>
-    <row r="901" spans="1:21">
+    <row r="901" spans="1:21" ht="12.75">
       <c r="A901" s="7"/>
       <c r="B901" s="8"/>
       <c r="C901" s="9"/>
@@ -21213,7 +21216,7 @@
       <c r="T901" s="5"/>
       <c r="U901" s="5"/>
     </row>
-    <row r="902" spans="1:21">
+    <row r="902" spans="1:21" ht="12.75">
       <c r="A902" s="7"/>
       <c r="B902" s="8"/>
       <c r="C902" s="9"/>
@@ -21236,7 +21239,7 @@
       <c r="T902" s="5"/>
       <c r="U902" s="5"/>
     </row>
-    <row r="903" spans="1:21">
+    <row r="903" spans="1:21" ht="12.75">
       <c r="A903" s="7"/>
       <c r="B903" s="8"/>
       <c r="C903" s="9"/>
@@ -21259,7 +21262,7 @@
       <c r="T903" s="5"/>
       <c r="U903" s="5"/>
     </row>
-    <row r="904" spans="1:21">
+    <row r="904" spans="1:21" ht="12.75">
       <c r="A904" s="7"/>
       <c r="B904" s="8"/>
       <c r="C904" s="9"/>
@@ -21282,7 +21285,7 @@
       <c r="T904" s="5"/>
       <c r="U904" s="5"/>
     </row>
-    <row r="905" spans="1:21">
+    <row r="905" spans="1:21" ht="12.75">
       <c r="A905" s="7"/>
       <c r="B905" s="8"/>
       <c r="C905" s="9"/>
@@ -21305,7 +21308,7 @@
       <c r="T905" s="5"/>
       <c r="U905" s="5"/>
     </row>
-    <row r="906" spans="1:21">
+    <row r="906" spans="1:21" ht="12.75">
       <c r="A906" s="7"/>
       <c r="B906" s="8"/>
       <c r="C906" s="9"/>
@@ -21328,7 +21331,7 @@
       <c r="T906" s="5"/>
       <c r="U906" s="5"/>
     </row>
-    <row r="907" spans="1:21">
+    <row r="907" spans="1:21" ht="12.75">
       <c r="A907" s="7"/>
       <c r="B907" s="8"/>
       <c r="C907" s="9"/>
@@ -21351,7 +21354,7 @@
       <c r="T907" s="5"/>
       <c r="U907" s="5"/>
     </row>
-    <row r="908" spans="1:21">
+    <row r="908" spans="1:21" ht="12.75">
       <c r="A908" s="7"/>
       <c r="B908" s="8"/>
       <c r="C908" s="9"/>
@@ -21374,7 +21377,7 @@
       <c r="T908" s="5"/>
       <c r="U908" s="5"/>
     </row>
-    <row r="909" spans="1:21">
+    <row r="909" spans="1:21" ht="12.75">
       <c r="A909" s="7"/>
       <c r="B909" s="8"/>
       <c r="C909" s="9"/>
@@ -21397,7 +21400,7 @@
       <c r="T909" s="5"/>
       <c r="U909" s="5"/>
     </row>
-    <row r="910" spans="1:21">
+    <row r="910" spans="1:21" ht="12.75">
       <c r="A910" s="7"/>
       <c r="B910" s="8"/>
       <c r="C910" s="9"/>
@@ -21420,7 +21423,7 @@
       <c r="T910" s="5"/>
       <c r="U910" s="5"/>
     </row>
-    <row r="911" spans="1:21">
+    <row r="911" spans="1:21" ht="12.75">
       <c r="A911" s="7"/>
       <c r="B911" s="8"/>
       <c r="C911" s="9"/>
@@ -21443,7 +21446,7 @@
       <c r="T911" s="5"/>
       <c r="U911" s="5"/>
     </row>
-    <row r="912" spans="1:21">
+    <row r="912" spans="1:21" ht="12.75">
       <c r="A912" s="7"/>
       <c r="B912" s="8"/>
       <c r="C912" s="9"/>
@@ -21466,7 +21469,7 @@
       <c r="T912" s="5"/>
       <c r="U912" s="5"/>
     </row>
-    <row r="913" spans="1:21">
+    <row r="913" spans="1:21" ht="12.75">
       <c r="A913" s="7"/>
       <c r="B913" s="8"/>
       <c r="C913" s="9"/>
@@ -21489,7 +21492,7 @@
       <c r="T913" s="5"/>
       <c r="U913" s="5"/>
     </row>
-    <row r="914" spans="1:21">
+    <row r="914" spans="1:21" ht="12.75">
       <c r="A914" s="7"/>
       <c r="B914" s="8"/>
       <c r="C914" s="9"/>
@@ -21512,7 +21515,7 @@
       <c r="T914" s="5"/>
       <c r="U914" s="5"/>
     </row>
-    <row r="915" spans="1:21">
+    <row r="915" spans="1:21" ht="12.75">
       <c r="A915" s="7"/>
       <c r="B915" s="8"/>
       <c r="C915" s="9"/>
@@ -21535,7 +21538,7 @@
       <c r="T915" s="5"/>
       <c r="U915" s="5"/>
     </row>
-    <row r="916" spans="1:21">
+    <row r="916" spans="1:21" ht="12.75">
       <c r="A916" s="7"/>
       <c r="B916" s="8"/>
       <c r="C916" s="9"/>
@@ -21558,7 +21561,7 @@
       <c r="T916" s="5"/>
       <c r="U916" s="5"/>
     </row>
-    <row r="917" spans="1:21">
+    <row r="917" spans="1:21" ht="12.75">
       <c r="A917" s="7"/>
       <c r="B917" s="8"/>
       <c r="C917" s="9"/>
@@ -21581,7 +21584,7 @@
       <c r="T917" s="5"/>
       <c r="U917" s="5"/>
     </row>
-    <row r="918" spans="1:21">
+    <row r="918" spans="1:21" ht="12.75">
       <c r="A918" s="7"/>
       <c r="B918" s="8"/>
       <c r="C918" s="9"/>
@@ -21604,7 +21607,7 @@
       <c r="T918" s="5"/>
       <c r="U918" s="5"/>
     </row>
-    <row r="919" spans="1:21">
+    <row r="919" spans="1:21" ht="12.75">
       <c r="A919" s="7"/>
       <c r="B919" s="8"/>
       <c r="C919" s="9"/>
@@ -21627,7 +21630,7 @@
       <c r="T919" s="5"/>
       <c r="U919" s="5"/>
     </row>
-    <row r="920" spans="1:21">
+    <row r="920" spans="1:21" ht="12.75">
       <c r="A920" s="7"/>
       <c r="B920" s="8"/>
       <c r="C920" s="9"/>
@@ -21650,7 +21653,7 @@
       <c r="T920" s="5"/>
       <c r="U920" s="5"/>
     </row>
-    <row r="921" spans="1:21">
+    <row r="921" spans="1:21" ht="12.75">
       <c r="A921" s="7"/>
       <c r="B921" s="8"/>
       <c r="C921" s="9"/>
@@ -21673,7 +21676,7 @@
       <c r="T921" s="5"/>
       <c r="U921" s="5"/>
     </row>
-    <row r="922" spans="1:21">
+    <row r="922" spans="1:21" ht="12.75">
       <c r="A922" s="7"/>
       <c r="B922" s="8"/>
       <c r="C922" s="9"/>
@@ -21696,7 +21699,7 @@
       <c r="T922" s="5"/>
       <c r="U922" s="5"/>
     </row>
-    <row r="923" spans="1:21">
+    <row r="923" spans="1:21" ht="12.75">
       <c r="A923" s="7"/>
       <c r="B923" s="8"/>
       <c r="C923" s="9"/>
@@ -21719,7 +21722,7 @@
       <c r="T923" s="5"/>
       <c r="U923" s="5"/>
     </row>
-    <row r="924" spans="1:21">
+    <row r="924" spans="1:21" ht="12.75">
       <c r="A924" s="7"/>
       <c r="B924" s="8"/>
       <c r="C924" s="9"/>
@@ -21742,7 +21745,7 @@
       <c r="T924" s="5"/>
       <c r="U924" s="5"/>
     </row>
-    <row r="925" spans="1:21">
+    <row r="925" spans="1:21" ht="12.75">
       <c r="A925" s="7"/>
       <c r="B925" s="8"/>
       <c r="C925" s="9"/>
@@ -21765,7 +21768,7 @@
       <c r="T925" s="5"/>
       <c r="U925" s="5"/>
     </row>
-    <row r="926" spans="1:21">
+    <row r="926" spans="1:21" ht="12.75">
       <c r="A926" s="7"/>
       <c r="B926" s="8"/>
       <c r="C926" s="9"/>
@@ -21788,7 +21791,7 @@
       <c r="T926" s="5"/>
       <c r="U926" s="5"/>
     </row>
-    <row r="927" spans="1:21">
+    <row r="927" spans="1:21" ht="12.75">
       <c r="A927" s="7"/>
       <c r="B927" s="8"/>
       <c r="C927" s="9"/>
@@ -21811,7 +21814,7 @@
       <c r="T927" s="5"/>
       <c r="U927" s="5"/>
     </row>
-    <row r="928" spans="1:21">
+    <row r="928" spans="1:21" ht="12.75">
       <c r="A928" s="7"/>
       <c r="B928" s="8"/>
       <c r="C928" s="9"/>
@@ -21834,7 +21837,7 @@
       <c r="T928" s="5"/>
       <c r="U928" s="5"/>
     </row>
-    <row r="929" spans="1:21">
+    <row r="929" spans="1:21" ht="12.75">
       <c r="A929" s="7"/>
       <c r="B929" s="8"/>
       <c r="C929" s="9"/>
@@ -21857,7 +21860,7 @@
       <c r="T929" s="5"/>
       <c r="U929" s="5"/>
     </row>
-    <row r="930" spans="1:21">
+    <row r="930" spans="1:21" ht="12.75">
       <c r="A930" s="7"/>
       <c r="B930" s="8"/>
       <c r="C930" s="9"/>
@@ -21880,7 +21883,7 @@
       <c r="T930" s="5"/>
       <c r="U930" s="5"/>
     </row>
-    <row r="931" spans="1:21">
+    <row r="931" spans="1:21" ht="12.75">
       <c r="A931" s="7"/>
       <c r="B931" s="8"/>
       <c r="C931" s="9"/>
@@ -21903,7 +21906,7 @@
       <c r="T931" s="5"/>
       <c r="U931" s="5"/>
     </row>
-    <row r="932" spans="1:21">
+    <row r="932" spans="1:21" ht="12.75">
       <c r="A932" s="7"/>
       <c r="B932" s="8"/>
       <c r="C932" s="9"/>
@@ -21926,7 +21929,7 @@
       <c r="T932" s="5"/>
       <c r="U932" s="5"/>
     </row>
-    <row r="933" spans="1:21">
+    <row r="933" spans="1:21" ht="12.75">
       <c r="A933" s="7"/>
       <c r="B933" s="8"/>
       <c r="C933" s="9"/>
@@ -21949,7 +21952,7 @@
       <c r="T933" s="5"/>
       <c r="U933" s="5"/>
     </row>
-    <row r="934" spans="1:21">
+    <row r="934" spans="1:21" ht="12.75">
       <c r="A934" s="7"/>
       <c r="B934" s="8"/>
       <c r="C934" s="9"/>
@@ -21972,7 +21975,7 @@
       <c r="T934" s="5"/>
       <c r="U934" s="5"/>
     </row>
-    <row r="935" spans="1:21">
+    <row r="935" spans="1:21" ht="12.75">
       <c r="A935" s="7"/>
       <c r="B935" s="8"/>
       <c r="C935" s="9"/>
@@ -21995,7 +21998,7 @@
       <c r="T935" s="5"/>
       <c r="U935" s="5"/>
     </row>
-    <row r="936" spans="1:21">
+    <row r="936" spans="1:21" ht="12.75">
       <c r="A936" s="7"/>
       <c r="B936" s="8"/>
       <c r="C936" s="9"/>
@@ -22018,7 +22021,7 @@
       <c r="T936" s="5"/>
       <c r="U936" s="5"/>
     </row>
-    <row r="937" spans="1:21">
+    <row r="937" spans="1:21" ht="12.75">
       <c r="A937" s="7"/>
       <c r="B937" s="8"/>
       <c r="C937" s="9"/>
@@ -22041,7 +22044,7 @@
       <c r="T937" s="5"/>
       <c r="U937" s="5"/>
     </row>
-    <row r="938" spans="1:21">
+    <row r="938" spans="1:21" ht="12.75">
       <c r="A938" s="7"/>
       <c r="B938" s="8"/>
       <c r="C938" s="9"/>
@@ -22064,7 +22067,7 @@
       <c r="T938" s="5"/>
       <c r="U938" s="5"/>
     </row>
-    <row r="939" spans="1:21">
+    <row r="939" spans="1:21" ht="12.75">
       <c r="A939" s="7"/>
       <c r="B939" s="8"/>
       <c r="C939" s="9"/>
@@ -22087,7 +22090,7 @@
       <c r="T939" s="5"/>
       <c r="U939" s="5"/>
     </row>
-    <row r="940" spans="1:21">
+    <row r="940" spans="1:21" ht="12.75">
       <c r="A940" s="7"/>
       <c r="B940" s="8"/>
       <c r="C940" s="9"/>
@@ -22110,7 +22113,7 @@
       <c r="T940" s="5"/>
       <c r="U940" s="5"/>
     </row>
-    <row r="941" spans="1:21">
+    <row r="941" spans="1:21" ht="12.75">
       <c r="A941" s="7"/>
       <c r="B941" s="8"/>
       <c r="C941" s="9"/>
@@ -22133,7 +22136,7 @@
       <c r="T941" s="5"/>
       <c r="U941" s="5"/>
     </row>
-    <row r="942" spans="1:21">
+    <row r="942" spans="1:21" ht="12.75">
       <c r="A942" s="7"/>
       <c r="B942" s="8"/>
       <c r="C942" s="9"/>
@@ -22156,7 +22159,7 @@
       <c r="T942" s="5"/>
       <c r="U942" s="5"/>
     </row>
-    <row r="943" spans="1:21">
+    <row r="943" spans="1:21" ht="12.75">
       <c r="A943" s="7"/>
       <c r="B943" s="8"/>
       <c r="C943" s="9"/>
@@ -22179,7 +22182,7 @@
       <c r="T943" s="5"/>
       <c r="U943" s="5"/>
     </row>
-    <row r="944" spans="1:21">
+    <row r="944" spans="1:21" ht="12.75">
       <c r="A944" s="7"/>
       <c r="B944" s="8"/>
       <c r="C944" s="9"/>
@@ -22202,7 +22205,7 @@
       <c r="T944" s="5"/>
       <c r="U944" s="5"/>
     </row>
-    <row r="945" spans="1:21">
+    <row r="945" spans="1:21" ht="12.75">
       <c r="A945" s="7"/>
       <c r="B945" s="8"/>
       <c r="C945" s="9"/>
@@ -22225,7 +22228,7 @@
       <c r="T945" s="5"/>
       <c r="U945" s="5"/>
     </row>
-    <row r="946" spans="1:21">
+    <row r="946" spans="1:21" ht="12.75">
       <c r="A946" s="7"/>
       <c r="B946" s="8"/>
       <c r="C946" s="9"/>
@@ -22248,7 +22251,7 @@
       <c r="T946" s="5"/>
       <c r="U946" s="5"/>
     </row>
-    <row r="947" spans="1:21">
+    <row r="947" spans="1:21" ht="12.75">
       <c r="A947" s="7"/>
       <c r="B947" s="8"/>
       <c r="C947" s="9"/>
@@ -22271,7 +22274,7 @@
       <c r="T947" s="5"/>
       <c r="U947" s="5"/>
     </row>
-    <row r="948" spans="1:21">
+    <row r="948" spans="1:21" ht="12.75">
       <c r="A948" s="7"/>
       <c r="B948" s="8"/>
       <c r="C948" s="9"/>
@@ -22294,7 +22297,7 @@
       <c r="T948" s="5"/>
       <c r="U948" s="5"/>
     </row>
-    <row r="949" spans="1:21">
+    <row r="949" spans="1:21" ht="12.75">
       <c r="A949" s="7"/>
       <c r="B949" s="8"/>
       <c r="C949" s="9"/>
@@ -22317,7 +22320,7 @@
       <c r="T949" s="5"/>
       <c r="U949" s="5"/>
     </row>
-    <row r="950" spans="1:21">
+    <row r="950" spans="1:21" ht="12.75">
       <c r="A950" s="7"/>
       <c r="B950" s="8"/>
       <c r="C950" s="9"/>
@@ -22340,7 +22343,7 @@
       <c r="T950" s="5"/>
       <c r="U950" s="5"/>
     </row>
-    <row r="951" spans="1:21">
+    <row r="951" spans="1:21" ht="12.75">
       <c r="A951" s="7"/>
       <c r="B951" s="8"/>
       <c r="C951" s="9"/>
@@ -22363,7 +22366,7 @@
       <c r="T951" s="5"/>
       <c r="U951" s="5"/>
     </row>
-    <row r="952" spans="1:21">
+    <row r="952" spans="1:21" ht="12.75">
       <c r="A952" s="7"/>
       <c r="B952" s="8"/>
       <c r="C952" s="9"/>
@@ -22386,7 +22389,7 @@
       <c r="T952" s="5"/>
       <c r="U952" s="5"/>
     </row>
-    <row r="953" spans="1:21">
+    <row r="953" spans="1:21" ht="12.75">
       <c r="A953" s="7"/>
       <c r="B953" s="8"/>
       <c r="C953" s="9"/>
@@ -22409,7 +22412,7 @@
       <c r="T953" s="5"/>
       <c r="U953" s="5"/>
     </row>
-    <row r="954" spans="1:21">
+    <row r="954" spans="1:21" ht="12.75">
       <c r="A954" s="7"/>
       <c r="B954" s="8"/>
       <c r="C954" s="9"/>
@@ -22432,7 +22435,7 @@
       <c r="T954" s="5"/>
       <c r="U954" s="5"/>
     </row>
-    <row r="955" spans="1:21">
+    <row r="955" spans="1:21" ht="12.75">
       <c r="A955" s="7"/>
       <c r="B955" s="8"/>
       <c r="C955" s="9"/>
@@ -22455,7 +22458,7 @@
       <c r="T955" s="5"/>
       <c r="U955" s="5"/>
     </row>
-    <row r="956" spans="1:21">
+    <row r="956" spans="1:21" ht="12.75">
       <c r="A956" s="7"/>
       <c r="B956" s="8"/>
       <c r="C956" s="9"/>
@@ -22478,7 +22481,7 @@
       <c r="T956" s="5"/>
       <c r="U956" s="5"/>
     </row>
-    <row r="957" spans="1:21">
+    <row r="957" spans="1:21" ht="12.75">
       <c r="A957" s="7"/>
       <c r="B957" s="8"/>
       <c r="C957" s="9"/>
@@ -22501,7 +22504,7 @@
       <c r="T957" s="5"/>
       <c r="U957" s="5"/>
     </row>
-    <row r="958" spans="1:21">
+    <row r="958" spans="1:21" ht="12.75">
       <c r="A958" s="7"/>
       <c r="B958" s="8"/>
       <c r="C958" s="9"/>
@@ -22524,7 +22527,7 @@
       <c r="T958" s="5"/>
       <c r="U958" s="5"/>
     </row>
-    <row r="959" spans="1:21">
+    <row r="959" spans="1:21" ht="12.75">
       <c r="A959" s="7"/>
       <c r="B959" s="8"/>
       <c r="C959" s="9"/>
@@ -22547,7 +22550,7 @@
       <c r="T959" s="5"/>
       <c r="U959" s="5"/>
     </row>
-    <row r="960" spans="1:21">
+    <row r="960" spans="1:21" ht="12.75">
       <c r="A960" s="7"/>
       <c r="B960" s="8"/>
       <c r="C960" s="9"/>
@@ -22570,7 +22573,7 @@
       <c r="T960" s="5"/>
       <c r="U960" s="5"/>
     </row>
-    <row r="961" spans="1:21">
+    <row r="961" spans="1:21" ht="12.75">
       <c r="A961" s="7"/>
       <c r="B961" s="8"/>
       <c r="C961" s="9"/>
@@ -22593,7 +22596,7 @@
       <c r="T961" s="5"/>
       <c r="U961" s="5"/>
     </row>
-    <row r="962" spans="1:21">
+    <row r="962" spans="1:21" ht="12.75">
       <c r="A962" s="7"/>
       <c r="B962" s="8"/>
       <c r="C962" s="9"/>
@@ -22616,7 +22619,7 @@
       <c r="T962" s="5"/>
       <c r="U962" s="5"/>
     </row>
-    <row r="963" spans="1:21">
+    <row r="963" spans="1:21" ht="12.75">
       <c r="A963" s="7"/>
       <c r="B963" s="8"/>
       <c r="C963" s="9"/>
@@ -22639,7 +22642,7 @@
       <c r="T963" s="5"/>
       <c r="U963" s="5"/>
     </row>
-    <row r="964" spans="1:21">
+    <row r="964" spans="1:21" ht="12.75">
       <c r="A964" s="7"/>
       <c r="B964" s="8"/>
       <c r="C964" s="9"/>
@@ -22662,7 +22665,7 @@
       <c r="T964" s="5"/>
       <c r="U964" s="5"/>
     </row>
-    <row r="965" spans="1:21">
+    <row r="965" spans="1:21" ht="12.75">
       <c r="A965" s="7"/>
       <c r="B965" s="8"/>
       <c r="C965" s="9"/>
@@ -22685,7 +22688,7 @@
       <c r="T965" s="5"/>
       <c r="U965" s="5"/>
     </row>
-    <row r="966" spans="1:21">
+    <row r="966" spans="1:21" ht="12.75">
       <c r="A966" s="7"/>
       <c r="B966" s="8"/>
       <c r="C966" s="9"/>
@@ -22708,7 +22711,7 @@
       <c r="T966" s="5"/>
       <c r="U966" s="5"/>
     </row>
-    <row r="967" spans="1:21">
+    <row r="967" spans="1:21" ht="12.75">
       <c r="A967" s="7"/>
       <c r="B967" s="8"/>
       <c r="C967" s="9"/>
@@ -22731,7 +22734,7 @@
       <c r="T967" s="5"/>
       <c r="U967" s="5"/>
     </row>
-    <row r="968" spans="1:21">
+    <row r="968" spans="1:21" ht="12.75">
       <c r="A968" s="7"/>
       <c r="B968" s="8"/>
       <c r="C968" s="9"/>
@@ -22754,7 +22757,7 @@
       <c r="T968" s="5"/>
       <c r="U968" s="5"/>
     </row>
-    <row r="969" spans="1:21">
+    <row r="969" spans="1:21" ht="12.75">
       <c r="A969" s="7"/>
       <c r="B969" s="8"/>
       <c r="C969" s="9"/>
@@ -22777,7 +22780,7 @@
       <c r="T969" s="5"/>
       <c r="U969" s="5"/>
     </row>
-    <row r="970" spans="1:21">
+    <row r="970" spans="1:21" ht="12.75">
       <c r="A970" s="7"/>
       <c r="B970" s="8"/>
       <c r="C970" s="9"/>
@@ -22800,7 +22803,7 @@
       <c r="T970" s="5"/>
       <c r="U970" s="5"/>
     </row>
-    <row r="971" spans="1:21">
+    <row r="971" spans="1:21" ht="12.75">
       <c r="A971" s="7"/>
       <c r="B971" s="8"/>
       <c r="C971" s="9"/>
@@ -22823,7 +22826,7 @@
       <c r="T971" s="5"/>
       <c r="U971" s="5"/>
     </row>
-    <row r="972" spans="1:21">
+    <row r="972" spans="1:21" ht="12.75">
       <c r="A972" s="7"/>
       <c r="B972" s="8"/>
       <c r="C972" s="9"/>
@@ -22846,7 +22849,7 @@
       <c r="T972" s="5"/>
       <c r="U972" s="5"/>
     </row>
-    <row r="973" spans="1:21">
+    <row r="973" spans="1:21" ht="12.75">
       <c r="A973" s="7"/>
       <c r="B973" s="8"/>
       <c r="C973" s="9"/>
@@ -22869,7 +22872,7 @@
       <c r="T973" s="5"/>
       <c r="U973" s="5"/>
     </row>
-    <row r="974" spans="1:21">
+    <row r="974" spans="1:21" ht="12.75">
       <c r="A974" s="7"/>
       <c r="B974" s="8"/>
       <c r="C974" s="9"/>
@@ -22892,7 +22895,7 @@
       <c r="T974" s="5"/>
       <c r="U974" s="5"/>
     </row>
-    <row r="975" spans="1:21">
+    <row r="975" spans="1:21" ht="12.75">
       <c r="A975" s="7"/>
       <c r="B975" s="8"/>
       <c r="C975" s="9"/>
@@ -22915,7 +22918,7 @@
       <c r="T975" s="5"/>
       <c r="U975" s="5"/>
     </row>
-    <row r="976" spans="1:21">
+    <row r="976" spans="1:21" ht="12.75">
       <c r="A976" s="7"/>
       <c r="B976" s="8"/>
       <c r="C976" s="9"/>
@@ -22938,7 +22941,7 @@
       <c r="T976" s="5"/>
       <c r="U976" s="5"/>
     </row>
-    <row r="977" spans="1:21">
+    <row r="977" spans="1:21" ht="12.75">
       <c r="A977" s="7"/>
       <c r="B977" s="8"/>
       <c r="C977" s="9"/>
@@ -22961,7 +22964,7 @@
       <c r="T977" s="5"/>
       <c r="U977" s="5"/>
     </row>
-    <row r="978" spans="1:21">
+    <row r="978" spans="1:21" ht="12.75">
       <c r="A978" s="7"/>
       <c r="B978" s="8"/>
       <c r="C978" s="9"/>
@@ -22985,23 +22988,6 @@
       <c r="U978" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E978">
-      <formula1>"Janeiro,Fevereiro,Março,Abril,Maio,Junho,Julho,Agosto,Setembro,Outubro,Novembro,Dezembro"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Dados!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D978</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/despesas_2023.xlsx
+++ b/data/despesas_2023.xlsx
@@ -15,7 +15,6 @@
     <sheet name="DESPESAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>DATA</t>
   </si>
@@ -58,6 +57,9 @@
   </si>
   <si>
     <t>Goleiro</t>
+  </si>
+  <si>
+    <t>Julho</t>
   </si>
 </sst>
 </file>
@@ -440,7 +442,7 @@
   <dimension ref="A1:U978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -586,11 +588,21 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="7">
+        <v>45128</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>950</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -609,11 +621,21 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="7">
+        <v>45109</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>240</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -632,11 +654,21 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="7">
+        <v>45159</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>120</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>

--- a/data/despesas_2023.xlsx
+++ b/data/despesas_2023.xlsx
@@ -439,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U978"/>
+  <dimension ref="A1:U975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -490,19 +490,19 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="7">
-        <v>45140</v>
+        <v>45128</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="9">
-        <v>240</v>
+        <v>950</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -523,19 +523,19 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="7">
-        <v>45159</v>
+        <v>45109</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -589,19 +589,19 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="7">
-        <v>45128</v>
+        <v>45140</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9">
-        <v>950</v>
+        <v>240</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -622,19 +622,19 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="7">
-        <v>45109</v>
+        <v>45159</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9">
-        <v>240</v>
+        <v>950</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1330,7 +1330,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+    <row r="36" spans="1:21" ht="12.75">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -1353,7 +1353,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+    <row r="37" spans="1:21" ht="12.75">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1376,7 +1376,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+    <row r="38" spans="1:21" ht="12.75">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -22950,75 +22950,6 @@
       <c r="T975" s="5"/>
       <c r="U975" s="5"/>
     </row>
-    <row r="976" spans="1:21" ht="12.75">
-      <c r="A976" s="7"/>
-      <c r="B976" s="8"/>
-      <c r="C976" s="9"/>
-      <c r="D976" s="8"/>
-      <c r="E976" s="8"/>
-      <c r="F976" s="5"/>
-      <c r="G976" s="5"/>
-      <c r="H976" s="5"/>
-      <c r="I976" s="5"/>
-      <c r="J976" s="5"/>
-      <c r="K976" s="5"/>
-      <c r="L976" s="5"/>
-      <c r="M976" s="5"/>
-      <c r="N976" s="5"/>
-      <c r="O976" s="5"/>
-      <c r="P976" s="5"/>
-      <c r="Q976" s="5"/>
-      <c r="R976" s="5"/>
-      <c r="S976" s="5"/>
-      <c r="T976" s="5"/>
-      <c r="U976" s="5"/>
-    </row>
-    <row r="977" spans="1:21" ht="12.75">
-      <c r="A977" s="7"/>
-      <c r="B977" s="8"/>
-      <c r="C977" s="9"/>
-      <c r="D977" s="8"/>
-      <c r="E977" s="8"/>
-      <c r="F977" s="5"/>
-      <c r="G977" s="5"/>
-      <c r="H977" s="5"/>
-      <c r="I977" s="5"/>
-      <c r="J977" s="5"/>
-      <c r="K977" s="5"/>
-      <c r="L977" s="5"/>
-      <c r="M977" s="5"/>
-      <c r="N977" s="5"/>
-      <c r="O977" s="5"/>
-      <c r="P977" s="5"/>
-      <c r="Q977" s="5"/>
-      <c r="R977" s="5"/>
-      <c r="S977" s="5"/>
-      <c r="T977" s="5"/>
-      <c r="U977" s="5"/>
-    </row>
-    <row r="978" spans="1:21" ht="12.75">
-      <c r="A978" s="7"/>
-      <c r="B978" s="8"/>
-      <c r="C978" s="9"/>
-      <c r="D978" s="8"/>
-      <c r="E978" s="8"/>
-      <c r="F978" s="5"/>
-      <c r="G978" s="5"/>
-      <c r="H978" s="5"/>
-      <c r="I978" s="5"/>
-      <c r="J978" s="5"/>
-      <c r="K978" s="5"/>
-      <c r="L978" s="5"/>
-      <c r="M978" s="5"/>
-      <c r="N978" s="5"/>
-      <c r="O978" s="5"/>
-      <c r="P978" s="5"/>
-      <c r="Q978" s="5"/>
-      <c r="R978" s="5"/>
-      <c r="S978" s="5"/>
-      <c r="T978" s="5"/>
-      <c r="U978" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/despesas_2023.xlsx
+++ b/data/despesas_2023.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:U975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>

--- a/data/despesas_2023.xlsx
+++ b/data/despesas_2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Setembro</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>DATA</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Courtois + Hugo</t>
+  </si>
+  <si>
+    <t>Bola</t>
+  </si>
+  <si>
+    <t>Sandro (copa)</t>
+  </si>
+  <si>
+    <t>Courtois + Hugo (copa)</t>
   </si>
 </sst>
 </file>
@@ -439,10 +454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -672,6 +687,74 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A8" s="5">
+        <v>45173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A9" s="5">
+        <v>45175</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A10" s="5">
+        <v>45180</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A11" s="5">
+        <v>45180</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>120</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
